--- a/database/industries/felezat/fasmin/product/monthly_seprated.xlsx
+++ b/database/industries/felezat/fasmin/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\fasmin\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4004D41F-44C0-4E84-92F7-73E6D354CD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E969033D-F2E8-4001-9485-27C05D7A2A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="92">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1513,8 +1513,8 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>0</v>
       </c>
       <c r="Z11" s="11">
         <v>0</v>
@@ -1543,8 +1543,8 @@
       <c r="AH11" s="11">
         <v>0</v>
       </c>
-      <c r="AI11" s="11">
-        <v>0</v>
+      <c r="AI11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ11" s="11" t="s">
         <v>58</v>
@@ -1561,17 +1561,17 @@
       <c r="AN11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>0</v>
+      <c r="AO11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR11" s="11" t="s">
-        <v>58</v>
+      <c r="AR11" s="11">
+        <v>0</v>
       </c>
       <c r="AS11" s="11">
         <v>0</v>
@@ -1672,95 +1672,95 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>688</v>
       </c>
       <c r="Z12" s="13">
-        <v>688</v>
+        <v>529</v>
       </c>
       <c r="AA12" s="13">
-        <v>529</v>
+        <v>349</v>
       </c>
       <c r="AB12" s="13">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="AC12" s="13">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="AD12" s="13">
+        <v>285</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>350</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>396</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>484</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>451</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>393</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>490</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>586</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>405</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>379</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>334</v>
+      </c>
+      <c r="AO12" s="13">
         <v>213</v>
       </c>
-      <c r="AE12" s="13">
-        <v>285</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>350</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>396</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>484</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>451</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>393</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>490</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>586</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>405</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>379</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>334</v>
-      </c>
       <c r="AP12" s="13">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="AQ12" s="13">
-        <v>227</v>
+        <v>301</v>
       </c>
       <c r="AR12" s="13">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="AS12" s="13">
-        <v>376</v>
+        <v>305</v>
       </c>
       <c r="AT12" s="13">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AU12" s="13">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AV12" s="13">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="AW12" s="13">
-        <v>293</v>
+        <v>398</v>
       </c>
       <c r="AX12" s="13">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="AY12" s="13">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="AZ12" s="13">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="BA12" s="13">
-        <v>302</v>
+        <v>353</v>
       </c>
       <c r="BB12" s="13">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1831,95 +1831,95 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>2055</v>
       </c>
       <c r="Z13" s="11">
-        <v>2055</v>
+        <v>2614</v>
       </c>
       <c r="AA13" s="11">
-        <v>2614</v>
+        <v>3018</v>
       </c>
       <c r="AB13" s="11">
-        <v>3018</v>
+        <v>3140</v>
       </c>
       <c r="AC13" s="11">
-        <v>3140</v>
+        <v>2868</v>
       </c>
       <c r="AD13" s="11">
-        <v>2868</v>
+        <v>2911</v>
       </c>
       <c r="AE13" s="11">
-        <v>2911</v>
+        <v>2847</v>
       </c>
       <c r="AF13" s="11">
-        <v>2847</v>
+        <v>2948</v>
       </c>
       <c r="AG13" s="11">
-        <v>2948</v>
+        <v>3094</v>
       </c>
       <c r="AH13" s="11">
-        <v>3094</v>
+        <v>3134</v>
       </c>
       <c r="AI13" s="11">
-        <v>3134</v>
+        <v>3399</v>
       </c>
       <c r="AJ13" s="11">
-        <v>3399</v>
+        <v>3138</v>
       </c>
       <c r="AK13" s="11">
-        <v>3138</v>
+        <v>2953</v>
       </c>
       <c r="AL13" s="11">
-        <v>2953</v>
+        <v>2939</v>
       </c>
       <c r="AM13" s="11">
-        <v>2939</v>
+        <v>3107</v>
       </c>
       <c r="AN13" s="11">
-        <v>3107</v>
+        <v>3478</v>
       </c>
       <c r="AO13" s="11">
-        <v>3478</v>
+        <v>3658</v>
       </c>
       <c r="AP13" s="11">
-        <v>3658</v>
+        <v>3429</v>
       </c>
       <c r="AQ13" s="11">
-        <v>3429</v>
+        <v>3327</v>
       </c>
       <c r="AR13" s="11">
-        <v>3327</v>
+        <v>3137</v>
       </c>
       <c r="AS13" s="11">
-        <v>3137</v>
+        <v>3426</v>
       </c>
       <c r="AT13" s="11">
-        <v>3426</v>
+        <v>3390</v>
       </c>
       <c r="AU13" s="11">
-        <v>3390</v>
+        <v>3916</v>
       </c>
       <c r="AV13" s="11">
-        <v>3916</v>
+        <v>3727</v>
       </c>
       <c r="AW13" s="11">
-        <v>3727</v>
+        <v>3081</v>
       </c>
       <c r="AX13" s="11">
-        <v>3081</v>
+        <v>9937</v>
       </c>
       <c r="AY13" s="11">
-        <v>2498</v>
+        <v>2972</v>
       </c>
       <c r="AZ13" s="11">
-        <v>2972</v>
+        <v>11005</v>
       </c>
       <c r="BA13" s="11">
-        <v>3566</v>
+        <v>10978</v>
       </c>
       <c r="BB13" s="11">
-        <v>3539</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1990,95 +1990,95 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>15515</v>
       </c>
       <c r="Z14" s="13">
-        <v>15515</v>
+        <v>13602</v>
       </c>
       <c r="AA14" s="13">
-        <v>13602</v>
+        <v>13883</v>
       </c>
       <c r="AB14" s="13">
-        <v>13883</v>
+        <v>13187</v>
       </c>
       <c r="AC14" s="13">
-        <v>13187</v>
+        <v>12333</v>
       </c>
       <c r="AD14" s="13">
-        <v>12333</v>
+        <v>13867</v>
       </c>
       <c r="AE14" s="13">
-        <v>13867</v>
+        <v>15085</v>
       </c>
       <c r="AF14" s="13">
-        <v>15085</v>
+        <v>14150</v>
       </c>
       <c r="AG14" s="13">
-        <v>14150</v>
+        <v>15816</v>
       </c>
       <c r="AH14" s="13">
-        <v>15816</v>
+        <v>16615</v>
       </c>
       <c r="AI14" s="13">
-        <v>16615</v>
+        <v>14189</v>
       </c>
       <c r="AJ14" s="13">
-        <v>14189</v>
+        <v>17540</v>
       </c>
       <c r="AK14" s="13">
-        <v>17540</v>
+        <v>18827</v>
       </c>
       <c r="AL14" s="13">
-        <v>18827</v>
+        <v>15387</v>
       </c>
       <c r="AM14" s="13">
-        <v>15387</v>
+        <v>16391</v>
       </c>
       <c r="AN14" s="13">
-        <v>16391</v>
+        <v>15291</v>
       </c>
       <c r="AO14" s="13">
-        <v>15291</v>
+        <v>10208</v>
       </c>
       <c r="AP14" s="13">
-        <v>10208</v>
+        <v>11787</v>
       </c>
       <c r="AQ14" s="13">
-        <v>11787</v>
+        <v>14128</v>
       </c>
       <c r="AR14" s="13">
-        <v>14128</v>
+        <v>17289</v>
       </c>
       <c r="AS14" s="13">
-        <v>17289</v>
+        <v>17310</v>
       </c>
       <c r="AT14" s="13">
-        <v>17310</v>
+        <v>17678</v>
       </c>
       <c r="AU14" s="13">
-        <v>17678</v>
+        <v>16641</v>
       </c>
       <c r="AV14" s="13">
-        <v>16641</v>
+        <v>16926</v>
       </c>
       <c r="AW14" s="13">
-        <v>16926</v>
+        <v>16617</v>
       </c>
       <c r="AX14" s="13">
-        <v>16617</v>
+        <v>16896</v>
       </c>
       <c r="AY14" s="13">
-        <v>16896</v>
+        <v>17284</v>
       </c>
       <c r="AZ14" s="13">
-        <v>17284</v>
+        <v>15152</v>
       </c>
       <c r="BA14" s="13">
-        <v>15152</v>
+        <v>16569</v>
       </c>
       <c r="BB14" s="13">
-        <v>16569</v>
+        <v>16380</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2152,92 +2152,92 @@
       <c r="Y15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z15" s="11" t="s">
-        <v>58</v>
+      <c r="Z15" s="11">
+        <v>3145</v>
       </c>
       <c r="AA15" s="11">
-        <v>3145</v>
+        <v>2921</v>
       </c>
       <c r="AB15" s="11">
-        <v>2921</v>
+        <v>3092</v>
       </c>
       <c r="AC15" s="11">
-        <v>3092</v>
+        <v>1685</v>
       </c>
       <c r="AD15" s="11">
-        <v>1685</v>
+        <v>309</v>
       </c>
       <c r="AE15" s="11">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="11">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="AG15" s="11">
-        <v>545</v>
-      </c>
-      <c r="AH15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI15" s="11">
         <v>585</v>
       </c>
+      <c r="AJ15" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AK15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL15" s="11" t="s">
-        <v>58</v>
+      <c r="AL15" s="11">
+        <v>1427</v>
       </c>
       <c r="AM15" s="11">
-        <v>1427</v>
+        <v>2199</v>
       </c>
       <c r="AN15" s="11">
-        <v>2199</v>
+        <v>1910</v>
       </c>
       <c r="AO15" s="11">
-        <v>1910</v>
+        <v>881</v>
       </c>
       <c r="AP15" s="11">
-        <v>881</v>
+        <v>1528</v>
       </c>
       <c r="AQ15" s="11">
-        <v>1528</v>
+        <v>1103</v>
       </c>
       <c r="AR15" s="11">
-        <v>1103</v>
+        <v>2952</v>
       </c>
       <c r="AS15" s="11">
-        <v>2952</v>
+        <v>2860</v>
       </c>
       <c r="AT15" s="11">
-        <v>2860</v>
+        <v>2383</v>
       </c>
       <c r="AU15" s="11">
-        <v>2383</v>
+        <v>2982</v>
       </c>
       <c r="AV15" s="11">
-        <v>2982</v>
+        <v>3279</v>
       </c>
       <c r="AW15" s="11">
-        <v>3279</v>
+        <v>2575</v>
       </c>
       <c r="AX15" s="11">
-        <v>2575</v>
+        <v>3412</v>
       </c>
       <c r="AY15" s="11">
-        <v>3412</v>
+        <v>3806</v>
       </c>
       <c r="AZ15" s="11">
-        <v>3806</v>
+        <v>2467</v>
       </c>
       <c r="BA15" s="11">
-        <v>2467</v>
+        <v>4356</v>
       </c>
       <c r="BB15" s="11">
-        <v>4356</v>
+        <v>5285</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2356,14 +2356,14 @@
       <c r="AN16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="13" t="s">
-        <v>58</v>
+      <c r="AO16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>0</v>
       </c>
       <c r="AR16" s="13">
         <v>0</v>
@@ -2542,8 +2542,8 @@
       <c r="AW17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX17" s="11" t="s">
-        <v>58</v>
+      <c r="AX17" s="11">
+        <v>0</v>
       </c>
       <c r="AY17" s="11">
         <v>0</v>
@@ -2625,94 +2625,94 @@
         <v>0</v>
       </c>
       <c r="Y18" s="15">
-        <v>0</v>
+        <v>18258</v>
       </c>
       <c r="Z18" s="15">
-        <v>18258</v>
+        <v>19890</v>
       </c>
       <c r="AA18" s="15">
-        <v>19890</v>
+        <v>20171</v>
       </c>
       <c r="AB18" s="15">
-        <v>20171</v>
+        <v>19727</v>
       </c>
       <c r="AC18" s="15">
-        <v>19727</v>
+        <v>17099</v>
       </c>
       <c r="AD18" s="15">
-        <v>17099</v>
+        <v>17372</v>
       </c>
       <c r="AE18" s="15">
-        <v>17372</v>
+        <v>18282</v>
       </c>
       <c r="AF18" s="15">
-        <v>18282</v>
+        <v>18039</v>
       </c>
       <c r="AG18" s="15">
-        <v>18039</v>
+        <v>19394</v>
       </c>
       <c r="AH18" s="15">
-        <v>19394</v>
+        <v>20200</v>
       </c>
       <c r="AI18" s="15">
-        <v>20200</v>
+        <v>18566</v>
       </c>
       <c r="AJ18" s="15">
-        <v>18566</v>
+        <v>21168</v>
       </c>
       <c r="AK18" s="15">
-        <v>21168</v>
+        <v>22366</v>
       </c>
       <c r="AL18" s="15">
-        <v>22366</v>
+        <v>20158</v>
       </c>
       <c r="AM18" s="15">
-        <v>20158</v>
+        <v>22076</v>
       </c>
       <c r="AN18" s="15">
-        <v>22076</v>
+        <v>21013</v>
       </c>
       <c r="AO18" s="15">
-        <v>21013</v>
+        <v>14960</v>
       </c>
       <c r="AP18" s="15">
-        <v>14960</v>
+        <v>16971</v>
       </c>
       <c r="AQ18" s="15">
-        <v>16971</v>
+        <v>18859</v>
       </c>
       <c r="AR18" s="15">
-        <v>18859</v>
+        <v>23754</v>
       </c>
       <c r="AS18" s="15">
-        <v>23754</v>
+        <v>23901</v>
       </c>
       <c r="AT18" s="15">
-        <v>23901</v>
+        <v>23765</v>
       </c>
       <c r="AU18" s="15">
-        <v>23765</v>
+        <v>23845</v>
       </c>
       <c r="AV18" s="15">
-        <v>23845</v>
+        <v>24225</v>
       </c>
       <c r="AW18" s="15">
-        <v>24225</v>
+        <v>22671</v>
       </c>
       <c r="AX18" s="15">
-        <v>22671</v>
+        <v>30588</v>
       </c>
       <c r="AY18" s="15">
-        <v>23149</v>
+        <v>24379</v>
       </c>
       <c r="AZ18" s="15">
-        <v>24379</v>
+        <v>28926</v>
       </c>
       <c r="BA18" s="15">
-        <v>21487</v>
+        <v>32256</v>
       </c>
       <c r="BB18" s="15">
-        <v>24817</v>
+        <v>25484</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2840,8 +2840,8 @@
       <c r="X20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y20" s="11" t="s">
-        <v>58</v>
+      <c r="Y20" s="11">
+        <v>0</v>
       </c>
       <c r="Z20" s="11">
         <v>0</v>
@@ -2870,8 +2870,8 @@
       <c r="AH20" s="11">
         <v>0</v>
       </c>
-      <c r="AI20" s="11">
-        <v>0</v>
+      <c r="AI20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ20" s="11" t="s">
         <v>58</v>
@@ -2897,14 +2897,14 @@
       <c r="AQ20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR20" s="11" t="s">
-        <v>58</v>
+      <c r="AR20" s="11">
+        <v>0</v>
       </c>
       <c r="AS20" s="11">
         <v>0</v>
       </c>
-      <c r="AT20" s="11">
-        <v>0</v>
+      <c r="AT20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU20" s="11" t="s">
         <v>58</v>
@@ -2999,8 +2999,8 @@
       <c r="X21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y21" s="13" t="s">
-        <v>58</v>
+      <c r="Y21" s="13">
+        <v>0</v>
       </c>
       <c r="Z21" s="13">
         <v>0</v>
@@ -3029,8 +3029,8 @@
       <c r="AH21" s="13">
         <v>0</v>
       </c>
-      <c r="AI21" s="13">
-        <v>0</v>
+      <c r="AI21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ21" s="13" t="s">
         <v>58</v>
@@ -3056,8 +3056,8 @@
       <c r="AQ21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR21" s="13" t="s">
-        <v>58</v>
+      <c r="AR21" s="13">
+        <v>0</v>
       </c>
       <c r="AS21" s="13">
         <v>0</v>
@@ -3221,8 +3221,8 @@
       <c r="AS22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT22" s="11" t="s">
-        <v>58</v>
+      <c r="AT22" s="11">
+        <v>0</v>
       </c>
       <c r="AU22" s="11">
         <v>0</v>
@@ -3558,11 +3558,11 @@
       <c r="AG25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI25" s="11">
-        <v>0</v>
+      <c r="AH25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ25" s="11" t="s">
         <v>58</v>
@@ -3588,11 +3588,11 @@
       <c r="AQ25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS25" s="11">
-        <v>0</v>
+      <c r="AR25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT25" s="11" t="s">
         <v>58</v>
@@ -3600,23 +3600,23 @@
       <c r="AU25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="11" t="s">
-        <v>58</v>
+      <c r="AV25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX25" s="11">
+        <v>0</v>
       </c>
       <c r="AY25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA25" s="11" t="s">
-        <v>58</v>
+      <c r="AZ25" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="11">
+        <v>0</v>
       </c>
       <c r="BB25" s="11" t="s">
         <v>58</v>
@@ -3690,8 +3690,8 @@
       <c r="X26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y26" s="13" t="s">
-        <v>58</v>
+      <c r="Y26" s="13">
+        <v>0</v>
       </c>
       <c r="Z26" s="13">
         <v>0</v>
@@ -3717,8 +3717,8 @@
       <c r="AG26" s="13">
         <v>0</v>
       </c>
-      <c r="AH26" s="13">
-        <v>0</v>
+      <c r="AH26" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI26" s="13" t="s">
         <v>58</v>
@@ -3849,8 +3849,8 @@
       <c r="X27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y27" s="11" t="s">
-        <v>58</v>
+      <c r="Y27" s="11">
+        <v>0</v>
       </c>
       <c r="Z27" s="11">
         <v>0</v>
@@ -3879,8 +3879,8 @@
       <c r="AH27" s="11">
         <v>0</v>
       </c>
-      <c r="AI27" s="11">
-        <v>0</v>
+      <c r="AI27" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ27" s="11" t="s">
         <v>58</v>
@@ -3906,11 +3906,11 @@
       <c r="AQ27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS27" s="11">
-        <v>0</v>
+      <c r="AR27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT27" s="11" t="s">
         <v>58</v>
@@ -3918,23 +3918,23 @@
       <c r="AU27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX27" s="11" t="s">
-        <v>58</v>
+      <c r="AV27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX27" s="11">
+        <v>0</v>
       </c>
       <c r="AY27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA27" s="11" t="s">
-        <v>58</v>
+      <c r="AZ27" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="11">
+        <v>0</v>
       </c>
       <c r="BB27" s="11" t="s">
         <v>58</v>
@@ -4077,23 +4077,23 @@
       <c r="AU28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW28" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX28" s="13" t="s">
-        <v>58</v>
+      <c r="AV28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX28" s="13">
+        <v>0</v>
       </c>
       <c r="AY28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA28" s="13" t="s">
-        <v>58</v>
+      <c r="AZ28" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="13">
+        <v>0</v>
       </c>
       <c r="BB28" s="13" t="s">
         <v>58</v>
@@ -4165,8 +4165,8 @@
       <c r="X29" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y29" s="17" t="s">
-        <v>58</v>
+      <c r="Y29" s="17">
+        <v>0</v>
       </c>
       <c r="Z29" s="17">
         <v>0</v>
@@ -4323,94 +4323,94 @@
         <v>0</v>
       </c>
       <c r="Y30" s="15">
-        <v>0</v>
+        <v>18258</v>
       </c>
       <c r="Z30" s="15">
-        <v>18258</v>
+        <v>19890</v>
       </c>
       <c r="AA30" s="15">
-        <v>19890</v>
+        <v>20171</v>
       </c>
       <c r="AB30" s="15">
-        <v>20171</v>
+        <v>19727</v>
       </c>
       <c r="AC30" s="15">
-        <v>19727</v>
+        <v>17099</v>
       </c>
       <c r="AD30" s="15">
-        <v>17099</v>
+        <v>17372</v>
       </c>
       <c r="AE30" s="15">
-        <v>17372</v>
+        <v>18282</v>
       </c>
       <c r="AF30" s="15">
-        <v>18282</v>
+        <v>18039</v>
       </c>
       <c r="AG30" s="15">
-        <v>18039</v>
+        <v>19394</v>
       </c>
       <c r="AH30" s="15">
-        <v>19394</v>
+        <v>20200</v>
       </c>
       <c r="AI30" s="15">
-        <v>20200</v>
+        <v>18566</v>
       </c>
       <c r="AJ30" s="15">
-        <v>18566</v>
+        <v>21168</v>
       </c>
       <c r="AK30" s="15">
-        <v>21168</v>
+        <v>22366</v>
       </c>
       <c r="AL30" s="15">
-        <v>22366</v>
+        <v>20158</v>
       </c>
       <c r="AM30" s="15">
-        <v>20158</v>
+        <v>22076</v>
       </c>
       <c r="AN30" s="15">
-        <v>22076</v>
+        <v>21013</v>
       </c>
       <c r="AO30" s="15">
-        <v>21013</v>
+        <v>14960</v>
       </c>
       <c r="AP30" s="15">
-        <v>14960</v>
+        <v>16971</v>
       </c>
       <c r="AQ30" s="15">
-        <v>16971</v>
+        <v>18859</v>
       </c>
       <c r="AR30" s="15">
-        <v>18859</v>
+        <v>23754</v>
       </c>
       <c r="AS30" s="15">
-        <v>23754</v>
+        <v>23901</v>
       </c>
       <c r="AT30" s="15">
-        <v>23901</v>
+        <v>23765</v>
       </c>
       <c r="AU30" s="15">
-        <v>23765</v>
+        <v>23845</v>
       </c>
       <c r="AV30" s="15">
-        <v>23845</v>
+        <v>24225</v>
       </c>
       <c r="AW30" s="15">
-        <v>24225</v>
+        <v>22671</v>
       </c>
       <c r="AX30" s="15">
-        <v>22671</v>
+        <v>30588</v>
       </c>
       <c r="AY30" s="15">
-        <v>23149</v>
+        <v>24379</v>
       </c>
       <c r="AZ30" s="15">
-        <v>24379</v>
+        <v>28926</v>
       </c>
       <c r="BA30" s="15">
-        <v>21487</v>
+        <v>32256</v>
       </c>
       <c r="BB30" s="15">
-        <v>24817</v>
+        <v>25484</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -4915,8 +4915,8 @@
       <c r="X37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y37" s="11" t="s">
-        <v>58</v>
+      <c r="Y37" s="11">
+        <v>0</v>
       </c>
       <c r="Z37" s="11">
         <v>0</v>
@@ -4925,10 +4925,10 @@
         <v>0</v>
       </c>
       <c r="AB37" s="11">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AC37" s="11">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="11">
         <v>0</v>
@@ -4945,8 +4945,8 @@
       <c r="AH37" s="11">
         <v>0</v>
       </c>
-      <c r="AI37" s="11">
-        <v>0</v>
+      <c r="AI37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ37" s="11" t="s">
         <v>58</v>
@@ -4963,17 +4963,17 @@
       <c r="AN37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP37" s="11">
-        <v>0</v>
+      <c r="AO37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR37" s="11" t="s">
-        <v>58</v>
+      <c r="AR37" s="11">
+        <v>0</v>
       </c>
       <c r="AS37" s="11">
         <v>0</v>
@@ -5074,65 +5074,65 @@
       <c r="X38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y38" s="13" t="s">
-        <v>58</v>
+      <c r="Y38" s="13">
+        <v>602</v>
       </c>
       <c r="Z38" s="13">
-        <v>602</v>
+        <v>990</v>
       </c>
       <c r="AA38" s="13">
-        <v>990</v>
+        <v>1063</v>
       </c>
       <c r="AB38" s="13">
-        <v>1063</v>
+        <v>903</v>
       </c>
       <c r="AC38" s="13">
-        <v>903</v>
+        <v>886</v>
       </c>
       <c r="AD38" s="13">
-        <v>886</v>
+        <v>180</v>
       </c>
       <c r="AE38" s="13">
-        <v>180</v>
+        <v>564</v>
       </c>
       <c r="AF38" s="13">
-        <v>564</v>
+        <v>51</v>
       </c>
       <c r="AG38" s="13">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="13">
         <v>0</v>
       </c>
       <c r="AI38" s="13">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="AJ38" s="13">
-        <v>713</v>
+        <v>1000</v>
       </c>
       <c r="AK38" s="13">
-        <v>1000</v>
+        <v>661</v>
       </c>
       <c r="AL38" s="13">
-        <v>661</v>
+        <v>244</v>
       </c>
       <c r="AM38" s="13">
-        <v>244</v>
+        <v>609</v>
       </c>
       <c r="AN38" s="13">
-        <v>609</v>
+        <v>474</v>
       </c>
       <c r="AO38" s="13">
-        <v>474</v>
+        <v>328</v>
       </c>
       <c r="AP38" s="13">
-        <v>328</v>
+        <v>220</v>
       </c>
       <c r="AQ38" s="13">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="AR38" s="13">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="13">
         <v>0</v>
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="AW38" s="13">
-        <v>0</v>
+        <v>2477</v>
       </c>
       <c r="AX38" s="13">
-        <v>2477</v>
+        <v>0</v>
       </c>
       <c r="AY38" s="13">
         <v>0</v>
@@ -5233,95 +5233,95 @@
       <c r="X39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="11" t="s">
-        <v>58</v>
+      <c r="Y39" s="11">
+        <v>300</v>
       </c>
       <c r="Z39" s="11">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="AA39" s="11">
-        <v>560</v>
+        <v>3482</v>
       </c>
       <c r="AB39" s="11">
-        <v>3482</v>
+        <v>1560</v>
       </c>
       <c r="AC39" s="11">
-        <v>1560</v>
+        <v>100</v>
       </c>
       <c r="AD39" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="11">
         <v>0</v>
       </c>
       <c r="AF39" s="11">
-        <v>0</v>
+        <v>1160</v>
       </c>
       <c r="AG39" s="11">
-        <v>1160</v>
+        <v>240</v>
       </c>
       <c r="AH39" s="11">
-        <v>240</v>
-      </c>
-      <c r="AI39" s="11">
         <v>145</v>
       </c>
-      <c r="AJ39" s="11" t="s">
-        <v>58</v>
+      <c r="AI39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ39" s="11">
+        <v>1116</v>
       </c>
       <c r="AK39" s="11">
-        <v>1116</v>
+        <v>445</v>
       </c>
       <c r="AL39" s="11">
-        <v>445</v>
+        <v>260</v>
       </c>
       <c r="AM39" s="11">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="AN39" s="11">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AO39" s="11">
-        <v>400</v>
+        <v>690</v>
       </c>
       <c r="AP39" s="11">
-        <v>690</v>
+        <v>1795</v>
       </c>
       <c r="AQ39" s="11">
-        <v>1795</v>
+        <v>1790</v>
       </c>
       <c r="AR39" s="11">
-        <v>1790</v>
+        <v>1409</v>
       </c>
       <c r="AS39" s="11">
-        <v>1409</v>
+        <v>1620</v>
       </c>
       <c r="AT39" s="11">
-        <v>1620</v>
+        <v>999</v>
       </c>
       <c r="AU39" s="11">
-        <v>999</v>
+        <v>1149</v>
       </c>
       <c r="AV39" s="11">
-        <v>1149</v>
+        <v>4424</v>
       </c>
       <c r="AW39" s="11">
-        <v>4424</v>
+        <v>3173</v>
       </c>
       <c r="AX39" s="11">
-        <v>3173</v>
+        <v>3122</v>
       </c>
       <c r="AY39" s="11">
-        <v>3122</v>
+        <v>1675</v>
       </c>
       <c r="AZ39" s="11">
-        <v>1675</v>
+        <v>3300</v>
       </c>
       <c r="BA39" s="11">
-        <v>3300</v>
+        <v>3099</v>
       </c>
       <c r="BB39" s="11">
-        <v>3099</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5392,56 +5392,56 @@
       <c r="X40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y40" s="13" t="s">
-        <v>58</v>
+      <c r="Y40" s="13">
+        <v>0</v>
       </c>
       <c r="Z40" s="13">
-        <v>0</v>
+        <v>893</v>
       </c>
       <c r="AA40" s="13">
-        <v>893</v>
+        <v>2056</v>
       </c>
       <c r="AB40" s="13">
-        <v>2056</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="13">
-        <v>0</v>
+        <v>2907</v>
       </c>
       <c r="AD40" s="13">
-        <v>2907</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="13">
-        <v>0</v>
+        <v>1724</v>
       </c>
       <c r="AF40" s="13">
-        <v>1724</v>
+        <v>622</v>
       </c>
       <c r="AG40" s="13">
-        <v>622</v>
+        <v>0</v>
       </c>
       <c r="AH40" s="13">
         <v>0</v>
       </c>
       <c r="AI40" s="13">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="AJ40" s="13">
-        <v>541</v>
+        <v>1998</v>
       </c>
       <c r="AK40" s="13">
-        <v>1998</v>
+        <v>2019</v>
       </c>
       <c r="AL40" s="13">
-        <v>2019</v>
+        <v>2209</v>
       </c>
       <c r="AM40" s="13">
-        <v>2209</v>
-      </c>
-      <c r="AN40" s="13">
         <v>4137</v>
       </c>
-      <c r="AO40" s="13" t="s">
-        <v>58</v>
+      <c r="AN40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO40" s="13">
+        <v>0</v>
       </c>
       <c r="AP40" s="13">
         <v>0</v>
@@ -5554,8 +5554,8 @@
       <c r="Y41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z41" s="11" t="s">
-        <v>58</v>
+      <c r="Z41" s="11">
+        <v>0</v>
       </c>
       <c r="AA41" s="11">
         <v>0</v>
@@ -5578,8 +5578,8 @@
       <c r="AG41" s="11">
         <v>0</v>
       </c>
-      <c r="AH41" s="11">
-        <v>0</v>
+      <c r="AH41" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI41" s="11" t="s">
         <v>58</v>
@@ -5599,17 +5599,17 @@
       <c r="AN41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP41" s="11">
-        <v>0</v>
+      <c r="AO41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR41" s="11" t="s">
-        <v>58</v>
+      <c r="AR41" s="11">
+        <v>0</v>
       </c>
       <c r="AS41" s="11">
         <v>0</v>
@@ -5743,62 +5743,62 @@
       <c r="AI42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ42" s="13" t="s">
-        <v>58</v>
+      <c r="AJ42" s="13">
+        <v>500</v>
       </c>
       <c r="AK42" s="13">
-        <v>500</v>
-      </c>
-      <c r="AL42" s="13">
         <v>25</v>
       </c>
-      <c r="AM42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN42" s="13">
+      <c r="AL42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM42" s="13">
         <v>25</v>
       </c>
-      <c r="AO42" s="13" t="s">
-        <v>58</v>
+      <c r="AN42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO42" s="13">
+        <v>0</v>
       </c>
       <c r="AP42" s="13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ42" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AS42" s="13">
+        <v>50</v>
+      </c>
+      <c r="AT42" s="13">
+        <v>150</v>
+      </c>
+      <c r="AU42" s="13">
+        <v>1425</v>
+      </c>
+      <c r="AV42" s="13">
         <v>25</v>
-      </c>
-      <c r="AT42" s="13">
-        <v>50</v>
-      </c>
-      <c r="AU42" s="13">
-        <v>150</v>
-      </c>
-      <c r="AV42" s="13">
-        <v>1425</v>
       </c>
       <c r="AW42" s="13">
         <v>25</v>
       </c>
       <c r="AX42" s="13">
+        <v>75</v>
+      </c>
+      <c r="AY42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ42" s="13">
         <v>25</v>
       </c>
-      <c r="AY42" s="13">
-        <v>75</v>
-      </c>
-      <c r="AZ42" s="13">
-        <v>0</v>
-      </c>
       <c r="BA42" s="13">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BB42" s="13">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5944,11 +5944,11 @@
       <c r="AW43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX43" s="11" t="s">
-        <v>58</v>
+      <c r="AX43" s="11">
+        <v>439</v>
       </c>
       <c r="AY43" s="11">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="AZ43" s="11">
         <v>0</v>
@@ -6027,94 +6027,94 @@
         <v>0</v>
       </c>
       <c r="Y44" s="15">
-        <v>0</v>
+        <v>902</v>
       </c>
       <c r="Z44" s="15">
-        <v>902</v>
+        <v>2443</v>
       </c>
       <c r="AA44" s="15">
-        <v>2443</v>
+        <v>6601</v>
       </c>
       <c r="AB44" s="15">
-        <v>6601</v>
+        <v>2588</v>
       </c>
       <c r="AC44" s="15">
-        <v>2588</v>
+        <v>3893</v>
       </c>
       <c r="AD44" s="15">
-        <v>3893</v>
+        <v>180</v>
       </c>
       <c r="AE44" s="15">
-        <v>180</v>
+        <v>2288</v>
       </c>
       <c r="AF44" s="15">
-        <v>2288</v>
+        <v>1833</v>
       </c>
       <c r="AG44" s="15">
-        <v>1833</v>
+        <v>240</v>
       </c>
       <c r="AH44" s="15">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="AI44" s="15">
-        <v>145</v>
+        <v>1254</v>
       </c>
       <c r="AJ44" s="15">
-        <v>1254</v>
+        <v>4614</v>
       </c>
       <c r="AK44" s="15">
-        <v>4614</v>
+        <v>3150</v>
       </c>
       <c r="AL44" s="15">
-        <v>3150</v>
+        <v>2713</v>
       </c>
       <c r="AM44" s="15">
-        <v>2713</v>
+        <v>4971</v>
       </c>
       <c r="AN44" s="15">
-        <v>4971</v>
+        <v>874</v>
       </c>
       <c r="AO44" s="15">
-        <v>874</v>
+        <v>1018</v>
       </c>
       <c r="AP44" s="15">
-        <v>1018</v>
+        <v>2115</v>
       </c>
       <c r="AQ44" s="15">
-        <v>2115</v>
+        <v>1940</v>
       </c>
       <c r="AR44" s="15">
-        <v>1940</v>
+        <v>1434</v>
       </c>
       <c r="AS44" s="15">
-        <v>1434</v>
+        <v>1670</v>
       </c>
       <c r="AT44" s="15">
-        <v>1670</v>
+        <v>1149</v>
       </c>
       <c r="AU44" s="15">
-        <v>1149</v>
+        <v>2574</v>
       </c>
       <c r="AV44" s="15">
-        <v>2574</v>
+        <v>4449</v>
       </c>
       <c r="AW44" s="15">
-        <v>4449</v>
+        <v>5675</v>
       </c>
       <c r="AX44" s="15">
-        <v>5675</v>
+        <v>3636</v>
       </c>
       <c r="AY44" s="15">
-        <v>3636</v>
+        <v>1675</v>
       </c>
       <c r="AZ44" s="15">
-        <v>1675</v>
+        <v>3325</v>
       </c>
       <c r="BA44" s="15">
-        <v>3325</v>
+        <v>3099</v>
       </c>
       <c r="BB44" s="15">
-        <v>3099</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6242,8 +6242,8 @@
       <c r="X46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y46" s="11" t="s">
-        <v>58</v>
+      <c r="Y46" s="11">
+        <v>0</v>
       </c>
       <c r="Z46" s="11">
         <v>0</v>
@@ -6272,8 +6272,8 @@
       <c r="AH46" s="11">
         <v>0</v>
       </c>
-      <c r="AI46" s="11">
-        <v>0</v>
+      <c r="AI46" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ46" s="11" t="s">
         <v>58</v>
@@ -6299,14 +6299,14 @@
       <c r="AQ46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR46" s="11" t="s">
-        <v>58</v>
+      <c r="AR46" s="11">
+        <v>0</v>
       </c>
       <c r="AS46" s="11">
         <v>0</v>
       </c>
-      <c r="AT46" s="11">
-        <v>0</v>
+      <c r="AT46" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU46" s="11" t="s">
         <v>58</v>
@@ -6401,95 +6401,95 @@
       <c r="X47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y47" s="13" t="s">
-        <v>58</v>
+      <c r="Y47" s="13">
+        <v>2902</v>
       </c>
       <c r="Z47" s="13">
-        <v>2902</v>
+        <v>98</v>
       </c>
       <c r="AA47" s="13">
-        <v>98</v>
+        <v>1001</v>
       </c>
       <c r="AB47" s="13">
-        <v>1001</v>
+        <v>3664</v>
       </c>
       <c r="AC47" s="13">
-        <v>3664</v>
+        <v>685</v>
       </c>
       <c r="AD47" s="13">
-        <v>685</v>
+        <v>4000</v>
       </c>
       <c r="AE47" s="13">
-        <v>4000</v>
+        <v>52</v>
       </c>
       <c r="AF47" s="13">
-        <v>52</v>
+        <v>2001</v>
       </c>
       <c r="AG47" s="13">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="AH47" s="13">
         <v>0</v>
       </c>
       <c r="AI47" s="13">
-        <v>0</v>
+        <v>4278</v>
       </c>
       <c r="AJ47" s="13">
-        <v>4278</v>
+        <v>2355</v>
       </c>
       <c r="AK47" s="13">
-        <v>2355</v>
+        <v>1333</v>
       </c>
       <c r="AL47" s="13">
-        <v>1333</v>
+        <v>2329</v>
       </c>
       <c r="AM47" s="13">
-        <v>2329</v>
+        <v>2199</v>
       </c>
       <c r="AN47" s="13">
-        <v>2199</v>
+        <v>1726</v>
       </c>
       <c r="AO47" s="13">
-        <v>1726</v>
+        <v>1633</v>
       </c>
       <c r="AP47" s="13">
-        <v>1633</v>
+        <v>2938</v>
       </c>
       <c r="AQ47" s="13">
-        <v>2938</v>
+        <v>1199</v>
       </c>
       <c r="AR47" s="13">
-        <v>1199</v>
+        <v>3610</v>
       </c>
       <c r="AS47" s="13">
-        <v>3610</v>
+        <v>5255</v>
       </c>
       <c r="AT47" s="13">
-        <v>5255</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="13">
         <v>0</v>
       </c>
       <c r="AV47" s="13">
-        <v>0</v>
+        <v>6262</v>
       </c>
       <c r="AW47" s="13">
-        <v>6262</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="13">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="AY47" s="13">
-        <v>0</v>
+        <v>2795</v>
       </c>
       <c r="AZ47" s="13">
-        <v>2795</v>
+        <v>597</v>
       </c>
       <c r="BA47" s="13">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="BB47" s="13">
-        <v>0</v>
+        <v>10220</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6623,8 +6623,8 @@
       <c r="AS48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT48" s="11" t="s">
-        <v>58</v>
+      <c r="AT48" s="11">
+        <v>0</v>
       </c>
       <c r="AU48" s="11">
         <v>0</v>
@@ -6718,94 +6718,94 @@
         <v>0</v>
       </c>
       <c r="Y49" s="15">
-        <v>0</v>
+        <v>2902</v>
       </c>
       <c r="Z49" s="15">
-        <v>2902</v>
+        <v>98</v>
       </c>
       <c r="AA49" s="15">
-        <v>98</v>
+        <v>1001</v>
       </c>
       <c r="AB49" s="15">
-        <v>1001</v>
+        <v>3664</v>
       </c>
       <c r="AC49" s="15">
-        <v>3664</v>
+        <v>685</v>
       </c>
       <c r="AD49" s="15">
-        <v>685</v>
+        <v>4000</v>
       </c>
       <c r="AE49" s="15">
-        <v>4000</v>
+        <v>52</v>
       </c>
       <c r="AF49" s="15">
-        <v>52</v>
+        <v>2001</v>
       </c>
       <c r="AG49" s="15">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="AH49" s="15">
         <v>0</v>
       </c>
       <c r="AI49" s="15">
-        <v>0</v>
+        <v>4278</v>
       </c>
       <c r="AJ49" s="15">
-        <v>4278</v>
+        <v>2355</v>
       </c>
       <c r="AK49" s="15">
-        <v>2355</v>
+        <v>1333</v>
       </c>
       <c r="AL49" s="15">
-        <v>1333</v>
+        <v>2329</v>
       </c>
       <c r="AM49" s="15">
-        <v>2329</v>
+        <v>2199</v>
       </c>
       <c r="AN49" s="15">
-        <v>2199</v>
+        <v>1726</v>
       </c>
       <c r="AO49" s="15">
-        <v>1726</v>
+        <v>1633</v>
       </c>
       <c r="AP49" s="15">
-        <v>1633</v>
+        <v>2938</v>
       </c>
       <c r="AQ49" s="15">
-        <v>2938</v>
+        <v>1199</v>
       </c>
       <c r="AR49" s="15">
-        <v>1199</v>
+        <v>3610</v>
       </c>
       <c r="AS49" s="15">
-        <v>3610</v>
+        <v>5255</v>
       </c>
       <c r="AT49" s="15">
-        <v>5255</v>
+        <v>0</v>
       </c>
       <c r="AU49" s="15">
         <v>0</v>
       </c>
       <c r="AV49" s="15">
-        <v>0</v>
+        <v>6262</v>
       </c>
       <c r="AW49" s="15">
-        <v>6262</v>
+        <v>0</v>
       </c>
       <c r="AX49" s="15">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="AY49" s="15">
-        <v>0</v>
+        <v>2795</v>
       </c>
       <c r="AZ49" s="15">
-        <v>2795</v>
+        <v>597</v>
       </c>
       <c r="BA49" s="15">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="BB49" s="15">
-        <v>0</v>
+        <v>10220</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6960,11 +6960,11 @@
       <c r="AG51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI51" s="11">
-        <v>0</v>
+      <c r="AH51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ51" s="11" t="s">
         <v>58</v>
@@ -6990,11 +6990,11 @@
       <c r="AQ51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS51" s="11">
-        <v>0</v>
+      <c r="AR51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT51" s="11" t="s">
         <v>58</v>
@@ -7002,23 +7002,23 @@
       <c r="AU51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW51" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX51" s="11" t="s">
-        <v>58</v>
+      <c r="AV51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX51" s="11">
+        <v>0</v>
       </c>
       <c r="AY51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA51" s="11" t="s">
-        <v>58</v>
+      <c r="AZ51" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA51" s="11">
+        <v>0</v>
       </c>
       <c r="BB51" s="11" t="s">
         <v>58</v>
@@ -7092,8 +7092,8 @@
       <c r="X52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y52" s="13" t="s">
-        <v>58</v>
+      <c r="Y52" s="13">
+        <v>0</v>
       </c>
       <c r="Z52" s="13">
         <v>0</v>
@@ -7119,8 +7119,8 @@
       <c r="AG52" s="13">
         <v>0</v>
       </c>
-      <c r="AH52" s="13">
-        <v>0</v>
+      <c r="AH52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI52" s="13" t="s">
         <v>58</v>
@@ -7251,14 +7251,14 @@
       <c r="X53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="11" t="s">
-        <v>58</v>
+      <c r="Y53" s="11">
+        <v>0</v>
       </c>
       <c r="Z53" s="11">
-        <v>0</v>
+        <v>1119</v>
       </c>
       <c r="AA53" s="11">
-        <v>1119</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="11">
         <v>0</v>
@@ -7267,76 +7267,76 @@
         <v>0</v>
       </c>
       <c r="AD53" s="11">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="AE53" s="11">
-        <v>1187</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="11">
-        <v>0</v>
+        <v>1794</v>
       </c>
       <c r="AG53" s="11">
-        <v>1794</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="11">
         <v>0</v>
       </c>
-      <c r="AI53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK53" s="11">
+      <c r="AI53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ53" s="11">
         <v>2980</v>
       </c>
-      <c r="AL53" s="11" t="s">
-        <v>58</v>
+      <c r="AK53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL53" s="11">
+        <v>1234</v>
       </c>
       <c r="AM53" s="11">
-        <v>1234</v>
+        <v>2194</v>
       </c>
       <c r="AN53" s="11">
-        <v>2194</v>
+        <v>3142</v>
       </c>
       <c r="AO53" s="11">
-        <v>3142</v>
-      </c>
-      <c r="AP53" s="11">
         <v>2642</v>
       </c>
-      <c r="AQ53" s="11" t="s">
-        <v>58</v>
+      <c r="AP53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ53" s="11">
+        <v>0</v>
       </c>
       <c r="AR53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS53" s="11">
         <v>5897</v>
       </c>
+      <c r="AS53" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT53" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AU53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV53" s="11" t="s">
-        <v>58</v>
+      <c r="AV53" s="11">
+        <v>0</v>
       </c>
       <c r="AW53" s="11">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="AX53" s="11">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="AY53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA53" s="11" t="s">
-        <v>58</v>
+      <c r="AZ53" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA53" s="11">
+        <v>0</v>
       </c>
       <c r="BB53" s="11" t="s">
         <v>58</v>
@@ -7479,23 +7479,23 @@
       <c r="AU54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX54" s="13" t="s">
-        <v>58</v>
+      <c r="AV54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX54" s="13">
+        <v>0</v>
       </c>
       <c r="AY54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA54" s="13" t="s">
-        <v>58</v>
+      <c r="AZ54" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA54" s="13">
+        <v>0</v>
       </c>
       <c r="BB54" s="13" t="s">
         <v>58</v>
@@ -7567,14 +7567,14 @@
       <c r="X55" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y55" s="17" t="s">
-        <v>58</v>
+      <c r="Y55" s="17">
+        <v>0</v>
       </c>
       <c r="Z55" s="17">
-        <v>0</v>
+        <v>1119</v>
       </c>
       <c r="AA55" s="17">
-        <v>1119</v>
+        <v>0</v>
       </c>
       <c r="AB55" s="17">
         <v>0</v>
@@ -7583,16 +7583,16 @@
         <v>0</v>
       </c>
       <c r="AD55" s="17">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="AE55" s="17">
-        <v>1187</v>
+        <v>0</v>
       </c>
       <c r="AF55" s="17">
-        <v>0</v>
+        <v>1794</v>
       </c>
       <c r="AG55" s="17">
-        <v>1794</v>
+        <v>0</v>
       </c>
       <c r="AH55" s="17">
         <v>0</v>
@@ -7601,34 +7601,34 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="17">
-        <v>0</v>
+        <v>2980</v>
       </c>
       <c r="AK55" s="17">
-        <v>2980</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="17">
-        <v>0</v>
+        <v>1234</v>
       </c>
       <c r="AM55" s="17">
-        <v>1234</v>
+        <v>2194</v>
       </c>
       <c r="AN55" s="17">
-        <v>2194</v>
+        <v>3142</v>
       </c>
       <c r="AO55" s="17">
-        <v>3142</v>
+        <v>2642</v>
       </c>
       <c r="AP55" s="17">
-        <v>2642</v>
+        <v>0</v>
       </c>
       <c r="AQ55" s="17">
         <v>0</v>
       </c>
       <c r="AR55" s="17">
-        <v>0</v>
+        <v>5897</v>
       </c>
       <c r="AS55" s="17">
-        <v>5897</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="17">
         <v>0</v>
@@ -7640,10 +7640,10 @@
         <v>0</v>
       </c>
       <c r="AW55" s="17">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="AX55" s="17">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="AY55" s="17">
         <v>0</v>
@@ -7781,8 +7781,8 @@
       <c r="X57" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y57" s="17" t="s">
-        <v>58</v>
+      <c r="Y57" s="17">
+        <v>0</v>
       </c>
       <c r="Z57" s="17">
         <v>0</v>
@@ -7939,94 +7939,94 @@
         <v>0</v>
       </c>
       <c r="Y58" s="15">
-        <v>0</v>
+        <v>3804</v>
       </c>
       <c r="Z58" s="15">
-        <v>3804</v>
+        <v>3660</v>
       </c>
       <c r="AA58" s="15">
-        <v>3660</v>
+        <v>7602</v>
       </c>
       <c r="AB58" s="15">
-        <v>7602</v>
+        <v>6252</v>
       </c>
       <c r="AC58" s="15">
-        <v>6252</v>
+        <v>4578</v>
       </c>
       <c r="AD58" s="15">
-        <v>4578</v>
+        <v>5367</v>
       </c>
       <c r="AE58" s="15">
-        <v>5367</v>
+        <v>2340</v>
       </c>
       <c r="AF58" s="15">
-        <v>2340</v>
+        <v>5628</v>
       </c>
       <c r="AG58" s="15">
-        <v>5628</v>
+        <v>240</v>
       </c>
       <c r="AH58" s="15">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="AI58" s="15">
-        <v>145</v>
+        <v>5532</v>
       </c>
       <c r="AJ58" s="15">
-        <v>5532</v>
+        <v>9949</v>
       </c>
       <c r="AK58" s="15">
-        <v>9949</v>
+        <v>4483</v>
       </c>
       <c r="AL58" s="15">
-        <v>4483</v>
+        <v>6276</v>
       </c>
       <c r="AM58" s="15">
-        <v>6276</v>
+        <v>9364</v>
       </c>
       <c r="AN58" s="15">
-        <v>9364</v>
+        <v>5742</v>
       </c>
       <c r="AO58" s="15">
-        <v>5742</v>
+        <v>5293</v>
       </c>
       <c r="AP58" s="15">
-        <v>5293</v>
+        <v>5053</v>
       </c>
       <c r="AQ58" s="15">
-        <v>5053</v>
+        <v>3139</v>
       </c>
       <c r="AR58" s="15">
-        <v>3139</v>
+        <v>10941</v>
       </c>
       <c r="AS58" s="15">
-        <v>10941</v>
+        <v>6925</v>
       </c>
       <c r="AT58" s="15">
-        <v>6925</v>
+        <v>1149</v>
       </c>
       <c r="AU58" s="15">
-        <v>1149</v>
+        <v>2574</v>
       </c>
       <c r="AV58" s="15">
-        <v>2574</v>
+        <v>10711</v>
       </c>
       <c r="AW58" s="15">
-        <v>10711</v>
+        <v>6393</v>
       </c>
       <c r="AX58" s="15">
-        <v>6393</v>
+        <v>4233</v>
       </c>
       <c r="AY58" s="15">
-        <v>3636</v>
+        <v>4470</v>
       </c>
       <c r="AZ58" s="15">
-        <v>4470</v>
+        <v>3922</v>
       </c>
       <c r="BA58" s="15">
-        <v>3325</v>
+        <v>3696</v>
       </c>
       <c r="BB58" s="15">
-        <v>3099</v>
+        <v>13591</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -8531,95 +8531,95 @@
       <c r="X65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y65" s="11" t="s">
-        <v>58</v>
+      <c r="Y65" s="11">
+        <v>43867</v>
       </c>
       <c r="Z65" s="11">
-        <v>43867</v>
+        <v>25753</v>
       </c>
       <c r="AA65" s="11">
-        <v>25753</v>
+        <v>57358</v>
       </c>
       <c r="AB65" s="11">
-        <v>57358</v>
+        <v>50558</v>
       </c>
       <c r="AC65" s="11">
-        <v>50558</v>
+        <v>64396</v>
       </c>
       <c r="AD65" s="11">
-        <v>64396</v>
+        <v>88119</v>
       </c>
       <c r="AE65" s="11">
-        <v>88119</v>
+        <v>68728</v>
       </c>
       <c r="AF65" s="11">
-        <v>68728</v>
+        <v>71452</v>
       </c>
       <c r="AG65" s="11">
-        <v>71452</v>
+        <v>14733</v>
       </c>
       <c r="AH65" s="11">
-        <v>14733</v>
+        <v>4751</v>
       </c>
       <c r="AI65" s="11">
-        <v>4751</v>
+        <v>23232</v>
       </c>
       <c r="AJ65" s="11">
-        <v>23232</v>
+        <v>3373</v>
       </c>
       <c r="AK65" s="11">
-        <v>3373</v>
+        <v>11890</v>
       </c>
       <c r="AL65" s="11">
-        <v>11890</v>
+        <v>12740</v>
       </c>
       <c r="AM65" s="11">
-        <v>12740</v>
+        <v>2130</v>
       </c>
       <c r="AN65" s="11">
-        <v>2130</v>
+        <v>0</v>
       </c>
       <c r="AO65" s="11">
-        <v>0</v>
+        <v>3029</v>
       </c>
       <c r="AP65" s="11">
-        <v>3029</v>
+        <v>5668</v>
       </c>
       <c r="AQ65" s="11">
-        <v>5668</v>
+        <v>3096</v>
       </c>
       <c r="AR65" s="11">
-        <v>3096</v>
+        <v>7587</v>
       </c>
       <c r="AS65" s="11">
-        <v>7587</v>
+        <v>3841</v>
       </c>
       <c r="AT65" s="11">
-        <v>3841</v>
+        <v>0</v>
       </c>
       <c r="AU65" s="11">
-        <v>0</v>
+        <v>13487</v>
       </c>
       <c r="AV65" s="11">
-        <v>13487</v>
+        <v>4858</v>
       </c>
       <c r="AW65" s="11">
-        <v>4858</v>
+        <v>6609</v>
       </c>
       <c r="AX65" s="11">
-        <v>6609</v>
+        <v>-32380</v>
       </c>
       <c r="AY65" s="11">
-        <v>10703</v>
+        <v>16255</v>
       </c>
       <c r="AZ65" s="11">
-        <v>16255</v>
+        <v>-37178</v>
       </c>
       <c r="BA65" s="11">
-        <v>5905</v>
+        <v>-36653</v>
       </c>
       <c r="BB65" s="11">
-        <v>6430</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8690,65 +8690,65 @@
       <c r="X66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y66" s="13" t="s">
-        <v>58</v>
+      <c r="Y66" s="13">
+        <v>52199</v>
       </c>
       <c r="Z66" s="13">
-        <v>52199</v>
+        <v>150669</v>
       </c>
       <c r="AA66" s="13">
-        <v>150669</v>
+        <v>209481</v>
       </c>
       <c r="AB66" s="13">
-        <v>209481</v>
+        <v>231043</v>
       </c>
       <c r="AC66" s="13">
-        <v>231043</v>
+        <v>227905</v>
       </c>
       <c r="AD66" s="13">
-        <v>227905</v>
+        <v>48453</v>
       </c>
       <c r="AE66" s="13">
-        <v>48453</v>
+        <v>163036</v>
       </c>
       <c r="AF66" s="13">
-        <v>163036</v>
+        <v>15575</v>
       </c>
       <c r="AG66" s="13">
-        <v>15575</v>
+        <v>0</v>
       </c>
       <c r="AH66" s="13">
         <v>0</v>
       </c>
       <c r="AI66" s="13">
-        <v>0</v>
+        <v>228075</v>
       </c>
       <c r="AJ66" s="13">
-        <v>228075</v>
+        <v>290662</v>
       </c>
       <c r="AK66" s="13">
-        <v>290662</v>
+        <v>201548</v>
       </c>
       <c r="AL66" s="13">
-        <v>201548</v>
+        <v>71928</v>
       </c>
       <c r="AM66" s="13">
-        <v>71928</v>
+        <v>243294</v>
       </c>
       <c r="AN66" s="13">
-        <v>243294</v>
+        <v>153563</v>
       </c>
       <c r="AO66" s="13">
-        <v>153563</v>
+        <v>111071</v>
       </c>
       <c r="AP66" s="13">
-        <v>111071</v>
+        <v>74240</v>
       </c>
       <c r="AQ66" s="13">
-        <v>74240</v>
+        <v>49945</v>
       </c>
       <c r="AR66" s="13">
-        <v>49945</v>
+        <v>0</v>
       </c>
       <c r="AS66" s="13">
         <v>0</v>
@@ -8763,10 +8763,10 @@
         <v>0</v>
       </c>
       <c r="AW66" s="13">
-        <v>0</v>
+        <v>750227</v>
       </c>
       <c r="AX66" s="13">
-        <v>750227</v>
+        <v>0</v>
       </c>
       <c r="AY66" s="13">
         <v>0</v>
@@ -8849,95 +8849,95 @@
       <c r="X67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y67" s="11" t="s">
-        <v>58</v>
+      <c r="Y67" s="11">
+        <v>98123</v>
       </c>
       <c r="Z67" s="11">
-        <v>98123</v>
+        <v>264189</v>
       </c>
       <c r="AA67" s="11">
-        <v>264189</v>
+        <v>1795987</v>
       </c>
       <c r="AB67" s="11">
-        <v>1795987</v>
+        <v>868101</v>
       </c>
       <c r="AC67" s="11">
-        <v>868101</v>
+        <v>53000</v>
       </c>
       <c r="AD67" s="11">
-        <v>53000</v>
+        <v>0</v>
       </c>
       <c r="AE67" s="11">
         <v>0</v>
       </c>
       <c r="AF67" s="11">
-        <v>0</v>
+        <v>709934</v>
       </c>
       <c r="AG67" s="11">
-        <v>709934</v>
+        <v>147940</v>
       </c>
       <c r="AH67" s="11">
-        <v>147940</v>
+        <v>85325</v>
       </c>
       <c r="AI67" s="11">
-        <v>85325</v>
+        <v>0</v>
       </c>
       <c r="AJ67" s="11">
-        <v>0</v>
+        <v>651598</v>
       </c>
       <c r="AK67" s="11">
-        <v>651598</v>
+        <v>267339</v>
       </c>
       <c r="AL67" s="11">
-        <v>267339</v>
+        <v>162537</v>
       </c>
       <c r="AM67" s="11">
-        <v>162537</v>
+        <v>128445</v>
       </c>
       <c r="AN67" s="11">
-        <v>128445</v>
+        <v>267128</v>
       </c>
       <c r="AO67" s="11">
-        <v>267128</v>
+        <v>517788</v>
       </c>
       <c r="AP67" s="11">
-        <v>517788</v>
+        <v>1355482</v>
       </c>
       <c r="AQ67" s="11">
-        <v>1355482</v>
+        <v>1483592</v>
       </c>
       <c r="AR67" s="11">
-        <v>1483592</v>
+        <v>1244355</v>
       </c>
       <c r="AS67" s="11">
-        <v>1244355</v>
+        <v>1439145</v>
       </c>
       <c r="AT67" s="11">
-        <v>1439145</v>
+        <v>1030589</v>
       </c>
       <c r="AU67" s="11">
-        <v>1030589</v>
+        <v>1086915</v>
       </c>
       <c r="AV67" s="11">
-        <v>1086915</v>
+        <v>4073478</v>
       </c>
       <c r="AW67" s="11">
-        <v>4073478</v>
+        <v>2671952</v>
       </c>
       <c r="AX67" s="11">
-        <v>2671952</v>
+        <v>2571805</v>
       </c>
       <c r="AY67" s="11">
-        <v>2571805</v>
+        <v>1451729</v>
       </c>
       <c r="AZ67" s="11">
-        <v>1451729</v>
+        <v>2626454</v>
       </c>
       <c r="BA67" s="11">
-        <v>2626454</v>
+        <v>2473428</v>
       </c>
       <c r="BB67" s="11">
-        <v>2473428</v>
+        <v>2917878</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9008,53 +9008,53 @@
       <c r="X68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y68" s="13" t="s">
-        <v>58</v>
+      <c r="Y68" s="13">
+        <v>0</v>
       </c>
       <c r="Z68" s="13">
-        <v>0</v>
+        <v>30759</v>
       </c>
       <c r="AA68" s="13">
-        <v>30759</v>
+        <v>58764</v>
       </c>
       <c r="AB68" s="13">
-        <v>58764</v>
+        <v>0</v>
       </c>
       <c r="AC68" s="13">
-        <v>0</v>
+        <v>131096</v>
       </c>
       <c r="AD68" s="13">
-        <v>131096</v>
+        <v>0</v>
       </c>
       <c r="AE68" s="13">
-        <v>0</v>
+        <v>125506</v>
       </c>
       <c r="AF68" s="13">
-        <v>125506</v>
+        <v>34544</v>
       </c>
       <c r="AG68" s="13">
-        <v>34544</v>
+        <v>0</v>
       </c>
       <c r="AH68" s="13">
         <v>0</v>
       </c>
       <c r="AI68" s="13">
-        <v>0</v>
+        <v>31657</v>
       </c>
       <c r="AJ68" s="13">
-        <v>31657</v>
+        <v>190777</v>
       </c>
       <c r="AK68" s="13">
-        <v>190777</v>
+        <v>153208</v>
       </c>
       <c r="AL68" s="13">
-        <v>153208</v>
+        <v>241544</v>
       </c>
       <c r="AM68" s="13">
-        <v>241544</v>
+        <v>316234</v>
       </c>
       <c r="AN68" s="13">
-        <v>316234</v>
+        <v>0</v>
       </c>
       <c r="AO68" s="13">
         <v>0</v>
@@ -9066,10 +9066,10 @@
         <v>0</v>
       </c>
       <c r="AR68" s="13">
-        <v>0</v>
+        <v>21892</v>
       </c>
       <c r="AS68" s="13">
-        <v>21892</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="13">
         <v>0</v>
@@ -9170,8 +9170,8 @@
       <c r="Y69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z69" s="11" t="s">
-        <v>58</v>
+      <c r="Z69" s="11">
+        <v>0</v>
       </c>
       <c r="AA69" s="11">
         <v>0</v>
@@ -9194,11 +9194,11 @@
       <c r="AG69" s="11">
         <v>0</v>
       </c>
-      <c r="AH69" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI69" s="11" t="s">
-        <v>58</v>
+      <c r="AH69" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI69" s="11">
+        <v>0</v>
       </c>
       <c r="AJ69" s="11">
         <v>0</v>
@@ -9359,62 +9359,62 @@
       <c r="AI70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ70" s="13" t="s">
-        <v>58</v>
+      <c r="AJ70" s="13">
+        <v>256500</v>
       </c>
       <c r="AK70" s="13">
-        <v>256500</v>
+        <v>14825</v>
       </c>
       <c r="AL70" s="13">
-        <v>14825</v>
+        <v>0</v>
       </c>
       <c r="AM70" s="13">
-        <v>0</v>
+        <v>16760</v>
       </c>
       <c r="AN70" s="13">
-        <v>16760</v>
+        <v>0</v>
       </c>
       <c r="AO70" s="13">
         <v>0</v>
       </c>
       <c r="AP70" s="13">
-        <v>0</v>
+        <v>67777</v>
       </c>
       <c r="AQ70" s="13">
-        <v>67777</v>
+        <v>0</v>
       </c>
       <c r="AR70" s="13">
-        <v>0</v>
+        <v>17713</v>
       </c>
       <c r="AS70" s="13">
-        <v>17713</v>
+        <v>29668</v>
       </c>
       <c r="AT70" s="13">
-        <v>29668</v>
+        <v>89453</v>
       </c>
       <c r="AU70" s="13">
-        <v>89453</v>
+        <v>929778</v>
       </c>
       <c r="AV70" s="13">
-        <v>929778</v>
+        <v>16335</v>
       </c>
       <c r="AW70" s="13">
-        <v>16335</v>
+        <v>17750</v>
       </c>
       <c r="AX70" s="13">
-        <v>17750</v>
+        <v>52741</v>
       </c>
       <c r="AY70" s="13">
-        <v>52741</v>
+        <v>0</v>
       </c>
       <c r="AZ70" s="13">
-        <v>0</v>
+        <v>18060</v>
       </c>
       <c r="BA70" s="13">
-        <v>18060</v>
+        <v>0</v>
       </c>
       <c r="BB70" s="13">
-        <v>0</v>
+        <v>136853</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9560,11 +9560,11 @@
       <c r="AW71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX71" s="11" t="s">
-        <v>58</v>
+      <c r="AX71" s="11">
+        <v>344975</v>
       </c>
       <c r="AY71" s="11">
-        <v>344975</v>
+        <v>0</v>
       </c>
       <c r="AZ71" s="11">
         <v>0</v>
@@ -9643,94 +9643,94 @@
         <v>0</v>
       </c>
       <c r="Y72" s="15">
-        <v>0</v>
+        <v>194189</v>
       </c>
       <c r="Z72" s="15">
-        <v>194189</v>
+        <v>471370</v>
       </c>
       <c r="AA72" s="15">
-        <v>471370</v>
+        <v>2121590</v>
       </c>
       <c r="AB72" s="15">
-        <v>2121590</v>
+        <v>1149702</v>
       </c>
       <c r="AC72" s="15">
-        <v>1149702</v>
+        <v>476397</v>
       </c>
       <c r="AD72" s="15">
-        <v>476397</v>
+        <v>136572</v>
       </c>
       <c r="AE72" s="15">
-        <v>136572</v>
+        <v>357270</v>
       </c>
       <c r="AF72" s="15">
-        <v>357270</v>
+        <v>831505</v>
       </c>
       <c r="AG72" s="15">
-        <v>831505</v>
+        <v>162673</v>
       </c>
       <c r="AH72" s="15">
-        <v>162673</v>
+        <v>90076</v>
       </c>
       <c r="AI72" s="15">
-        <v>90076</v>
+        <v>282964</v>
       </c>
       <c r="AJ72" s="15">
-        <v>282964</v>
+        <v>1392910</v>
       </c>
       <c r="AK72" s="15">
-        <v>1392910</v>
+        <v>648810</v>
       </c>
       <c r="AL72" s="15">
-        <v>648810</v>
+        <v>488749</v>
       </c>
       <c r="AM72" s="15">
-        <v>488749</v>
+        <v>706863</v>
       </c>
       <c r="AN72" s="15">
-        <v>706863</v>
+        <v>420691</v>
       </c>
       <c r="AO72" s="15">
-        <v>420691</v>
+        <v>631888</v>
       </c>
       <c r="AP72" s="15">
-        <v>631888</v>
+        <v>1503167</v>
       </c>
       <c r="AQ72" s="15">
-        <v>1503167</v>
+        <v>1536633</v>
       </c>
       <c r="AR72" s="15">
-        <v>1536633</v>
+        <v>1291547</v>
       </c>
       <c r="AS72" s="15">
-        <v>1291547</v>
+        <v>1472654</v>
       </c>
       <c r="AT72" s="15">
-        <v>1472654</v>
+        <v>1120042</v>
       </c>
       <c r="AU72" s="15">
-        <v>1120042</v>
+        <v>2030180</v>
       </c>
       <c r="AV72" s="15">
-        <v>2030180</v>
+        <v>4094671</v>
       </c>
       <c r="AW72" s="15">
-        <v>4094671</v>
+        <v>3446538</v>
       </c>
       <c r="AX72" s="15">
-        <v>3446538</v>
+        <v>2937141</v>
       </c>
       <c r="AY72" s="15">
-        <v>2980224</v>
+        <v>1467984</v>
       </c>
       <c r="AZ72" s="15">
-        <v>1467984</v>
+        <v>2607336</v>
       </c>
       <c r="BA72" s="15">
-        <v>2650419</v>
+        <v>2436775</v>
       </c>
       <c r="BB72" s="15">
-        <v>2479858</v>
+        <v>3055968</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9858,8 +9858,8 @@
       <c r="X74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y74" s="11" t="s">
-        <v>58</v>
+      <c r="Y74" s="11">
+        <v>0</v>
       </c>
       <c r="Z74" s="11">
         <v>0</v>
@@ -9921,8 +9921,8 @@
       <c r="AS74" s="11">
         <v>0</v>
       </c>
-      <c r="AT74" s="11">
-        <v>0</v>
+      <c r="AT74" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU74" s="11" t="s">
         <v>58</v>
@@ -10017,95 +10017,95 @@
       <c r="X75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y75" s="13" t="s">
-        <v>58</v>
+      <c r="Y75" s="13">
+        <v>1135696</v>
       </c>
       <c r="Z75" s="13">
-        <v>1135696</v>
+        <v>36095</v>
       </c>
       <c r="AA75" s="13">
-        <v>36095</v>
+        <v>571030</v>
       </c>
       <c r="AB75" s="13">
-        <v>571030</v>
+        <v>2041260</v>
       </c>
       <c r="AC75" s="13">
-        <v>2041260</v>
+        <v>456342</v>
       </c>
       <c r="AD75" s="13">
-        <v>456342</v>
+        <v>2624036</v>
       </c>
       <c r="AE75" s="13">
-        <v>2624036</v>
+        <v>36951</v>
       </c>
       <c r="AF75" s="13">
-        <v>36951</v>
+        <v>1329072</v>
       </c>
       <c r="AG75" s="13">
-        <v>1329072</v>
+        <v>0</v>
       </c>
       <c r="AH75" s="13">
         <v>0</v>
       </c>
       <c r="AI75" s="13">
-        <v>0</v>
+        <v>2541984</v>
       </c>
       <c r="AJ75" s="13">
-        <v>2541984</v>
+        <v>1415311</v>
       </c>
       <c r="AK75" s="13">
-        <v>1415311</v>
+        <v>859989</v>
       </c>
       <c r="AL75" s="13">
-        <v>859989</v>
+        <v>1570448</v>
       </c>
       <c r="AM75" s="13">
-        <v>1570448</v>
+        <v>1528145</v>
       </c>
       <c r="AN75" s="13">
-        <v>1528145</v>
+        <v>1307795</v>
       </c>
       <c r="AO75" s="13">
-        <v>1307795</v>
+        <v>1184624</v>
       </c>
       <c r="AP75" s="13">
-        <v>1184624</v>
+        <v>2301739</v>
       </c>
       <c r="AQ75" s="13">
-        <v>2301739</v>
+        <v>997037</v>
       </c>
       <c r="AR75" s="13">
-        <v>997037</v>
+        <v>3180863</v>
       </c>
       <c r="AS75" s="13">
-        <v>3180863</v>
+        <v>4495072</v>
       </c>
       <c r="AT75" s="13">
-        <v>4495072</v>
+        <v>0</v>
       </c>
       <c r="AU75" s="13">
         <v>0</v>
       </c>
       <c r="AV75" s="13">
-        <v>0</v>
+        <v>5299857</v>
       </c>
       <c r="AW75" s="13">
-        <v>5299857</v>
+        <v>0</v>
       </c>
       <c r="AX75" s="13">
-        <v>0</v>
+        <v>466489</v>
       </c>
       <c r="AY75" s="13">
-        <v>0</v>
+        <v>2290047</v>
       </c>
       <c r="AZ75" s="13">
-        <v>2290047</v>
+        <v>466489</v>
       </c>
       <c r="BA75" s="13">
-        <v>0</v>
+        <v>466489</v>
       </c>
       <c r="BB75" s="13">
-        <v>0</v>
+        <v>8298177</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -10239,8 +10239,8 @@
       <c r="AS76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT76" s="11" t="s">
-        <v>58</v>
+      <c r="AT76" s="11">
+        <v>0</v>
       </c>
       <c r="AU76" s="11">
         <v>0</v>
@@ -10334,94 +10334,94 @@
         <v>0</v>
       </c>
       <c r="Y77" s="15">
-        <v>0</v>
+        <v>1135696</v>
       </c>
       <c r="Z77" s="15">
-        <v>1135696</v>
+        <v>36095</v>
       </c>
       <c r="AA77" s="15">
-        <v>36095</v>
+        <v>571030</v>
       </c>
       <c r="AB77" s="15">
-        <v>571030</v>
+        <v>2041260</v>
       </c>
       <c r="AC77" s="15">
-        <v>2041260</v>
+        <v>456342</v>
       </c>
       <c r="AD77" s="15">
-        <v>456342</v>
+        <v>2624036</v>
       </c>
       <c r="AE77" s="15">
-        <v>2624036</v>
+        <v>36951</v>
       </c>
       <c r="AF77" s="15">
-        <v>36951</v>
+        <v>1329072</v>
       </c>
       <c r="AG77" s="15">
-        <v>1329072</v>
+        <v>0</v>
       </c>
       <c r="AH77" s="15">
         <v>0</v>
       </c>
       <c r="AI77" s="15">
-        <v>0</v>
+        <v>2541984</v>
       </c>
       <c r="AJ77" s="15">
-        <v>2541984</v>
+        <v>1415311</v>
       </c>
       <c r="AK77" s="15">
-        <v>1415311</v>
+        <v>859989</v>
       </c>
       <c r="AL77" s="15">
-        <v>859989</v>
+        <v>1570448</v>
       </c>
       <c r="AM77" s="15">
-        <v>1570448</v>
+        <v>1528145</v>
       </c>
       <c r="AN77" s="15">
-        <v>1528145</v>
+        <v>1307795</v>
       </c>
       <c r="AO77" s="15">
-        <v>1307795</v>
+        <v>1184624</v>
       </c>
       <c r="AP77" s="15">
-        <v>1184624</v>
+        <v>2301739</v>
       </c>
       <c r="AQ77" s="15">
-        <v>2301739</v>
+        <v>997037</v>
       </c>
       <c r="AR77" s="15">
-        <v>997037</v>
+        <v>3180863</v>
       </c>
       <c r="AS77" s="15">
-        <v>3180863</v>
+        <v>4495072</v>
       </c>
       <c r="AT77" s="15">
-        <v>4495072</v>
+        <v>0</v>
       </c>
       <c r="AU77" s="15">
         <v>0</v>
       </c>
       <c r="AV77" s="15">
-        <v>0</v>
+        <v>5299857</v>
       </c>
       <c r="AW77" s="15">
-        <v>5299857</v>
+        <v>0</v>
       </c>
       <c r="AX77" s="15">
-        <v>0</v>
+        <v>466489</v>
       </c>
       <c r="AY77" s="15">
-        <v>0</v>
+        <v>2290047</v>
       </c>
       <c r="AZ77" s="15">
-        <v>2290047</v>
+        <v>466489</v>
       </c>
       <c r="BA77" s="15">
-        <v>0</v>
+        <v>466489</v>
       </c>
       <c r="BB77" s="15">
-        <v>0</v>
+        <v>8298177</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -10576,8 +10576,8 @@
       <c r="AG79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH79" s="11" t="s">
-        <v>58</v>
+      <c r="AH79" s="11">
+        <v>0</v>
       </c>
       <c r="AI79" s="11">
         <v>0</v>
@@ -10708,8 +10708,8 @@
       <c r="X80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y80" s="13" t="s">
-        <v>58</v>
+      <c r="Y80" s="13">
+        <v>0</v>
       </c>
       <c r="Z80" s="13">
         <v>0</v>
@@ -10735,8 +10735,8 @@
       <c r="AG80" s="13">
         <v>0</v>
       </c>
-      <c r="AH80" s="13">
-        <v>0</v>
+      <c r="AH80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI80" s="13" t="s">
         <v>58</v>
@@ -10867,14 +10867,14 @@
       <c r="X81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y81" s="11" t="s">
-        <v>58</v>
+      <c r="Y81" s="11">
+        <v>0</v>
       </c>
       <c r="Z81" s="11">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="AA81" s="11">
-        <v>912</v>
+        <v>0</v>
       </c>
       <c r="AB81" s="11">
         <v>0</v>
@@ -10883,16 +10883,16 @@
         <v>0</v>
       </c>
       <c r="AD81" s="11">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="AE81" s="11">
-        <v>946</v>
+        <v>0</v>
       </c>
       <c r="AF81" s="11">
-        <v>0</v>
+        <v>3398</v>
       </c>
       <c r="AG81" s="11">
-        <v>3398</v>
+        <v>0</v>
       </c>
       <c r="AH81" s="11">
         <v>0</v>
@@ -10901,34 +10901,34 @@
         <v>0</v>
       </c>
       <c r="AJ81" s="11">
-        <v>0</v>
+        <v>4405</v>
       </c>
       <c r="AK81" s="11">
-        <v>4405</v>
+        <v>0</v>
       </c>
       <c r="AL81" s="11">
-        <v>0</v>
+        <v>962</v>
       </c>
       <c r="AM81" s="11">
-        <v>962</v>
+        <v>1811</v>
       </c>
       <c r="AN81" s="11">
-        <v>1811</v>
+        <v>4556</v>
       </c>
       <c r="AO81" s="11">
-        <v>4556</v>
+        <v>4491</v>
       </c>
       <c r="AP81" s="11">
-        <v>4491</v>
+        <v>0</v>
       </c>
       <c r="AQ81" s="11">
         <v>0</v>
       </c>
       <c r="AR81" s="11">
-        <v>0</v>
+        <v>25575</v>
       </c>
       <c r="AS81" s="11">
-        <v>25575</v>
+        <v>0</v>
       </c>
       <c r="AT81" s="11">
         <v>0</v>
@@ -10940,10 +10940,10 @@
         <v>0</v>
       </c>
       <c r="AW81" s="11">
-        <v>0</v>
+        <v>1929</v>
       </c>
       <c r="AX81" s="11">
-        <v>1929</v>
+        <v>0</v>
       </c>
       <c r="AY81" s="11">
         <v>0</v>
@@ -11089,8 +11089,8 @@
       <c r="AS82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT82" s="13" t="s">
-        <v>58</v>
+      <c r="AT82" s="13">
+        <v>0</v>
       </c>
       <c r="AU82" s="13">
         <v>0</v>
@@ -11185,14 +11185,14 @@
       <c r="X83" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y83" s="17" t="s">
-        <v>58</v>
+      <c r="Y83" s="17">
+        <v>0</v>
       </c>
       <c r="Z83" s="17">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="AA83" s="17">
-        <v>912</v>
+        <v>0</v>
       </c>
       <c r="AB83" s="17">
         <v>0</v>
@@ -11201,16 +11201,16 @@
         <v>0</v>
       </c>
       <c r="AD83" s="17">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="AE83" s="17">
-        <v>946</v>
+        <v>0</v>
       </c>
       <c r="AF83" s="17">
-        <v>0</v>
+        <v>3398</v>
       </c>
       <c r="AG83" s="17">
-        <v>3398</v>
+        <v>0</v>
       </c>
       <c r="AH83" s="17">
         <v>0</v>
@@ -11219,34 +11219,34 @@
         <v>0</v>
       </c>
       <c r="AJ83" s="17">
-        <v>0</v>
+        <v>4405</v>
       </c>
       <c r="AK83" s="17">
-        <v>4405</v>
+        <v>0</v>
       </c>
       <c r="AL83" s="17">
-        <v>0</v>
+        <v>962</v>
       </c>
       <c r="AM83" s="17">
-        <v>962</v>
+        <v>1811</v>
       </c>
       <c r="AN83" s="17">
-        <v>1811</v>
+        <v>4556</v>
       </c>
       <c r="AO83" s="17">
-        <v>4556</v>
+        <v>4491</v>
       </c>
       <c r="AP83" s="17">
-        <v>4491</v>
+        <v>0</v>
       </c>
       <c r="AQ83" s="17">
         <v>0</v>
       </c>
       <c r="AR83" s="17">
-        <v>0</v>
+        <v>25575</v>
       </c>
       <c r="AS83" s="17">
-        <v>25575</v>
+        <v>0</v>
       </c>
       <c r="AT83" s="17">
         <v>0</v>
@@ -11258,10 +11258,10 @@
         <v>0</v>
       </c>
       <c r="AW83" s="17">
-        <v>0</v>
+        <v>1929</v>
       </c>
       <c r="AX83" s="17">
-        <v>1929</v>
+        <v>0</v>
       </c>
       <c r="AY83" s="17">
         <v>0</v>
@@ -11401,8 +11401,8 @@
       <c r="X85" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y85" s="17" t="s">
-        <v>58</v>
+      <c r="Y85" s="17">
+        <v>0</v>
       </c>
       <c r="Z85" s="17">
         <v>0</v>
@@ -11617,8 +11617,8 @@
       <c r="X87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y87" s="11" t="s">
-        <v>58</v>
+      <c r="Y87" s="11">
+        <v>0</v>
       </c>
       <c r="Z87" s="11">
         <v>0</v>
@@ -11775,94 +11775,94 @@
         <v>0</v>
       </c>
       <c r="Y88" s="15">
-        <v>0</v>
+        <v>1329885</v>
       </c>
       <c r="Z88" s="15">
-        <v>1329885</v>
+        <v>508377</v>
       </c>
       <c r="AA88" s="15">
-        <v>508377</v>
+        <v>2692620</v>
       </c>
       <c r="AB88" s="15">
-        <v>2692620</v>
+        <v>3190962</v>
       </c>
       <c r="AC88" s="15">
-        <v>3190962</v>
+        <v>932739</v>
       </c>
       <c r="AD88" s="15">
-        <v>932739</v>
+        <v>2761554</v>
       </c>
       <c r="AE88" s="15">
-        <v>2761554</v>
+        <v>394221</v>
       </c>
       <c r="AF88" s="15">
-        <v>394221</v>
+        <v>2163975</v>
       </c>
       <c r="AG88" s="15">
-        <v>2163975</v>
+        <v>162673</v>
       </c>
       <c r="AH88" s="15">
-        <v>162673</v>
+        <v>90076</v>
       </c>
       <c r="AI88" s="15">
-        <v>90076</v>
+        <v>2824948</v>
       </c>
       <c r="AJ88" s="15">
-        <v>2824948</v>
+        <v>2812626</v>
       </c>
       <c r="AK88" s="15">
-        <v>2812626</v>
+        <v>1508799</v>
       </c>
       <c r="AL88" s="15">
-        <v>1508799</v>
+        <v>2060159</v>
       </c>
       <c r="AM88" s="15">
-        <v>2060159</v>
+        <v>2236819</v>
       </c>
       <c r="AN88" s="15">
-        <v>2236819</v>
+        <v>1733042</v>
       </c>
       <c r="AO88" s="15">
-        <v>1733042</v>
+        <v>1821003</v>
       </c>
       <c r="AP88" s="15">
-        <v>1821003</v>
+        <v>3804906</v>
       </c>
       <c r="AQ88" s="15">
-        <v>3804906</v>
+        <v>2533670</v>
       </c>
       <c r="AR88" s="15">
-        <v>2533670</v>
+        <v>4497985</v>
       </c>
       <c r="AS88" s="15">
-        <v>4497985</v>
+        <v>5967726</v>
       </c>
       <c r="AT88" s="15">
-        <v>5967726</v>
+        <v>1120042</v>
       </c>
       <c r="AU88" s="15">
-        <v>1120042</v>
+        <v>2030180</v>
       </c>
       <c r="AV88" s="15">
-        <v>2030180</v>
+        <v>9394528</v>
       </c>
       <c r="AW88" s="15">
-        <v>9394528</v>
+        <v>3448467</v>
       </c>
       <c r="AX88" s="15">
-        <v>3448467</v>
+        <v>3403630</v>
       </c>
       <c r="AY88" s="15">
-        <v>2980224</v>
+        <v>3758031</v>
       </c>
       <c r="AZ88" s="15">
-        <v>3758031</v>
+        <v>3073825</v>
       </c>
       <c r="BA88" s="15">
-        <v>2650419</v>
+        <v>2903264</v>
       </c>
       <c r="BB88" s="15">
-        <v>2479858</v>
+        <v>11354145</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -12376,11 +12376,11 @@
       <c r="AA95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB95" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC95" s="11">
+      <c r="AB95" s="11">
         <v>404464000</v>
+      </c>
+      <c r="AC95" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AD95" s="11" t="s">
         <v>58</v>
@@ -12526,68 +12526,68 @@
       <c r="X96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y96" s="13" t="s">
-        <v>58</v>
+      <c r="Y96" s="13">
+        <v>86709302</v>
       </c>
       <c r="Z96" s="13">
-        <v>86709302</v>
+        <v>152190909</v>
       </c>
       <c r="AA96" s="13">
-        <v>152190909</v>
+        <v>197065851</v>
       </c>
       <c r="AB96" s="13">
-        <v>197065851</v>
+        <v>255861573</v>
       </c>
       <c r="AC96" s="13">
-        <v>255861573</v>
+        <v>257229120</v>
       </c>
       <c r="AD96" s="13">
-        <v>257229120</v>
+        <v>269183333</v>
       </c>
       <c r="AE96" s="13">
-        <v>269183333</v>
+        <v>289070922</v>
       </c>
       <c r="AF96" s="13">
-        <v>289070922</v>
-      </c>
-      <c r="AG96" s="13">
         <v>305392157</v>
       </c>
+      <c r="AG96" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI96" s="13" t="s">
-        <v>58</v>
+      <c r="AI96" s="13">
+        <v>319880785</v>
       </c>
       <c r="AJ96" s="13">
-        <v>319880785</v>
+        <v>290662000</v>
       </c>
       <c r="AK96" s="13">
-        <v>290662000</v>
+        <v>304913767</v>
       </c>
       <c r="AL96" s="13">
-        <v>304913767</v>
+        <v>294786885</v>
       </c>
       <c r="AM96" s="13">
-        <v>294786885</v>
+        <v>399497537</v>
       </c>
       <c r="AN96" s="13">
-        <v>399497537</v>
+        <v>323972574</v>
       </c>
       <c r="AO96" s="13">
-        <v>323972574</v>
+        <v>338631098</v>
       </c>
       <c r="AP96" s="13">
-        <v>338631098</v>
+        <v>337454545</v>
       </c>
       <c r="AQ96" s="13">
-        <v>337454545</v>
+        <v>332966667</v>
       </c>
       <c r="AR96" s="13">
-        <v>332966667</v>
-      </c>
-      <c r="AS96" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS96" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT96" s="13" t="s">
         <v>58</v>
@@ -12598,20 +12598,20 @@
       <c r="AV96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW96" s="13" t="s">
-        <v>58</v>
+      <c r="AW96" s="13">
+        <v>302877271</v>
       </c>
       <c r="AX96" s="13">
-        <v>302877271</v>
+        <v>0</v>
       </c>
       <c r="AY96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ96" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA96" s="13" t="s">
-        <v>58</v>
+      <c r="AZ96" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA96" s="13">
+        <v>0</v>
       </c>
       <c r="BB96" s="13" t="s">
         <v>58</v>
@@ -12685,95 +12685,95 @@
       <c r="X97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y97" s="11" t="s">
-        <v>58</v>
+      <c r="Y97" s="11">
+        <v>327076667</v>
       </c>
       <c r="Z97" s="11">
-        <v>327076667</v>
+        <v>471766071</v>
       </c>
       <c r="AA97" s="11">
-        <v>471766071</v>
+        <v>515791786</v>
       </c>
       <c r="AB97" s="11">
-        <v>515791786</v>
+        <v>556475000</v>
       </c>
       <c r="AC97" s="11">
-        <v>556475000</v>
-      </c>
-      <c r="AD97" s="11">
         <v>530000000</v>
       </c>
+      <c r="AD97" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AE97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF97" s="11" t="s">
-        <v>58</v>
+      <c r="AF97" s="11">
+        <v>612012069</v>
       </c>
       <c r="AG97" s="11">
-        <v>612012069</v>
+        <v>616416667</v>
       </c>
       <c r="AH97" s="11">
-        <v>616416667</v>
-      </c>
-      <c r="AI97" s="11">
         <v>588448276</v>
       </c>
-      <c r="AJ97" s="11" t="s">
-        <v>58</v>
+      <c r="AI97" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ97" s="11">
+        <v>583869176</v>
       </c>
       <c r="AK97" s="11">
-        <v>583869176</v>
+        <v>600761798</v>
       </c>
       <c r="AL97" s="11">
-        <v>600761798</v>
+        <v>625142308</v>
       </c>
       <c r="AM97" s="11">
-        <v>625142308</v>
+        <v>642225000</v>
       </c>
       <c r="AN97" s="11">
-        <v>642225000</v>
+        <v>667820000</v>
       </c>
       <c r="AO97" s="11">
-        <v>667820000</v>
+        <v>750417391</v>
       </c>
       <c r="AP97" s="11">
-        <v>750417391</v>
+        <v>755143175</v>
       </c>
       <c r="AQ97" s="11">
-        <v>755143175</v>
+        <v>828822346</v>
       </c>
       <c r="AR97" s="11">
-        <v>828822346</v>
+        <v>883147622</v>
       </c>
       <c r="AS97" s="11">
-        <v>883147622</v>
+        <v>888361111</v>
       </c>
       <c r="AT97" s="11">
-        <v>888361111</v>
+        <v>1031620621</v>
       </c>
       <c r="AU97" s="11">
-        <v>1031620621</v>
+        <v>945966057</v>
       </c>
       <c r="AV97" s="11">
-        <v>945966057</v>
+        <v>920768083</v>
       </c>
       <c r="AW97" s="11">
-        <v>920768083</v>
+        <v>842090136</v>
       </c>
       <c r="AX97" s="11">
-        <v>842090136</v>
+        <v>823768418</v>
       </c>
       <c r="AY97" s="11">
-        <v>823768418</v>
+        <v>866703881</v>
       </c>
       <c r="AZ97" s="11">
-        <v>866703881</v>
+        <v>795895152</v>
       </c>
       <c r="BA97" s="11">
-        <v>795895152</v>
+        <v>798137464</v>
       </c>
       <c r="BB97" s="11">
-        <v>798137464</v>
+        <v>920175970</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -12847,51 +12847,51 @@
       <c r="Y98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z98" s="13" t="s">
-        <v>58</v>
+      <c r="Z98" s="13">
+        <v>34444569</v>
       </c>
       <c r="AA98" s="13">
-        <v>34444569</v>
-      </c>
-      <c r="AB98" s="13">
         <v>28581712</v>
       </c>
-      <c r="AC98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD98" s="13">
+      <c r="AB98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC98" s="13">
         <v>45096663</v>
       </c>
-      <c r="AE98" s="13" t="s">
-        <v>58</v>
+      <c r="AD98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE98" s="13">
+        <v>72799304</v>
       </c>
       <c r="AF98" s="13">
-        <v>72799304</v>
-      </c>
-      <c r="AG98" s="13">
         <v>55536977</v>
       </c>
+      <c r="AG98" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI98" s="13" t="s">
-        <v>58</v>
+      <c r="AI98" s="13">
+        <v>58515712</v>
       </c>
       <c r="AJ98" s="13">
-        <v>58515712</v>
+        <v>95483984</v>
       </c>
       <c r="AK98" s="13">
-        <v>95483984</v>
+        <v>75883110</v>
       </c>
       <c r="AL98" s="13">
-        <v>75883110</v>
+        <v>109345405</v>
       </c>
       <c r="AM98" s="13">
-        <v>109345405</v>
-      </c>
-      <c r="AN98" s="13">
         <v>76440416</v>
       </c>
+      <c r="AN98" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO98" s="13" t="s">
         <v>58</v>
       </c>
@@ -12901,11 +12901,11 @@
       <c r="AQ98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS98" s="13">
+      <c r="AR98" s="13">
         <v>2007704</v>
+      </c>
+      <c r="AS98" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT98" s="13" t="s">
         <v>58</v>
@@ -13036,62 +13036,62 @@
       <c r="AI99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ99" s="11" t="s">
-        <v>58</v>
+      <c r="AJ99" s="11">
+        <v>513000000</v>
       </c>
       <c r="AK99" s="11">
-        <v>513000000</v>
-      </c>
-      <c r="AL99" s="11">
         <v>593000000</v>
       </c>
-      <c r="AM99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN99" s="11">
+      <c r="AL99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM99" s="11">
         <v>670400000</v>
       </c>
+      <c r="AN99" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ99" s="11">
+      <c r="AP99" s="11">
         <v>677770000</v>
       </c>
-      <c r="AR99" s="11" t="s">
-        <v>58</v>
+      <c r="AQ99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR99" s="11">
+        <v>708520000</v>
       </c>
       <c r="AS99" s="11">
-        <v>708520000</v>
+        <v>593360000</v>
       </c>
       <c r="AT99" s="11">
-        <v>593360000</v>
+        <v>596353333</v>
       </c>
       <c r="AU99" s="11">
-        <v>596353333</v>
+        <v>652475789</v>
       </c>
       <c r="AV99" s="11">
-        <v>652475789</v>
+        <v>653400000</v>
       </c>
       <c r="AW99" s="11">
-        <v>653400000</v>
+        <v>710000000</v>
       </c>
       <c r="AX99" s="11">
-        <v>710000000</v>
-      </c>
-      <c r="AY99" s="11">
         <v>703213333</v>
       </c>
-      <c r="AZ99" s="11" t="s">
-        <v>58</v>
+      <c r="AY99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ99" s="11">
+        <v>722400000</v>
       </c>
       <c r="BA99" s="11">
-        <v>722400000</v>
-      </c>
-      <c r="BB99" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="BB99" s="11">
+        <v>684265000</v>
       </c>
     </row>
     <row r="100" spans="2:54" x14ac:dyDescent="0.3">
@@ -13237,17 +13237,17 @@
       <c r="AW100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY100" s="13">
+      <c r="AX100" s="13">
         <v>785820046</v>
       </c>
-      <c r="AZ100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA100" s="13" t="s">
-        <v>58</v>
+      <c r="AY100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ100" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA100" s="13">
+        <v>0</v>
       </c>
       <c r="BB100" s="13" t="s">
         <v>58</v>
@@ -13378,95 +13378,95 @@
       <c r="X102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y102" s="11" t="s">
-        <v>58</v>
+      <c r="Y102" s="11">
+        <v>391349414</v>
       </c>
       <c r="Z102" s="11">
-        <v>391349414</v>
+        <v>368316327</v>
       </c>
       <c r="AA102" s="11">
-        <v>368316327</v>
+        <v>570459540</v>
       </c>
       <c r="AB102" s="11">
-        <v>570459540</v>
+        <v>557112445</v>
       </c>
       <c r="AC102" s="11">
-        <v>557112445</v>
+        <v>666192701</v>
       </c>
       <c r="AD102" s="11">
-        <v>666192701</v>
+        <v>656009000</v>
       </c>
       <c r="AE102" s="11">
-        <v>656009000</v>
+        <v>710596154</v>
       </c>
       <c r="AF102" s="11">
-        <v>710596154</v>
-      </c>
-      <c r="AG102" s="11">
         <v>664203898</v>
       </c>
+      <c r="AG102" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI102" s="11" t="s">
-        <v>58</v>
+      <c r="AI102" s="11">
+        <v>594199158</v>
       </c>
       <c r="AJ102" s="11">
-        <v>594199158</v>
+        <v>600981316</v>
       </c>
       <c r="AK102" s="11">
-        <v>600981316</v>
+        <v>645153038</v>
       </c>
       <c r="AL102" s="11">
-        <v>645153038</v>
+        <v>674301417</v>
       </c>
       <c r="AM102" s="11">
-        <v>674301417</v>
+        <v>694927240</v>
       </c>
       <c r="AN102" s="11">
-        <v>694927240</v>
+        <v>757702781</v>
       </c>
       <c r="AO102" s="11">
-        <v>757702781</v>
+        <v>725428047</v>
       </c>
       <c r="AP102" s="11">
-        <v>725428047</v>
+        <v>783437372</v>
       </c>
       <c r="AQ102" s="11">
-        <v>783437372</v>
+        <v>831557131</v>
       </c>
       <c r="AR102" s="11">
-        <v>831557131</v>
+        <v>858978297</v>
       </c>
       <c r="AS102" s="11">
-        <v>858978297</v>
-      </c>
-      <c r="AT102" s="11">
         <v>855389534</v>
       </c>
+      <c r="AT102" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV102" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW102" s="11">
+      <c r="AV102" s="11">
         <v>846352124</v>
       </c>
-      <c r="AX102" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY102" s="11" t="s">
-        <v>58</v>
+      <c r="AW102" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX102" s="11">
+        <v>-5654355</v>
+      </c>
+      <c r="AY102" s="11">
+        <v>819337030</v>
       </c>
       <c r="AZ102" s="11">
-        <v>819337030</v>
-      </c>
-      <c r="BA102" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB102" s="11" t="s">
-        <v>58</v>
+        <v>781388610</v>
+      </c>
+      <c r="BA102" s="11">
+        <v>781388610</v>
+      </c>
+      <c r="BB102" s="11">
+        <v>811954697</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.3">
@@ -13621,8 +13621,8 @@
       <c r="AG104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH104" s="11" t="s">
-        <v>58</v>
+      <c r="AH104" s="11">
+        <v>0</v>
       </c>
       <c r="AI104" s="11">
         <v>0</v>
@@ -13753,8 +13753,8 @@
       <c r="X105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y105" s="13" t="s">
-        <v>58</v>
+      <c r="Y105" s="13">
+        <v>0</v>
       </c>
       <c r="Z105" s="13">
         <v>0</v>
@@ -13780,8 +13780,8 @@
       <c r="AG105" s="13">
         <v>0</v>
       </c>
-      <c r="AH105" s="13">
-        <v>0</v>
+      <c r="AH105" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI105" s="13" t="s">
         <v>58</v>
@@ -13912,14 +13912,14 @@
       <c r="X106" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y106" s="11" t="s">
-        <v>58</v>
+      <c r="Y106" s="11">
+        <v>0</v>
       </c>
       <c r="Z106" s="11">
-        <v>0</v>
+        <v>815013</v>
       </c>
       <c r="AA106" s="11">
-        <v>815013</v>
+        <v>0</v>
       </c>
       <c r="AB106" s="11">
         <v>0</v>
@@ -13928,16 +13928,16 @@
         <v>0</v>
       </c>
       <c r="AD106" s="11">
-        <v>0</v>
+        <v>796967</v>
       </c>
       <c r="AE106" s="11">
-        <v>796967</v>
+        <v>0</v>
       </c>
       <c r="AF106" s="11">
-        <v>0</v>
+        <v>1894091</v>
       </c>
       <c r="AG106" s="11">
-        <v>1894091</v>
+        <v>0</v>
       </c>
       <c r="AH106" s="11">
         <v>0</v>
@@ -13946,34 +13946,34 @@
         <v>0</v>
       </c>
       <c r="AJ106" s="11">
-        <v>0</v>
+        <v>1478188</v>
       </c>
       <c r="AK106" s="11">
-        <v>1478188</v>
+        <v>0</v>
       </c>
       <c r="AL106" s="11">
-        <v>0</v>
+        <v>779579</v>
       </c>
       <c r="AM106" s="11">
-        <v>779579</v>
+        <v>825433</v>
       </c>
       <c r="AN106" s="11">
-        <v>825433</v>
+        <v>1450032</v>
       </c>
       <c r="AO106" s="11">
-        <v>1450032</v>
+        <v>1699849</v>
       </c>
       <c r="AP106" s="11">
-        <v>1699849</v>
+        <v>0</v>
       </c>
       <c r="AQ106" s="11">
         <v>0</v>
       </c>
       <c r="AR106" s="11">
-        <v>0</v>
+        <v>980006</v>
       </c>
       <c r="AS106" s="11">
-        <v>980006</v>
+        <v>0</v>
       </c>
       <c r="AT106" s="11">
         <v>0</v>
@@ -13985,10 +13985,10 @@
         <v>0</v>
       </c>
       <c r="AW106" s="11">
-        <v>0</v>
+        <v>2686630</v>
       </c>
       <c r="AX106" s="11">
-        <v>2686630</v>
+        <v>0</v>
       </c>
       <c r="AY106" s="11">
         <v>0</v>
@@ -14134,8 +14134,8 @@
       <c r="AS107" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT107" s="13" t="s">
-        <v>58</v>
+      <c r="AT107" s="13">
+        <v>0</v>
       </c>
       <c r="AU107" s="13">
         <v>0</v>

--- a/database/industries/felezat/fasmin/product/monthly_seprated.xlsx
+++ b/database/industries/felezat/fasmin/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\fasmin\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E969033D-F2E8-4001-9485-27C05D7A2A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978D465D-8576-4913-B629-CAD23057CDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="92">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فاسمین-کالسیمین‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -778,12 +778,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -838,7 +838,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -895,7 +895,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1007,7 +1007,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1176,7 +1176,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1388,7 +1388,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1498,20 +1498,20 @@
       <c r="S11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="T11" s="11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="11">
+        <v>0</v>
+      </c>
+      <c r="W11" s="11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="11">
+        <v>0</v>
       </c>
       <c r="Y11" s="11">
         <v>0</v>
@@ -1543,32 +1543,32 @@
       <c r="AH11" s="11">
         <v>0</v>
       </c>
-      <c r="AI11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN11" s="11" t="s">
-        <v>58</v>
+      <c r="AI11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>0</v>
       </c>
       <c r="AO11" s="11">
         <v>0</v>
       </c>
-      <c r="AP11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ11" s="11" t="s">
-        <v>58</v>
+      <c r="AP11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>0</v>
       </c>
       <c r="AR11" s="11">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1657,113 +1657,113 @@
       <c r="S12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="T12" s="13">
+        <v>68</v>
+      </c>
+      <c r="U12" s="13">
+        <v>0</v>
+      </c>
+      <c r="V12" s="13">
+        <v>463</v>
+      </c>
+      <c r="W12" s="13">
+        <v>688</v>
+      </c>
+      <c r="X12" s="13">
+        <v>529</v>
       </c>
       <c r="Y12" s="13">
-        <v>688</v>
+        <v>349</v>
       </c>
       <c r="Z12" s="13">
-        <v>529</v>
+        <v>308</v>
       </c>
       <c r="AA12" s="13">
-        <v>349</v>
+        <v>213</v>
       </c>
       <c r="AB12" s="13">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="AC12" s="13">
+        <v>350</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>396</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>484</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>451</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>393</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>490</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>586</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>405</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>379</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>334</v>
+      </c>
+      <c r="AM12" s="13">
         <v>213</v>
       </c>
-      <c r="AD12" s="13">
-        <v>285</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>350</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>396</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>484</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>451</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>393</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>490</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>586</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>405</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>379</v>
-      </c>
       <c r="AN12" s="13">
-        <v>334</v>
+        <v>227</v>
       </c>
       <c r="AO12" s="13">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="AP12" s="13">
-        <v>227</v>
+        <v>376</v>
       </c>
       <c r="AQ12" s="13">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AR12" s="13">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="AS12" s="13">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AT12" s="13">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="AU12" s="13">
-        <v>306</v>
+        <v>398</v>
       </c>
       <c r="AV12" s="13">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="AW12" s="13">
-        <v>398</v>
+        <v>317</v>
       </c>
       <c r="AX12" s="13">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="AY12" s="13">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="AZ12" s="13">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="BA12" s="13">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="BB12" s="13">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1816,113 +1816,113 @@
       <c r="S13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="T13" s="11">
+        <v>373</v>
+      </c>
+      <c r="U13" s="11">
+        <v>2637</v>
+      </c>
+      <c r="V13" s="11">
+        <v>2728</v>
+      </c>
+      <c r="W13" s="11">
+        <v>2055</v>
+      </c>
+      <c r="X13" s="11">
+        <v>2614</v>
       </c>
       <c r="Y13" s="11">
-        <v>2055</v>
+        <v>3018</v>
       </c>
       <c r="Z13" s="11">
-        <v>2614</v>
+        <v>3140</v>
       </c>
       <c r="AA13" s="11">
-        <v>3018</v>
+        <v>2868</v>
       </c>
       <c r="AB13" s="11">
-        <v>3140</v>
+        <v>2911</v>
       </c>
       <c r="AC13" s="11">
-        <v>2868</v>
+        <v>2847</v>
       </c>
       <c r="AD13" s="11">
-        <v>2911</v>
+        <v>2948</v>
       </c>
       <c r="AE13" s="11">
-        <v>2847</v>
+        <v>3094</v>
       </c>
       <c r="AF13" s="11">
-        <v>2948</v>
+        <v>3134</v>
       </c>
       <c r="AG13" s="11">
-        <v>3094</v>
+        <v>3399</v>
       </c>
       <c r="AH13" s="11">
-        <v>3134</v>
+        <v>3138</v>
       </c>
       <c r="AI13" s="11">
-        <v>3399</v>
+        <v>2953</v>
       </c>
       <c r="AJ13" s="11">
-        <v>3138</v>
+        <v>2939</v>
       </c>
       <c r="AK13" s="11">
-        <v>2953</v>
+        <v>3107</v>
       </c>
       <c r="AL13" s="11">
-        <v>2939</v>
+        <v>3478</v>
       </c>
       <c r="AM13" s="11">
-        <v>3107</v>
+        <v>3658</v>
       </c>
       <c r="AN13" s="11">
-        <v>3478</v>
+        <v>3429</v>
       </c>
       <c r="AO13" s="11">
-        <v>3658</v>
+        <v>3327</v>
       </c>
       <c r="AP13" s="11">
-        <v>3429</v>
+        <v>3137</v>
       </c>
       <c r="AQ13" s="11">
-        <v>3327</v>
+        <v>3426</v>
       </c>
       <c r="AR13" s="11">
-        <v>3137</v>
+        <v>3390</v>
       </c>
       <c r="AS13" s="11">
-        <v>3426</v>
+        <v>3916</v>
       </c>
       <c r="AT13" s="11">
-        <v>3390</v>
+        <v>3727</v>
       </c>
       <c r="AU13" s="11">
-        <v>3916</v>
+        <v>3081</v>
       </c>
       <c r="AV13" s="11">
-        <v>3727</v>
+        <v>2498</v>
       </c>
       <c r="AW13" s="11">
-        <v>3081</v>
+        <v>2972</v>
       </c>
       <c r="AX13" s="11">
-        <v>9937</v>
+        <v>3566</v>
       </c>
       <c r="AY13" s="11">
-        <v>2972</v>
+        <v>3539</v>
       </c>
       <c r="AZ13" s="11">
-        <v>11005</v>
+        <v>3471</v>
       </c>
       <c r="BA13" s="11">
-        <v>10978</v>
+        <v>3470</v>
       </c>
       <c r="BB13" s="11">
-        <v>3471</v>
+        <v>2765</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1975,113 +1975,113 @@
       <c r="S14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="T14" s="13">
+        <v>4097</v>
+      </c>
+      <c r="U14" s="13">
+        <v>14916</v>
+      </c>
+      <c r="V14" s="13">
+        <v>12499</v>
+      </c>
+      <c r="W14" s="13">
+        <v>15515</v>
+      </c>
+      <c r="X14" s="13">
+        <v>13602</v>
       </c>
       <c r="Y14" s="13">
-        <v>15515</v>
+        <v>13883</v>
       </c>
       <c r="Z14" s="13">
-        <v>13602</v>
+        <v>13187</v>
       </c>
       <c r="AA14" s="13">
-        <v>13883</v>
+        <v>12333</v>
       </c>
       <c r="AB14" s="13">
-        <v>13187</v>
+        <v>13867</v>
       </c>
       <c r="AC14" s="13">
-        <v>12333</v>
+        <v>15085</v>
       </c>
       <c r="AD14" s="13">
-        <v>13867</v>
+        <v>14150</v>
       </c>
       <c r="AE14" s="13">
-        <v>15085</v>
+        <v>15816</v>
       </c>
       <c r="AF14" s="13">
-        <v>14150</v>
+        <v>16615</v>
       </c>
       <c r="AG14" s="13">
-        <v>15816</v>
+        <v>14189</v>
       </c>
       <c r="AH14" s="13">
-        <v>16615</v>
+        <v>17540</v>
       </c>
       <c r="AI14" s="13">
-        <v>14189</v>
+        <v>18827</v>
       </c>
       <c r="AJ14" s="13">
-        <v>17540</v>
+        <v>15387</v>
       </c>
       <c r="AK14" s="13">
-        <v>18827</v>
+        <v>16391</v>
       </c>
       <c r="AL14" s="13">
-        <v>15387</v>
+        <v>15291</v>
       </c>
       <c r="AM14" s="13">
-        <v>16391</v>
+        <v>10208</v>
       </c>
       <c r="AN14" s="13">
-        <v>15291</v>
+        <v>11787</v>
       </c>
       <c r="AO14" s="13">
-        <v>10208</v>
+        <v>14128</v>
       </c>
       <c r="AP14" s="13">
-        <v>11787</v>
+        <v>17289</v>
       </c>
       <c r="AQ14" s="13">
-        <v>14128</v>
+        <v>17310</v>
       </c>
       <c r="AR14" s="13">
-        <v>17289</v>
+        <v>17678</v>
       </c>
       <c r="AS14" s="13">
-        <v>17310</v>
+        <v>16641</v>
       </c>
       <c r="AT14" s="13">
-        <v>17678</v>
+        <v>16926</v>
       </c>
       <c r="AU14" s="13">
-        <v>16641</v>
+        <v>16617</v>
       </c>
       <c r="AV14" s="13">
-        <v>16926</v>
+        <v>16896</v>
       </c>
       <c r="AW14" s="13">
-        <v>16617</v>
+        <v>17284</v>
       </c>
       <c r="AX14" s="13">
-        <v>16896</v>
+        <v>15152</v>
       </c>
       <c r="AY14" s="13">
-        <v>17284</v>
+        <v>16569</v>
       </c>
       <c r="AZ14" s="13">
-        <v>15152</v>
+        <v>16380</v>
       </c>
       <c r="BA14" s="13">
-        <v>16569</v>
+        <v>15914</v>
       </c>
       <c r="BB14" s="13">
-        <v>16380</v>
+        <v>16519</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2146,101 +2146,101 @@
       <c r="W15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
+      <c r="X15" s="11">
+        <v>3145</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>2921</v>
       </c>
       <c r="Z15" s="11">
-        <v>3145</v>
+        <v>3092</v>
       </c>
       <c r="AA15" s="11">
-        <v>2921</v>
+        <v>1685</v>
       </c>
       <c r="AB15" s="11">
-        <v>3092</v>
+        <v>309</v>
       </c>
       <c r="AC15" s="11">
-        <v>1685</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="11">
-        <v>309</v>
+        <v>545</v>
       </c>
       <c r="AE15" s="11">
         <v>0</v>
       </c>
-      <c r="AF15" s="11">
-        <v>545</v>
+      <c r="AF15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="11" t="s">
-        <v>58</v>
+        <v>585</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>0</v>
       </c>
       <c r="AI15" s="11">
-        <v>585</v>
-      </c>
-      <c r="AJ15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK15" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>1427</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>2199</v>
       </c>
       <c r="AL15" s="11">
-        <v>1427</v>
+        <v>1910</v>
       </c>
       <c r="AM15" s="11">
-        <v>2199</v>
+        <v>881</v>
       </c>
       <c r="AN15" s="11">
-        <v>1910</v>
+        <v>1528</v>
       </c>
       <c r="AO15" s="11">
-        <v>881</v>
+        <v>1103</v>
       </c>
       <c r="AP15" s="11">
-        <v>1528</v>
+        <v>2952</v>
       </c>
       <c r="AQ15" s="11">
-        <v>1103</v>
+        <v>2860</v>
       </c>
       <c r="AR15" s="11">
-        <v>2952</v>
+        <v>2383</v>
       </c>
       <c r="AS15" s="11">
-        <v>2860</v>
+        <v>2982</v>
       </c>
       <c r="AT15" s="11">
-        <v>2383</v>
+        <v>3279</v>
       </c>
       <c r="AU15" s="11">
-        <v>2982</v>
+        <v>2575</v>
       </c>
       <c r="AV15" s="11">
-        <v>3279</v>
+        <v>3412</v>
       </c>
       <c r="AW15" s="11">
-        <v>2575</v>
+        <v>3806</v>
       </c>
       <c r="AX15" s="11">
-        <v>3412</v>
+        <v>2467</v>
       </c>
       <c r="AY15" s="11">
-        <v>3806</v>
+        <v>4356</v>
       </c>
       <c r="AZ15" s="11">
-        <v>2467</v>
+        <v>5285</v>
       </c>
       <c r="BA15" s="11">
-        <v>4356</v>
+        <v>5651</v>
       </c>
       <c r="BB15" s="11">
-        <v>5285</v>
+        <v>2878</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2335,32 +2335,32 @@
       <c r="AG16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN16" s="13" t="s">
-        <v>58</v>
+      <c r="AH16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="13">
+        <v>0</v>
       </c>
       <c r="AO16" s="13">
         <v>0</v>
       </c>
-      <c r="AP16" s="13" t="s">
-        <v>58</v>
+      <c r="AP16" s="13">
+        <v>0</v>
       </c>
       <c r="AQ16" s="13">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2536,11 +2536,11 @@
       <c r="AU17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW17" s="11" t="s">
-        <v>58</v>
+      <c r="AV17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="11">
+        <v>0</v>
       </c>
       <c r="AX17" s="11">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>65</v>
       </c>
@@ -2610,112 +2610,112 @@
         <v>0</v>
       </c>
       <c r="T18" s="15">
-        <v>0</v>
+        <v>4538</v>
       </c>
       <c r="U18" s="15">
-        <v>0</v>
+        <v>17553</v>
       </c>
       <c r="V18" s="15">
-        <v>0</v>
+        <v>15690</v>
       </c>
       <c r="W18" s="15">
-        <v>0</v>
+        <v>18258</v>
       </c>
       <c r="X18" s="15">
-        <v>0</v>
+        <v>19890</v>
       </c>
       <c r="Y18" s="15">
-        <v>18258</v>
+        <v>20171</v>
       </c>
       <c r="Z18" s="15">
-        <v>19890</v>
+        <v>19727</v>
       </c>
       <c r="AA18" s="15">
-        <v>20171</v>
+        <v>17099</v>
       </c>
       <c r="AB18" s="15">
-        <v>19727</v>
+        <v>17372</v>
       </c>
       <c r="AC18" s="15">
-        <v>17099</v>
+        <v>18282</v>
       </c>
       <c r="AD18" s="15">
-        <v>17372</v>
+        <v>18039</v>
       </c>
       <c r="AE18" s="15">
-        <v>18282</v>
+        <v>19394</v>
       </c>
       <c r="AF18" s="15">
-        <v>18039</v>
+        <v>20200</v>
       </c>
       <c r="AG18" s="15">
-        <v>19394</v>
+        <v>18566</v>
       </c>
       <c r="AH18" s="15">
-        <v>20200</v>
+        <v>21168</v>
       </c>
       <c r="AI18" s="15">
-        <v>18566</v>
+        <v>22366</v>
       </c>
       <c r="AJ18" s="15">
-        <v>21168</v>
+        <v>20158</v>
       </c>
       <c r="AK18" s="15">
-        <v>22366</v>
+        <v>22076</v>
       </c>
       <c r="AL18" s="15">
-        <v>20158</v>
+        <v>21013</v>
       </c>
       <c r="AM18" s="15">
-        <v>22076</v>
+        <v>14960</v>
       </c>
       <c r="AN18" s="15">
-        <v>21013</v>
+        <v>16971</v>
       </c>
       <c r="AO18" s="15">
-        <v>14960</v>
+        <v>18859</v>
       </c>
       <c r="AP18" s="15">
-        <v>16971</v>
+        <v>23754</v>
       </c>
       <c r="AQ18" s="15">
-        <v>18859</v>
+        <v>23901</v>
       </c>
       <c r="AR18" s="15">
-        <v>23754</v>
+        <v>23765</v>
       </c>
       <c r="AS18" s="15">
-        <v>23901</v>
+        <v>23845</v>
       </c>
       <c r="AT18" s="15">
-        <v>23765</v>
+        <v>24225</v>
       </c>
       <c r="AU18" s="15">
-        <v>23845</v>
+        <v>22671</v>
       </c>
       <c r="AV18" s="15">
-        <v>24225</v>
+        <v>23149</v>
       </c>
       <c r="AW18" s="15">
-        <v>22671</v>
+        <v>24379</v>
       </c>
       <c r="AX18" s="15">
-        <v>30588</v>
+        <v>21487</v>
       </c>
       <c r="AY18" s="15">
-        <v>24379</v>
+        <v>24817</v>
       </c>
       <c r="AZ18" s="15">
-        <v>28926</v>
+        <v>25484</v>
       </c>
       <c r="BA18" s="15">
-        <v>32256</v>
+        <v>25423</v>
       </c>
       <c r="BB18" s="15">
-        <v>25484</v>
+        <v>22514</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>66</v>
       </c>
@@ -2772,7 +2772,7 @@
       <c r="BA19" s="9"/>
       <c r="BB19" s="9"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>56</v>
       </c>
@@ -2825,20 +2825,20 @@
       <c r="S20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X20" s="11" t="s">
-        <v>58</v>
+      <c r="T20" s="11">
+        <v>0</v>
+      </c>
+      <c r="U20" s="11">
+        <v>0</v>
+      </c>
+      <c r="V20" s="11">
+        <v>0</v>
+      </c>
+      <c r="W20" s="11">
+        <v>0</v>
+      </c>
+      <c r="X20" s="11">
+        <v>0</v>
       </c>
       <c r="Y20" s="11">
         <v>0</v>
@@ -2870,38 +2870,38 @@
       <c r="AH20" s="11">
         <v>0</v>
       </c>
-      <c r="AI20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="11">
-        <v>0</v>
+      <c r="AI20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT20" s="11" t="s">
         <v>58</v>
@@ -2931,7 +2931,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>60</v>
       </c>
@@ -2984,20 +2984,20 @@
       <c r="S21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X21" s="13" t="s">
-        <v>58</v>
+      <c r="T21" s="13">
+        <v>94</v>
+      </c>
+      <c r="U21" s="13">
+        <v>0</v>
+      </c>
+      <c r="V21" s="13">
+        <v>0</v>
+      </c>
+      <c r="W21" s="13">
+        <v>0</v>
+      </c>
+      <c r="X21" s="13">
+        <v>0</v>
       </c>
       <c r="Y21" s="13">
         <v>0</v>
@@ -3029,32 +3029,32 @@
       <c r="AH21" s="13">
         <v>0</v>
       </c>
-      <c r="AI21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ21" s="13" t="s">
-        <v>58</v>
+      <c r="AI21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="13">
+        <v>0</v>
       </c>
       <c r="AR21" s="13">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>62</v>
       </c>
@@ -3215,11 +3215,11 @@
       <c r="AQ22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS22" s="11" t="s">
-        <v>58</v>
+      <c r="AR22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="11">
+        <v>0</v>
       </c>
       <c r="AT22" s="11">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>67</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="15">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="U23" s="15">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>68</v>
       </c>
@@ -3463,7 +3463,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>56</v>
       </c>
@@ -3552,14 +3552,14 @@
       <c r="AE25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF25" s="11" t="s">
-        <v>58</v>
+      <c r="AF25" s="11">
+        <v>0</v>
       </c>
       <c r="AG25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH25" s="11">
-        <v>0</v>
+      <c r="AH25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI25" s="11" t="s">
         <v>58</v>
@@ -3588,8 +3588,8 @@
       <c r="AQ25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR25" s="11">
-        <v>0</v>
+      <c r="AR25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS25" s="11" t="s">
         <v>58</v>
@@ -3600,29 +3600,29 @@
       <c r="AU25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV25" s="11">
-        <v>0</v>
+      <c r="AV25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX25" s="11">
-        <v>0</v>
+      <c r="AX25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ25" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA25" s="11">
-        <v>0</v>
+      <c r="AZ25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB25" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>59</v>
       </c>
@@ -3675,20 +3675,20 @@
       <c r="S26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X26" s="13" t="s">
-        <v>58</v>
+      <c r="T26" s="13">
+        <v>0</v>
+      </c>
+      <c r="U26" s="13">
+        <v>0</v>
+      </c>
+      <c r="V26" s="13">
+        <v>0</v>
+      </c>
+      <c r="W26" s="13">
+        <v>0</v>
+      </c>
+      <c r="X26" s="13">
+        <v>0</v>
       </c>
       <c r="Y26" s="13">
         <v>0</v>
@@ -3711,11 +3711,11 @@
       <c r="AE26" s="13">
         <v>0</v>
       </c>
-      <c r="AF26" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="13">
-        <v>0</v>
+      <c r="AF26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG26" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH26" s="13" t="s">
         <v>58</v>
@@ -3781,7 +3781,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>61</v>
       </c>
@@ -3834,20 +3834,20 @@
       <c r="S27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X27" s="11" t="s">
-        <v>58</v>
+      <c r="T27" s="11">
+        <v>0</v>
+      </c>
+      <c r="U27" s="11">
+        <v>0</v>
+      </c>
+      <c r="V27" s="11">
+        <v>0</v>
+      </c>
+      <c r="W27" s="11">
+        <v>0</v>
+      </c>
+      <c r="X27" s="11">
+        <v>0</v>
       </c>
       <c r="Y27" s="11">
         <v>0</v>
@@ -3873,11 +3873,11 @@
       <c r="AF27" s="11">
         <v>0</v>
       </c>
-      <c r="AG27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="11">
-        <v>0</v>
+      <c r="AG27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH27" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI27" s="11" t="s">
         <v>58</v>
@@ -3906,8 +3906,8 @@
       <c r="AQ27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR27" s="11">
-        <v>0</v>
+      <c r="AR27" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS27" s="11" t="s">
         <v>58</v>
@@ -3918,29 +3918,29 @@
       <c r="AU27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV27" s="11">
-        <v>0</v>
+      <c r="AV27" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX27" s="11">
-        <v>0</v>
+      <c r="AX27" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ27" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA27" s="11">
-        <v>0</v>
+      <c r="AZ27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA27" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB27" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>69</v>
       </c>
@@ -4077,29 +4077,29 @@
       <c r="AU28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV28" s="13">
-        <v>0</v>
+      <c r="AV28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX28" s="13">
-        <v>0</v>
+      <c r="AX28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ28" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA28" s="13">
-        <v>0</v>
+      <c r="AZ28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB28" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>70</v>
       </c>
@@ -4150,20 +4150,20 @@
       <c r="S29" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="T29" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="U29" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="V29" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="W29" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X29" s="17" t="s">
-        <v>58</v>
+      <c r="T29" s="17">
+        <v>0</v>
+      </c>
+      <c r="U29" s="17">
+        <v>0</v>
+      </c>
+      <c r="V29" s="17">
+        <v>0</v>
+      </c>
+      <c r="W29" s="17">
+        <v>0</v>
+      </c>
+      <c r="X29" s="17">
+        <v>0</v>
       </c>
       <c r="Y29" s="17">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>71</v>
       </c>
@@ -4308,112 +4308,112 @@
         <v>0</v>
       </c>
       <c r="T30" s="15">
-        <v>0</v>
+        <v>4632</v>
       </c>
       <c r="U30" s="15">
-        <v>0</v>
+        <v>17553</v>
       </c>
       <c r="V30" s="15">
-        <v>0</v>
+        <v>15690</v>
       </c>
       <c r="W30" s="15">
-        <v>0</v>
+        <v>18258</v>
       </c>
       <c r="X30" s="15">
-        <v>0</v>
+        <v>19890</v>
       </c>
       <c r="Y30" s="15">
-        <v>18258</v>
+        <v>20171</v>
       </c>
       <c r="Z30" s="15">
-        <v>19890</v>
+        <v>19727</v>
       </c>
       <c r="AA30" s="15">
-        <v>20171</v>
+        <v>17099</v>
       </c>
       <c r="AB30" s="15">
-        <v>19727</v>
+        <v>17372</v>
       </c>
       <c r="AC30" s="15">
-        <v>17099</v>
+        <v>18282</v>
       </c>
       <c r="AD30" s="15">
-        <v>17372</v>
+        <v>18039</v>
       </c>
       <c r="AE30" s="15">
-        <v>18282</v>
+        <v>19394</v>
       </c>
       <c r="AF30" s="15">
-        <v>18039</v>
+        <v>20200</v>
       </c>
       <c r="AG30" s="15">
-        <v>19394</v>
+        <v>18566</v>
       </c>
       <c r="AH30" s="15">
-        <v>20200</v>
+        <v>21168</v>
       </c>
       <c r="AI30" s="15">
-        <v>18566</v>
+        <v>22366</v>
       </c>
       <c r="AJ30" s="15">
-        <v>21168</v>
+        <v>20158</v>
       </c>
       <c r="AK30" s="15">
-        <v>22366</v>
+        <v>22076</v>
       </c>
       <c r="AL30" s="15">
-        <v>20158</v>
+        <v>21013</v>
       </c>
       <c r="AM30" s="15">
-        <v>22076</v>
+        <v>14960</v>
       </c>
       <c r="AN30" s="15">
-        <v>21013</v>
+        <v>16971</v>
       </c>
       <c r="AO30" s="15">
-        <v>14960</v>
+        <v>18859</v>
       </c>
       <c r="AP30" s="15">
-        <v>16971</v>
+        <v>23754</v>
       </c>
       <c r="AQ30" s="15">
-        <v>18859</v>
+        <v>23901</v>
       </c>
       <c r="AR30" s="15">
-        <v>23754</v>
+        <v>23765</v>
       </c>
       <c r="AS30" s="15">
-        <v>23901</v>
+        <v>23845</v>
       </c>
       <c r="AT30" s="15">
-        <v>23765</v>
+        <v>24225</v>
       </c>
       <c r="AU30" s="15">
-        <v>23845</v>
+        <v>22671</v>
       </c>
       <c r="AV30" s="15">
-        <v>24225</v>
+        <v>23149</v>
       </c>
       <c r="AW30" s="15">
-        <v>22671</v>
+        <v>24379</v>
       </c>
       <c r="AX30" s="15">
-        <v>30588</v>
+        <v>21487</v>
       </c>
       <c r="AY30" s="15">
-        <v>24379</v>
+        <v>24817</v>
       </c>
       <c r="AZ30" s="15">
-        <v>28926</v>
+        <v>25484</v>
       </c>
       <c r="BA30" s="15">
-        <v>32256</v>
+        <v>25423</v>
       </c>
       <c r="BB30" s="15">
-        <v>25484</v>
+        <v>22514</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4468,7 +4468,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4523,7 +4523,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4578,7 +4578,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>72</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4790,7 +4790,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>73</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>56</v>
       </c>
@@ -4900,32 +4900,32 @@
       <c r="S37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X37" s="11" t="s">
-        <v>58</v>
+      <c r="T37" s="11">
+        <v>0</v>
+      </c>
+      <c r="U37" s="11">
+        <v>0</v>
+      </c>
+      <c r="V37" s="11">
+        <v>0</v>
+      </c>
+      <c r="W37" s="11">
+        <v>0</v>
+      </c>
+      <c r="X37" s="11">
+        <v>0</v>
       </c>
       <c r="Y37" s="11">
         <v>0</v>
       </c>
       <c r="Z37" s="11">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AA37" s="11">
         <v>0</v>
       </c>
       <c r="AB37" s="11">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="11">
         <v>0</v>
@@ -4945,32 +4945,32 @@
       <c r="AH37" s="11">
         <v>0</v>
       </c>
-      <c r="AI37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN37" s="11" t="s">
-        <v>58</v>
+      <c r="AI37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="11">
+        <v>0</v>
       </c>
       <c r="AO37" s="11">
         <v>0</v>
       </c>
-      <c r="AP37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ37" s="11" t="s">
-        <v>58</v>
+      <c r="AP37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="11">
+        <v>0</v>
       </c>
       <c r="AR37" s="11">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -5059,77 +5059,77 @@
       <c r="S38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X38" s="13" t="s">
-        <v>58</v>
+      <c r="T38" s="13">
+        <v>0</v>
+      </c>
+      <c r="U38" s="13">
+        <v>0</v>
+      </c>
+      <c r="V38" s="13">
+        <v>0</v>
+      </c>
+      <c r="W38" s="13">
+        <v>602</v>
+      </c>
+      <c r="X38" s="13">
+        <v>990</v>
       </c>
       <c r="Y38" s="13">
-        <v>602</v>
+        <v>1063</v>
       </c>
       <c r="Z38" s="13">
-        <v>990</v>
+        <v>903</v>
       </c>
       <c r="AA38" s="13">
-        <v>1063</v>
+        <v>886</v>
       </c>
       <c r="AB38" s="13">
-        <v>903</v>
+        <v>180</v>
       </c>
       <c r="AC38" s="13">
-        <v>886</v>
+        <v>564</v>
       </c>
       <c r="AD38" s="13">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="AE38" s="13">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="13">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="13">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="AH38" s="13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI38" s="13">
-        <v>713</v>
+        <v>661</v>
       </c>
       <c r="AJ38" s="13">
-        <v>1000</v>
+        <v>244</v>
       </c>
       <c r="AK38" s="13">
-        <v>661</v>
+        <v>609</v>
       </c>
       <c r="AL38" s="13">
-        <v>244</v>
+        <v>474</v>
       </c>
       <c r="AM38" s="13">
-        <v>609</v>
+        <v>328</v>
       </c>
       <c r="AN38" s="13">
-        <v>474</v>
+        <v>220</v>
       </c>
       <c r="AO38" s="13">
-        <v>328</v>
+        <v>150</v>
       </c>
       <c r="AP38" s="13">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="13">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AR38" s="13">
         <v>0</v>
@@ -5141,13 +5141,13 @@
         <v>0</v>
       </c>
       <c r="AU38" s="13">
-        <v>0</v>
+        <v>2477</v>
       </c>
       <c r="AV38" s="13">
         <v>0</v>
       </c>
       <c r="AW38" s="13">
-        <v>2477</v>
+        <v>0</v>
       </c>
       <c r="AX38" s="13">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>60</v>
       </c>
@@ -5218,113 +5218,113 @@
       <c r="S39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>58</v>
+      <c r="T39" s="11">
+        <v>360</v>
+      </c>
+      <c r="U39" s="11">
+        <v>861</v>
+      </c>
+      <c r="V39" s="11">
+        <v>569</v>
+      </c>
+      <c r="W39" s="11">
+        <v>300</v>
+      </c>
+      <c r="X39" s="11">
+        <v>560</v>
       </c>
       <c r="Y39" s="11">
-        <v>300</v>
+        <v>3482</v>
       </c>
       <c r="Z39" s="11">
-        <v>560</v>
+        <v>1560</v>
       </c>
       <c r="AA39" s="11">
-        <v>3482</v>
+        <v>100</v>
       </c>
       <c r="AB39" s="11">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="11">
-        <v>0</v>
+        <v>1160</v>
       </c>
       <c r="AE39" s="11">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AF39" s="11">
-        <v>1160</v>
+        <v>145</v>
       </c>
       <c r="AG39" s="11">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="11">
-        <v>145</v>
-      </c>
-      <c r="AI39" s="11" t="s">
-        <v>58</v>
+        <v>1116</v>
+      </c>
+      <c r="AI39" s="11">
+        <v>445</v>
       </c>
       <c r="AJ39" s="11">
-        <v>1116</v>
+        <v>260</v>
       </c>
       <c r="AK39" s="11">
-        <v>445</v>
+        <v>200</v>
       </c>
       <c r="AL39" s="11">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="AM39" s="11">
-        <v>200</v>
+        <v>690</v>
       </c>
       <c r="AN39" s="11">
-        <v>400</v>
+        <v>1795</v>
       </c>
       <c r="AO39" s="11">
-        <v>690</v>
+        <v>1790</v>
       </c>
       <c r="AP39" s="11">
-        <v>1795</v>
+        <v>1409</v>
       </c>
       <c r="AQ39" s="11">
-        <v>1790</v>
+        <v>1620</v>
       </c>
       <c r="AR39" s="11">
-        <v>1409</v>
+        <v>999</v>
       </c>
       <c r="AS39" s="11">
-        <v>1620</v>
+        <v>1149</v>
       </c>
       <c r="AT39" s="11">
-        <v>999</v>
+        <v>4424</v>
       </c>
       <c r="AU39" s="11">
-        <v>1149</v>
+        <v>3173</v>
       </c>
       <c r="AV39" s="11">
-        <v>4424</v>
+        <v>3122</v>
       </c>
       <c r="AW39" s="11">
-        <v>3173</v>
+        <v>1675</v>
       </c>
       <c r="AX39" s="11">
-        <v>3122</v>
+        <v>3300</v>
       </c>
       <c r="AY39" s="11">
-        <v>1675</v>
+        <v>3099</v>
       </c>
       <c r="AZ39" s="11">
-        <v>3300</v>
+        <v>3171</v>
       </c>
       <c r="BA39" s="11">
-        <v>3099</v>
+        <v>1815</v>
       </c>
       <c r="BB39" s="11">
-        <v>3171</v>
+        <v>4271</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -5377,68 +5377,68 @@
       <c r="S40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X40" s="13" t="s">
-        <v>58</v>
+      <c r="T40" s="13">
+        <v>0</v>
+      </c>
+      <c r="U40" s="13">
+        <v>0</v>
+      </c>
+      <c r="V40" s="13">
+        <v>4200</v>
+      </c>
+      <c r="W40" s="13">
+        <v>0</v>
+      </c>
+      <c r="X40" s="13">
+        <v>893</v>
       </c>
       <c r="Y40" s="13">
-        <v>0</v>
+        <v>2056</v>
       </c>
       <c r="Z40" s="13">
-        <v>893</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="13">
-        <v>2056</v>
+        <v>2907</v>
       </c>
       <c r="AB40" s="13">
         <v>0</v>
       </c>
       <c r="AC40" s="13">
-        <v>2907</v>
+        <v>1724</v>
       </c>
       <c r="AD40" s="13">
-        <v>0</v>
+        <v>622</v>
       </c>
       <c r="AE40" s="13">
-        <v>1724</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="13">
-        <v>622</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="13">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="AH40" s="13">
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="AI40" s="13">
-        <v>541</v>
+        <v>2019</v>
       </c>
       <c r="AJ40" s="13">
-        <v>1998</v>
+        <v>2209</v>
       </c>
       <c r="AK40" s="13">
-        <v>2019</v>
+        <v>4137</v>
       </c>
       <c r="AL40" s="13">
-        <v>2209</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="13">
-        <v>4137</v>
-      </c>
-      <c r="AN40" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AN40" s="13">
+        <v>0</v>
       </c>
       <c r="AO40" s="13">
         <v>0</v>
@@ -5477,13 +5477,13 @@
         <v>0</v>
       </c>
       <c r="BA40" s="13">
-        <v>0</v>
+        <v>1678</v>
       </c>
       <c r="BB40" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>62</v>
       </c>
@@ -5548,11 +5548,11 @@
       <c r="W41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y41" s="11" t="s">
-        <v>58</v>
+      <c r="X41" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="11">
+        <v>0</v>
       </c>
       <c r="Z41" s="11">
         <v>0</v>
@@ -5572,41 +5572,41 @@
       <c r="AE41" s="11">
         <v>0</v>
       </c>
-      <c r="AF41" s="11">
-        <v>0</v>
+      <c r="AF41" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG41" s="11">
         <v>0</v>
       </c>
-      <c r="AH41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN41" s="11" t="s">
-        <v>58</v>
+      <c r="AH41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="11">
+        <v>0</v>
       </c>
       <c r="AO41" s="11">
         <v>0</v>
       </c>
-      <c r="AP41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ41" s="11" t="s">
-        <v>58</v>
+      <c r="AP41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="11">
+        <v>0</v>
       </c>
       <c r="AR41" s="11">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -5737,71 +5737,71 @@
       <c r="AG42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI42" s="13" t="s">
-        <v>58</v>
+      <c r="AH42" s="13">
+        <v>500</v>
+      </c>
+      <c r="AI42" s="13">
+        <v>25</v>
       </c>
       <c r="AJ42" s="13">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="13">
         <v>25</v>
       </c>
-      <c r="AL42" s="13" t="s">
-        <v>58</v>
+      <c r="AL42" s="13">
+        <v>0</v>
       </c>
       <c r="AM42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="13">
+        <v>100</v>
+      </c>
+      <c r="AO42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="13">
         <v>25</v>
       </c>
-      <c r="AN42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP42" s="13">
-        <v>100</v>
-      </c>
       <c r="AQ42" s="13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AR42" s="13">
+        <v>150</v>
+      </c>
+      <c r="AS42" s="13">
+        <v>1425</v>
+      </c>
+      <c r="AT42" s="13">
         <v>25</v>
       </c>
-      <c r="AS42" s="13">
+      <c r="AU42" s="13">
+        <v>25</v>
+      </c>
+      <c r="AV42" s="13">
+        <v>75</v>
+      </c>
+      <c r="AW42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX42" s="13">
+        <v>25</v>
+      </c>
+      <c r="AY42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ42" s="13">
+        <v>200</v>
+      </c>
+      <c r="BA42" s="13">
         <v>50</v>
       </c>
-      <c r="AT42" s="13">
-        <v>150</v>
-      </c>
-      <c r="AU42" s="13">
-        <v>1425</v>
-      </c>
-      <c r="AV42" s="13">
-        <v>25</v>
-      </c>
-      <c r="AW42" s="13">
-        <v>25</v>
-      </c>
-      <c r="AX42" s="13">
-        <v>75</v>
-      </c>
-      <c r="AY42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ42" s="13">
-        <v>25</v>
-      </c>
-      <c r="BA42" s="13">
-        <v>0</v>
-      </c>
       <c r="BB42" s="13">
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>64</v>
       </c>
@@ -5938,14 +5938,14 @@
       <c r="AU43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW43" s="11" t="s">
-        <v>58</v>
+      <c r="AV43" s="11">
+        <v>439</v>
+      </c>
+      <c r="AW43" s="11">
+        <v>0</v>
       </c>
       <c r="AX43" s="11">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="AY43" s="11">
         <v>0</v>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>74</v>
       </c>
@@ -6012,112 +6012,112 @@
         <v>0</v>
       </c>
       <c r="T44" s="15">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="U44" s="15">
-        <v>0</v>
+        <v>861</v>
       </c>
       <c r="V44" s="15">
-        <v>0</v>
+        <v>4769</v>
       </c>
       <c r="W44" s="15">
-        <v>0</v>
+        <v>902</v>
       </c>
       <c r="X44" s="15">
-        <v>0</v>
+        <v>2443</v>
       </c>
       <c r="Y44" s="15">
-        <v>902</v>
+        <v>6601</v>
       </c>
       <c r="Z44" s="15">
-        <v>2443</v>
+        <v>2588</v>
       </c>
       <c r="AA44" s="15">
-        <v>6601</v>
+        <v>3893</v>
       </c>
       <c r="AB44" s="15">
-        <v>2588</v>
+        <v>180</v>
       </c>
       <c r="AC44" s="15">
-        <v>3893</v>
+        <v>2288</v>
       </c>
       <c r="AD44" s="15">
-        <v>180</v>
+        <v>1833</v>
       </c>
       <c r="AE44" s="15">
-        <v>2288</v>
+        <v>240</v>
       </c>
       <c r="AF44" s="15">
-        <v>1833</v>
+        <v>145</v>
       </c>
       <c r="AG44" s="15">
-        <v>240</v>
+        <v>1254</v>
       </c>
       <c r="AH44" s="15">
-        <v>145</v>
+        <v>4614</v>
       </c>
       <c r="AI44" s="15">
-        <v>1254</v>
+        <v>3150</v>
       </c>
       <c r="AJ44" s="15">
-        <v>4614</v>
+        <v>2713</v>
       </c>
       <c r="AK44" s="15">
-        <v>3150</v>
+        <v>4971</v>
       </c>
       <c r="AL44" s="15">
-        <v>2713</v>
+        <v>874</v>
       </c>
       <c r="AM44" s="15">
-        <v>4971</v>
+        <v>1018</v>
       </c>
       <c r="AN44" s="15">
-        <v>874</v>
+        <v>2115</v>
       </c>
       <c r="AO44" s="15">
-        <v>1018</v>
+        <v>1940</v>
       </c>
       <c r="AP44" s="15">
-        <v>2115</v>
+        <v>1434</v>
       </c>
       <c r="AQ44" s="15">
-        <v>1940</v>
+        <v>1670</v>
       </c>
       <c r="AR44" s="15">
-        <v>1434</v>
+        <v>1149</v>
       </c>
       <c r="AS44" s="15">
-        <v>1670</v>
+        <v>2574</v>
       </c>
       <c r="AT44" s="15">
-        <v>1149</v>
+        <v>4449</v>
       </c>
       <c r="AU44" s="15">
-        <v>2574</v>
+        <v>5675</v>
       </c>
       <c r="AV44" s="15">
-        <v>4449</v>
+        <v>3636</v>
       </c>
       <c r="AW44" s="15">
-        <v>5675</v>
+        <v>1675</v>
       </c>
       <c r="AX44" s="15">
-        <v>3636</v>
+        <v>3325</v>
       </c>
       <c r="AY44" s="15">
-        <v>1675</v>
+        <v>3099</v>
       </c>
       <c r="AZ44" s="15">
-        <v>3325</v>
+        <v>3371</v>
       </c>
       <c r="BA44" s="15">
-        <v>3099</v>
+        <v>3543</v>
       </c>
       <c r="BB44" s="15">
-        <v>3371</v>
+        <v>4391</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>75</v>
       </c>
@@ -6174,7 +6174,7 @@
       <c r="BA45" s="9"/>
       <c r="BB45" s="9"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>56</v>
       </c>
@@ -6227,20 +6227,20 @@
       <c r="S46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X46" s="11" t="s">
-        <v>58</v>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+      <c r="X46" s="11">
+        <v>0</v>
       </c>
       <c r="Y46" s="11">
         <v>0</v>
@@ -6272,38 +6272,38 @@
       <c r="AH46" s="11">
         <v>0</v>
       </c>
-      <c r="AI46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR46" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS46" s="11">
-        <v>0</v>
+      <c r="AI46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS46" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT46" s="11" t="s">
         <v>58</v>
@@ -6333,7 +6333,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>60</v>
       </c>
@@ -6386,113 +6386,113 @@
       <c r="S47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X47" s="13" t="s">
-        <v>58</v>
+      <c r="T47" s="13">
+        <v>94</v>
+      </c>
+      <c r="U47" s="13">
+        <v>2061</v>
+      </c>
+      <c r="V47" s="13">
+        <v>2000</v>
+      </c>
+      <c r="W47" s="13">
+        <v>2902</v>
+      </c>
+      <c r="X47" s="13">
+        <v>98</v>
       </c>
       <c r="Y47" s="13">
-        <v>2902</v>
+        <v>1001</v>
       </c>
       <c r="Z47" s="13">
-        <v>98</v>
+        <v>3664</v>
       </c>
       <c r="AA47" s="13">
-        <v>1001</v>
+        <v>685</v>
       </c>
       <c r="AB47" s="13">
+        <v>4000</v>
+      </c>
+      <c r="AC47" s="13">
+        <v>52</v>
+      </c>
+      <c r="AD47" s="13">
+        <v>2001</v>
+      </c>
+      <c r="AE47" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="13">
+        <v>4278</v>
+      </c>
+      <c r="AH47" s="13">
+        <v>2355</v>
+      </c>
+      <c r="AI47" s="13">
+        <v>1333</v>
+      </c>
+      <c r="AJ47" s="13">
+        <v>2329</v>
+      </c>
+      <c r="AK47" s="13">
+        <v>2199</v>
+      </c>
+      <c r="AL47" s="13">
+        <v>1726</v>
+      </c>
+      <c r="AM47" s="13">
+        <v>1633</v>
+      </c>
+      <c r="AN47" s="13">
+        <v>2938</v>
+      </c>
+      <c r="AO47" s="13">
+        <v>1199</v>
+      </c>
+      <c r="AP47" s="13">
         <v>3664</v>
       </c>
-      <c r="AC47" s="13">
-        <v>685</v>
-      </c>
-      <c r="AD47" s="13">
-        <v>4000</v>
-      </c>
-      <c r="AE47" s="13">
-        <v>52</v>
-      </c>
-      <c r="AF47" s="13">
-        <v>2001</v>
-      </c>
-      <c r="AG47" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="13">
-        <v>4278</v>
-      </c>
-      <c r="AJ47" s="13">
-        <v>2355</v>
-      </c>
-      <c r="AK47" s="13">
-        <v>1333</v>
-      </c>
-      <c r="AL47" s="13">
-        <v>2329</v>
-      </c>
-      <c r="AM47" s="13">
-        <v>2199</v>
-      </c>
-      <c r="AN47" s="13">
-        <v>1726</v>
-      </c>
-      <c r="AO47" s="13">
-        <v>1633</v>
-      </c>
-      <c r="AP47" s="13">
-        <v>2938</v>
-      </c>
       <c r="AQ47" s="13">
-        <v>1199</v>
+        <v>5255</v>
       </c>
       <c r="AR47" s="13">
-        <v>3610</v>
+        <v>0</v>
       </c>
       <c r="AS47" s="13">
-        <v>5255</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="13">
-        <v>0</v>
+        <v>6262</v>
       </c>
       <c r="AU47" s="13">
         <v>0</v>
       </c>
       <c r="AV47" s="13">
-        <v>6262</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="13">
-        <v>0</v>
+        <v>2795</v>
       </c>
       <c r="AX47" s="13">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="AY47" s="13">
-        <v>2795</v>
+        <v>0</v>
       </c>
       <c r="AZ47" s="13">
-        <v>597</v>
+        <v>10220</v>
       </c>
       <c r="BA47" s="13">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="BB47" s="13">
-        <v>10220</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>62</v>
       </c>
@@ -6617,11 +6617,11 @@
       <c r="AQ48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR48" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS48" s="11" t="s">
-        <v>58</v>
+      <c r="AR48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="11">
+        <v>0</v>
       </c>
       <c r="AT48" s="11">
         <v>0</v>
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>76</v>
       </c>
@@ -6703,112 +6703,112 @@
         <v>0</v>
       </c>
       <c r="T49" s="15">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="U49" s="15">
-        <v>0</v>
+        <v>2061</v>
       </c>
       <c r="V49" s="15">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="W49" s="15">
-        <v>0</v>
+        <v>2902</v>
       </c>
       <c r="X49" s="15">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="Y49" s="15">
-        <v>2902</v>
+        <v>1001</v>
       </c>
       <c r="Z49" s="15">
-        <v>98</v>
+        <v>3664</v>
       </c>
       <c r="AA49" s="15">
-        <v>1001</v>
+        <v>685</v>
       </c>
       <c r="AB49" s="15">
+        <v>4000</v>
+      </c>
+      <c r="AC49" s="15">
+        <v>52</v>
+      </c>
+      <c r="AD49" s="15">
+        <v>2001</v>
+      </c>
+      <c r="AE49" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="15">
+        <v>4278</v>
+      </c>
+      <c r="AH49" s="15">
+        <v>2355</v>
+      </c>
+      <c r="AI49" s="15">
+        <v>1333</v>
+      </c>
+      <c r="AJ49" s="15">
+        <v>2329</v>
+      </c>
+      <c r="AK49" s="15">
+        <v>2199</v>
+      </c>
+      <c r="AL49" s="15">
+        <v>1726</v>
+      </c>
+      <c r="AM49" s="15">
+        <v>1633</v>
+      </c>
+      <c r="AN49" s="15">
+        <v>2938</v>
+      </c>
+      <c r="AO49" s="15">
+        <v>1199</v>
+      </c>
+      <c r="AP49" s="15">
         <v>3664</v>
       </c>
-      <c r="AC49" s="15">
-        <v>685</v>
-      </c>
-      <c r="AD49" s="15">
-        <v>4000</v>
-      </c>
-      <c r="AE49" s="15">
-        <v>52</v>
-      </c>
-      <c r="AF49" s="15">
-        <v>2001</v>
-      </c>
-      <c r="AG49" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="15">
-        <v>4278</v>
-      </c>
-      <c r="AJ49" s="15">
-        <v>2355</v>
-      </c>
-      <c r="AK49" s="15">
-        <v>1333</v>
-      </c>
-      <c r="AL49" s="15">
-        <v>2329</v>
-      </c>
-      <c r="AM49" s="15">
-        <v>2199</v>
-      </c>
-      <c r="AN49" s="15">
-        <v>1726</v>
-      </c>
-      <c r="AO49" s="15">
-        <v>1633</v>
-      </c>
-      <c r="AP49" s="15">
-        <v>2938</v>
-      </c>
       <c r="AQ49" s="15">
-        <v>1199</v>
+        <v>5255</v>
       </c>
       <c r="AR49" s="15">
-        <v>3610</v>
+        <v>0</v>
       </c>
       <c r="AS49" s="15">
-        <v>5255</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="15">
-        <v>0</v>
+        <v>6262</v>
       </c>
       <c r="AU49" s="15">
         <v>0</v>
       </c>
       <c r="AV49" s="15">
-        <v>6262</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="15">
-        <v>0</v>
+        <v>2795</v>
       </c>
       <c r="AX49" s="15">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="15">
-        <v>2795</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="15">
-        <v>597</v>
+        <v>10220</v>
       </c>
       <c r="BA49" s="15">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="15">
-        <v>10220</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>68</v>
       </c>
@@ -6865,7 +6865,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>56</v>
       </c>
@@ -6954,14 +6954,14 @@
       <c r="AE51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF51" s="11" t="s">
-        <v>58</v>
+      <c r="AF51" s="11">
+        <v>0</v>
       </c>
       <c r="AG51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH51" s="11">
-        <v>0</v>
+      <c r="AH51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI51" s="11" t="s">
         <v>58</v>
@@ -6990,8 +6990,8 @@
       <c r="AQ51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR51" s="11">
-        <v>0</v>
+      <c r="AR51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS51" s="11" t="s">
         <v>58</v>
@@ -7002,29 +7002,29 @@
       <c r="AU51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV51" s="11">
-        <v>0</v>
+      <c r="AV51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX51" s="11">
-        <v>0</v>
+      <c r="AX51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ51" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA51" s="11">
-        <v>0</v>
+      <c r="AZ51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB51" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>59</v>
       </c>
@@ -7077,20 +7077,20 @@
       <c r="S52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X52" s="13" t="s">
-        <v>58</v>
+      <c r="T52" s="13">
+        <v>0</v>
+      </c>
+      <c r="U52" s="13">
+        <v>0</v>
+      </c>
+      <c r="V52" s="13">
+        <v>0</v>
+      </c>
+      <c r="W52" s="13">
+        <v>0</v>
+      </c>
+      <c r="X52" s="13">
+        <v>0</v>
       </c>
       <c r="Y52" s="13">
         <v>0</v>
@@ -7113,11 +7113,11 @@
       <c r="AE52" s="13">
         <v>0</v>
       </c>
-      <c r="AF52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="13">
-        <v>0</v>
+      <c r="AF52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH52" s="13" t="s">
         <v>58</v>
@@ -7183,7 +7183,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>61</v>
       </c>
@@ -7236,80 +7236,80 @@
       <c r="S53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>58</v>
+      <c r="T53" s="11">
+        <v>0</v>
+      </c>
+      <c r="U53" s="11">
+        <v>0</v>
+      </c>
+      <c r="V53" s="11">
+        <v>1941</v>
+      </c>
+      <c r="W53" s="11">
+        <v>0</v>
+      </c>
+      <c r="X53" s="11">
+        <v>1119</v>
       </c>
       <c r="Y53" s="11">
         <v>0</v>
       </c>
       <c r="Z53" s="11">
-        <v>1119</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="11">
         <v>0</v>
       </c>
       <c r="AB53" s="11">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="AC53" s="11">
         <v>0</v>
       </c>
       <c r="AD53" s="11">
-        <v>1187</v>
+        <v>1794</v>
       </c>
       <c r="AE53" s="11">
         <v>0</v>
       </c>
       <c r="AF53" s="11">
-        <v>1794</v>
-      </c>
-      <c r="AG53" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH53" s="11">
-        <v>0</v>
+        <v>2980</v>
       </c>
       <c r="AI53" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AJ53" s="11">
-        <v>2980</v>
-      </c>
-      <c r="AK53" s="11" t="s">
-        <v>58</v>
+        <v>1234</v>
+      </c>
+      <c r="AK53" s="11">
+        <v>2194</v>
       </c>
       <c r="AL53" s="11">
-        <v>1234</v>
+        <v>3142</v>
       </c>
       <c r="AM53" s="11">
-        <v>2194</v>
-      </c>
-      <c r="AN53" s="11">
-        <v>3142</v>
+        <v>2642</v>
+      </c>
+      <c r="AN53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO53" s="11">
-        <v>2642</v>
-      </c>
-      <c r="AP53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR53" s="11">
-        <v>5897</v>
+        <v>0</v>
+      </c>
+      <c r="AP53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS53" s="11" t="s">
         <v>58</v>
@@ -7317,32 +7317,32 @@
       <c r="AT53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW53" s="11">
+      <c r="AU53" s="11">
         <v>718</v>
       </c>
-      <c r="AX53" s="11">
-        <v>0</v>
+      <c r="AV53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ53" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA53" s="11">
-        <v>0</v>
+      <c r="AZ53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB53" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>69</v>
       </c>
@@ -7479,29 +7479,29 @@
       <c r="AU54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV54" s="13">
-        <v>0</v>
+      <c r="AV54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX54" s="13">
-        <v>0</v>
+      <c r="AX54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ54" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA54" s="13">
-        <v>0</v>
+      <c r="AZ54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB54" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>70</v>
       </c>
@@ -7552,71 +7552,71 @@
       <c r="S55" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="T55" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="U55" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="V55" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="W55" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X55" s="17" t="s">
-        <v>58</v>
+      <c r="T55" s="17">
+        <v>0</v>
+      </c>
+      <c r="U55" s="17">
+        <v>0</v>
+      </c>
+      <c r="V55" s="17">
+        <v>1941</v>
+      </c>
+      <c r="W55" s="17">
+        <v>0</v>
+      </c>
+      <c r="X55" s="17">
+        <v>1119</v>
       </c>
       <c r="Y55" s="17">
         <v>0</v>
       </c>
       <c r="Z55" s="17">
-        <v>1119</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="17">
         <v>0</v>
       </c>
       <c r="AB55" s="17">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="AC55" s="17">
         <v>0</v>
       </c>
       <c r="AD55" s="17">
-        <v>1187</v>
+        <v>1794</v>
       </c>
       <c r="AE55" s="17">
         <v>0</v>
       </c>
       <c r="AF55" s="17">
-        <v>1794</v>
+        <v>0</v>
       </c>
       <c r="AG55" s="17">
         <v>0</v>
       </c>
       <c r="AH55" s="17">
-        <v>0</v>
+        <v>2980</v>
       </c>
       <c r="AI55" s="17">
         <v>0</v>
       </c>
       <c r="AJ55" s="17">
-        <v>2980</v>
+        <v>1234</v>
       </c>
       <c r="AK55" s="17">
-        <v>0</v>
+        <v>2194</v>
       </c>
       <c r="AL55" s="17">
-        <v>1234</v>
+        <v>3142</v>
       </c>
       <c r="AM55" s="17">
-        <v>2194</v>
+        <v>2642</v>
       </c>
       <c r="AN55" s="17">
-        <v>3142</v>
+        <v>0</v>
       </c>
       <c r="AO55" s="17">
-        <v>2642</v>
+        <v>0</v>
       </c>
       <c r="AP55" s="17">
         <v>0</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="AR55" s="17">
-        <v>5897</v>
+        <v>0</v>
       </c>
       <c r="AS55" s="17">
         <v>0</v>
@@ -7634,13 +7634,13 @@
         <v>0</v>
       </c>
       <c r="AU55" s="17">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="AV55" s="17">
         <v>0</v>
       </c>
       <c r="AW55" s="17">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="AX55" s="17">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="18" t="s">
         <v>77</v>
       </c>
@@ -7715,7 +7715,7 @@
       <c r="BA56" s="19"/>
       <c r="BB56" s="19"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
         <v>78</v>
       </c>
@@ -7766,20 +7766,20 @@
       <c r="S57" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="T57" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="U57" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="V57" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="W57" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X57" s="17" t="s">
-        <v>58</v>
+      <c r="T57" s="17">
+        <v>0</v>
+      </c>
+      <c r="U57" s="17">
+        <v>0</v>
+      </c>
+      <c r="V57" s="17">
+        <v>0</v>
+      </c>
+      <c r="W57" s="17">
+        <v>0</v>
+      </c>
+      <c r="X57" s="17">
+        <v>0</v>
       </c>
       <c r="Y57" s="17">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
         <v>71</v>
       </c>
@@ -7924,112 +7924,112 @@
         <v>0</v>
       </c>
       <c r="T58" s="15">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="U58" s="15">
-        <v>0</v>
+        <v>2922</v>
       </c>
       <c r="V58" s="15">
-        <v>0</v>
+        <v>8710</v>
       </c>
       <c r="W58" s="15">
-        <v>0</v>
+        <v>3804</v>
       </c>
       <c r="X58" s="15">
-        <v>0</v>
+        <v>3660</v>
       </c>
       <c r="Y58" s="15">
-        <v>3804</v>
+        <v>7602</v>
       </c>
       <c r="Z58" s="15">
-        <v>3660</v>
+        <v>6252</v>
       </c>
       <c r="AA58" s="15">
-        <v>7602</v>
+        <v>4578</v>
       </c>
       <c r="AB58" s="15">
-        <v>6252</v>
+        <v>5367</v>
       </c>
       <c r="AC58" s="15">
-        <v>4578</v>
+        <v>2340</v>
       </c>
       <c r="AD58" s="15">
-        <v>5367</v>
+        <v>5628</v>
       </c>
       <c r="AE58" s="15">
-        <v>2340</v>
+        <v>240</v>
       </c>
       <c r="AF58" s="15">
-        <v>5628</v>
+        <v>145</v>
       </c>
       <c r="AG58" s="15">
-        <v>240</v>
+        <v>5532</v>
       </c>
       <c r="AH58" s="15">
-        <v>145</v>
+        <v>9949</v>
       </c>
       <c r="AI58" s="15">
-        <v>5532</v>
+        <v>4483</v>
       </c>
       <c r="AJ58" s="15">
-        <v>9949</v>
+        <v>6276</v>
       </c>
       <c r="AK58" s="15">
-        <v>4483</v>
+        <v>9364</v>
       </c>
       <c r="AL58" s="15">
-        <v>6276</v>
+        <v>5742</v>
       </c>
       <c r="AM58" s="15">
-        <v>9364</v>
+        <v>5293</v>
       </c>
       <c r="AN58" s="15">
-        <v>5742</v>
+        <v>5053</v>
       </c>
       <c r="AO58" s="15">
-        <v>5293</v>
+        <v>3139</v>
       </c>
       <c r="AP58" s="15">
-        <v>5053</v>
+        <v>5098</v>
       </c>
       <c r="AQ58" s="15">
-        <v>3139</v>
+        <v>6925</v>
       </c>
       <c r="AR58" s="15">
-        <v>10941</v>
+        <v>1149</v>
       </c>
       <c r="AS58" s="15">
-        <v>6925</v>
+        <v>2574</v>
       </c>
       <c r="AT58" s="15">
-        <v>1149</v>
+        <v>10711</v>
       </c>
       <c r="AU58" s="15">
-        <v>2574</v>
+        <v>6393</v>
       </c>
       <c r="AV58" s="15">
-        <v>10711</v>
+        <v>3636</v>
       </c>
       <c r="AW58" s="15">
-        <v>6393</v>
+        <v>4470</v>
       </c>
       <c r="AX58" s="15">
-        <v>4233</v>
+        <v>3325</v>
       </c>
       <c r="AY58" s="15">
-        <v>4470</v>
+        <v>3099</v>
       </c>
       <c r="AZ58" s="15">
-        <v>3922</v>
+        <v>13591</v>
       </c>
       <c r="BA58" s="15">
-        <v>3696</v>
+        <v>3543</v>
       </c>
       <c r="BB58" s="15">
-        <v>13591</v>
+        <v>4391</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -8084,7 +8084,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8139,7 +8139,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -8194,7 +8194,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>79</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -8406,7 +8406,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>80</v>
       </c>
@@ -8463,7 +8463,7 @@
       <c r="BA64" s="9"/>
       <c r="BB64" s="9"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>56</v>
       </c>
@@ -8516,113 +8516,113 @@
       <c r="S65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X65" s="11" t="s">
-        <v>58</v>
+      <c r="T65" s="11">
+        <v>13754</v>
+      </c>
+      <c r="U65" s="11">
+        <v>56779</v>
+      </c>
+      <c r="V65" s="11">
+        <v>33730</v>
+      </c>
+      <c r="W65" s="11">
+        <v>43867</v>
+      </c>
+      <c r="X65" s="11">
+        <v>25753</v>
       </c>
       <c r="Y65" s="11">
-        <v>43867</v>
+        <v>57358</v>
       </c>
       <c r="Z65" s="11">
-        <v>25753</v>
+        <v>50558</v>
       </c>
       <c r="AA65" s="11">
-        <v>57358</v>
+        <v>64396</v>
       </c>
       <c r="AB65" s="11">
-        <v>50558</v>
+        <v>88119</v>
       </c>
       <c r="AC65" s="11">
-        <v>64396</v>
+        <v>68728</v>
       </c>
       <c r="AD65" s="11">
-        <v>88119</v>
+        <v>71452</v>
       </c>
       <c r="AE65" s="11">
-        <v>68728</v>
+        <v>14733</v>
       </c>
       <c r="AF65" s="11">
-        <v>71452</v>
+        <v>4751</v>
       </c>
       <c r="AG65" s="11">
-        <v>14733</v>
+        <v>23232</v>
       </c>
       <c r="AH65" s="11">
-        <v>4751</v>
+        <v>3373</v>
       </c>
       <c r="AI65" s="11">
-        <v>23232</v>
+        <v>11890</v>
       </c>
       <c r="AJ65" s="11">
-        <v>3373</v>
+        <v>12740</v>
       </c>
       <c r="AK65" s="11">
-        <v>11890</v>
+        <v>2130</v>
       </c>
       <c r="AL65" s="11">
-        <v>12740</v>
+        <v>0</v>
       </c>
       <c r="AM65" s="11">
-        <v>2130</v>
+        <v>3029</v>
       </c>
       <c r="AN65" s="11">
-        <v>0</v>
+        <v>5668</v>
       </c>
       <c r="AO65" s="11">
-        <v>3029</v>
+        <v>3096</v>
       </c>
       <c r="AP65" s="11">
-        <v>5668</v>
+        <v>7587</v>
       </c>
       <c r="AQ65" s="11">
-        <v>3096</v>
+        <v>3841</v>
       </c>
       <c r="AR65" s="11">
-        <v>7587</v>
+        <v>0</v>
       </c>
       <c r="AS65" s="11">
-        <v>3841</v>
+        <v>13487</v>
       </c>
       <c r="AT65" s="11">
-        <v>0</v>
+        <v>4858</v>
       </c>
       <c r="AU65" s="11">
-        <v>13487</v>
+        <v>6609</v>
       </c>
       <c r="AV65" s="11">
-        <v>4858</v>
+        <v>10703</v>
       </c>
       <c r="AW65" s="11">
-        <v>6609</v>
+        <v>16255</v>
       </c>
       <c r="AX65" s="11">
-        <v>-32380</v>
+        <v>5905</v>
       </c>
       <c r="AY65" s="11">
-        <v>16255</v>
+        <v>6430</v>
       </c>
       <c r="AZ65" s="11">
-        <v>-37178</v>
+        <v>1237</v>
       </c>
       <c r="BA65" s="11">
-        <v>-36653</v>
+        <v>8462</v>
       </c>
       <c r="BB65" s="11">
-        <v>1237</v>
+        <v>6396</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>59</v>
       </c>
@@ -8675,77 +8675,77 @@
       <c r="S66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X66" s="13" t="s">
-        <v>58</v>
+      <c r="T66" s="13">
+        <v>0</v>
+      </c>
+      <c r="U66" s="13">
+        <v>0</v>
+      </c>
+      <c r="V66" s="13">
+        <v>0</v>
+      </c>
+      <c r="W66" s="13">
+        <v>52199</v>
+      </c>
+      <c r="X66" s="13">
+        <v>150669</v>
       </c>
       <c r="Y66" s="13">
-        <v>52199</v>
+        <v>209481</v>
       </c>
       <c r="Z66" s="13">
-        <v>150669</v>
+        <v>231043</v>
       </c>
       <c r="AA66" s="13">
-        <v>209481</v>
+        <v>227905</v>
       </c>
       <c r="AB66" s="13">
-        <v>231043</v>
+        <v>48453</v>
       </c>
       <c r="AC66" s="13">
-        <v>227905</v>
+        <v>163036</v>
       </c>
       <c r="AD66" s="13">
-        <v>48453</v>
+        <v>15575</v>
       </c>
       <c r="AE66" s="13">
-        <v>163036</v>
+        <v>0</v>
       </c>
       <c r="AF66" s="13">
-        <v>15575</v>
+        <v>0</v>
       </c>
       <c r="AG66" s="13">
-        <v>0</v>
+        <v>228075</v>
       </c>
       <c r="AH66" s="13">
-        <v>0</v>
+        <v>290662</v>
       </c>
       <c r="AI66" s="13">
-        <v>228075</v>
+        <v>201548</v>
       </c>
       <c r="AJ66" s="13">
-        <v>290662</v>
+        <v>71928</v>
       </c>
       <c r="AK66" s="13">
-        <v>201548</v>
+        <v>243294</v>
       </c>
       <c r="AL66" s="13">
-        <v>71928</v>
+        <v>153563</v>
       </c>
       <c r="AM66" s="13">
-        <v>243294</v>
+        <v>111071</v>
       </c>
       <c r="AN66" s="13">
-        <v>153563</v>
+        <v>74240</v>
       </c>
       <c r="AO66" s="13">
-        <v>111071</v>
+        <v>49945</v>
       </c>
       <c r="AP66" s="13">
-        <v>74240</v>
+        <v>0</v>
       </c>
       <c r="AQ66" s="13">
-        <v>49945</v>
+        <v>0</v>
       </c>
       <c r="AR66" s="13">
         <v>0</v>
@@ -8757,13 +8757,13 @@
         <v>0</v>
       </c>
       <c r="AU66" s="13">
-        <v>0</v>
+        <v>750227</v>
       </c>
       <c r="AV66" s="13">
         <v>0</v>
       </c>
       <c r="AW66" s="13">
-        <v>750227</v>
+        <v>0</v>
       </c>
       <c r="AX66" s="13">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>60</v>
       </c>
@@ -8834,113 +8834,113 @@
       <c r="S67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X67" s="11" t="s">
-        <v>58</v>
+      <c r="T67" s="11">
+        <v>92846</v>
+      </c>
+      <c r="U67" s="11">
+        <v>226091</v>
+      </c>
+      <c r="V67" s="11">
+        <v>149925</v>
+      </c>
+      <c r="W67" s="11">
+        <v>98123</v>
+      </c>
+      <c r="X67" s="11">
+        <v>264189</v>
       </c>
       <c r="Y67" s="11">
-        <v>98123</v>
+        <v>1795987</v>
       </c>
       <c r="Z67" s="11">
-        <v>264189</v>
+        <v>868101</v>
       </c>
       <c r="AA67" s="11">
-        <v>1795987</v>
+        <v>53000</v>
       </c>
       <c r="AB67" s="11">
-        <v>868101</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="11">
-        <v>53000</v>
+        <v>0</v>
       </c>
       <c r="AD67" s="11">
-        <v>0</v>
+        <v>709934</v>
       </c>
       <c r="AE67" s="11">
-        <v>0</v>
+        <v>147940</v>
       </c>
       <c r="AF67" s="11">
-        <v>709934</v>
+        <v>85325</v>
       </c>
       <c r="AG67" s="11">
-        <v>147940</v>
+        <v>0</v>
       </c>
       <c r="AH67" s="11">
-        <v>85325</v>
+        <v>651598</v>
       </c>
       <c r="AI67" s="11">
-        <v>0</v>
+        <v>267339</v>
       </c>
       <c r="AJ67" s="11">
-        <v>651598</v>
+        <v>162537</v>
       </c>
       <c r="AK67" s="11">
-        <v>267339</v>
+        <v>128445</v>
       </c>
       <c r="AL67" s="11">
-        <v>162537</v>
+        <v>267128</v>
       </c>
       <c r="AM67" s="11">
-        <v>128445</v>
+        <v>517788</v>
       </c>
       <c r="AN67" s="11">
-        <v>267128</v>
+        <v>1355482</v>
       </c>
       <c r="AO67" s="11">
-        <v>517788</v>
+        <v>1483592</v>
       </c>
       <c r="AP67" s="11">
-        <v>1355482</v>
+        <v>1244355</v>
       </c>
       <c r="AQ67" s="11">
-        <v>1483592</v>
+        <v>1439145</v>
       </c>
       <c r="AR67" s="11">
-        <v>1244355</v>
+        <v>1030589</v>
       </c>
       <c r="AS67" s="11">
-        <v>1439145</v>
+        <v>1086915</v>
       </c>
       <c r="AT67" s="11">
-        <v>1030589</v>
+        <v>4073478</v>
       </c>
       <c r="AU67" s="11">
-        <v>1086915</v>
+        <v>2671952</v>
       </c>
       <c r="AV67" s="11">
-        <v>4073478</v>
+        <v>2571805</v>
       </c>
       <c r="AW67" s="11">
-        <v>2671952</v>
+        <v>1451729</v>
       </c>
       <c r="AX67" s="11">
-        <v>2571805</v>
+        <v>2626454</v>
       </c>
       <c r="AY67" s="11">
-        <v>1451729</v>
+        <v>2473428</v>
       </c>
       <c r="AZ67" s="11">
-        <v>2626454</v>
+        <v>2917878</v>
       </c>
       <c r="BA67" s="11">
-        <v>2473428</v>
+        <v>1795118</v>
       </c>
       <c r="BB67" s="11">
-        <v>2917878</v>
+        <v>4622504</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>61</v>
       </c>
@@ -8993,65 +8993,65 @@
       <c r="S68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X68" s="13" t="s">
-        <v>58</v>
+      <c r="T68" s="13">
+        <v>0</v>
+      </c>
+      <c r="U68" s="13">
+        <v>0</v>
+      </c>
+      <c r="V68" s="13">
+        <v>125806</v>
+      </c>
+      <c r="W68" s="13">
+        <v>0</v>
+      </c>
+      <c r="X68" s="13">
+        <v>30759</v>
       </c>
       <c r="Y68" s="13">
-        <v>0</v>
+        <v>58764</v>
       </c>
       <c r="Z68" s="13">
-        <v>30759</v>
+        <v>0</v>
       </c>
       <c r="AA68" s="13">
-        <v>58764</v>
+        <v>131096</v>
       </c>
       <c r="AB68" s="13">
         <v>0</v>
       </c>
       <c r="AC68" s="13">
-        <v>131096</v>
+        <v>125506</v>
       </c>
       <c r="AD68" s="13">
-        <v>0</v>
+        <v>34544</v>
       </c>
       <c r="AE68" s="13">
-        <v>125506</v>
+        <v>0</v>
       </c>
       <c r="AF68" s="13">
-        <v>34544</v>
+        <v>0</v>
       </c>
       <c r="AG68" s="13">
-        <v>0</v>
+        <v>31657</v>
       </c>
       <c r="AH68" s="13">
-        <v>0</v>
+        <v>190777</v>
       </c>
       <c r="AI68" s="13">
-        <v>31657</v>
+        <v>153208</v>
       </c>
       <c r="AJ68" s="13">
-        <v>190777</v>
+        <v>241544</v>
       </c>
       <c r="AK68" s="13">
-        <v>153208</v>
+        <v>316234</v>
       </c>
       <c r="AL68" s="13">
-        <v>241544</v>
+        <v>0</v>
       </c>
       <c r="AM68" s="13">
-        <v>316234</v>
+        <v>0</v>
       </c>
       <c r="AN68" s="13">
         <v>0</v>
@@ -9066,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="AR68" s="13">
-        <v>21892</v>
+        <v>0</v>
       </c>
       <c r="AS68" s="13">
         <v>0</v>
@@ -9093,13 +9093,13 @@
         <v>0</v>
       </c>
       <c r="BA68" s="13">
-        <v>0</v>
+        <v>164297</v>
       </c>
       <c r="BB68" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>62</v>
       </c>
@@ -9164,11 +9164,11 @@
       <c r="W69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y69" s="11" t="s">
-        <v>58</v>
+      <c r="X69" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="11">
+        <v>0</v>
       </c>
       <c r="Z69" s="11">
         <v>0</v>
@@ -9188,14 +9188,14 @@
       <c r="AE69" s="11">
         <v>0</v>
       </c>
-      <c r="AF69" s="11">
-        <v>0</v>
+      <c r="AF69" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG69" s="11">
         <v>0</v>
       </c>
-      <c r="AH69" s="11" t="s">
-        <v>58</v>
+      <c r="AH69" s="11">
+        <v>0</v>
       </c>
       <c r="AI69" s="11">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>63</v>
       </c>
@@ -9353,71 +9353,71 @@
       <c r="AG70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI70" s="13" t="s">
-        <v>58</v>
+      <c r="AH70" s="13">
+        <v>256500</v>
+      </c>
+      <c r="AI70" s="13">
+        <v>14825</v>
       </c>
       <c r="AJ70" s="13">
-        <v>256500</v>
+        <v>0</v>
       </c>
       <c r="AK70" s="13">
-        <v>14825</v>
+        <v>16760</v>
       </c>
       <c r="AL70" s="13">
         <v>0</v>
       </c>
       <c r="AM70" s="13">
-        <v>16760</v>
+        <v>0</v>
       </c>
       <c r="AN70" s="13">
-        <v>0</v>
+        <v>67777</v>
       </c>
       <c r="AO70" s="13">
         <v>0</v>
       </c>
       <c r="AP70" s="13">
-        <v>67777</v>
+        <v>17713</v>
       </c>
       <c r="AQ70" s="13">
-        <v>0</v>
+        <v>29668</v>
       </c>
       <c r="AR70" s="13">
-        <v>17713</v>
+        <v>89453</v>
       </c>
       <c r="AS70" s="13">
-        <v>29668</v>
+        <v>929778</v>
       </c>
       <c r="AT70" s="13">
-        <v>89453</v>
+        <v>16335</v>
       </c>
       <c r="AU70" s="13">
-        <v>929778</v>
+        <v>17750</v>
       </c>
       <c r="AV70" s="13">
-        <v>16335</v>
+        <v>52741</v>
       </c>
       <c r="AW70" s="13">
-        <v>17750</v>
+        <v>0</v>
       </c>
       <c r="AX70" s="13">
-        <v>52741</v>
+        <v>18060</v>
       </c>
       <c r="AY70" s="13">
         <v>0</v>
       </c>
       <c r="AZ70" s="13">
-        <v>18060</v>
+        <v>136853</v>
       </c>
       <c r="BA70" s="13">
-        <v>0</v>
+        <v>41500</v>
       </c>
       <c r="BB70" s="13">
-        <v>136853</v>
+        <v>99517</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>64</v>
       </c>
@@ -9554,14 +9554,14 @@
       <c r="AU71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW71" s="11" t="s">
-        <v>58</v>
+      <c r="AV71" s="11">
+        <v>344975</v>
+      </c>
+      <c r="AW71" s="11">
+        <v>0</v>
       </c>
       <c r="AX71" s="11">
-        <v>344975</v>
+        <v>0</v>
       </c>
       <c r="AY71" s="11">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
         <v>74</v>
       </c>
@@ -9628,112 +9628,112 @@
         <v>0</v>
       </c>
       <c r="T72" s="15">
-        <v>0</v>
+        <v>106600</v>
       </c>
       <c r="U72" s="15">
-        <v>0</v>
+        <v>282870</v>
       </c>
       <c r="V72" s="15">
-        <v>0</v>
+        <v>309461</v>
       </c>
       <c r="W72" s="15">
-        <v>0</v>
+        <v>194189</v>
       </c>
       <c r="X72" s="15">
-        <v>0</v>
+        <v>471370</v>
       </c>
       <c r="Y72" s="15">
-        <v>194189</v>
+        <v>2121590</v>
       </c>
       <c r="Z72" s="15">
-        <v>471370</v>
+        <v>1149702</v>
       </c>
       <c r="AA72" s="15">
-        <v>2121590</v>
+        <v>476397</v>
       </c>
       <c r="AB72" s="15">
-        <v>1149702</v>
+        <v>136572</v>
       </c>
       <c r="AC72" s="15">
-        <v>476397</v>
+        <v>357270</v>
       </c>
       <c r="AD72" s="15">
-        <v>136572</v>
+        <v>831505</v>
       </c>
       <c r="AE72" s="15">
-        <v>357270</v>
+        <v>162673</v>
       </c>
       <c r="AF72" s="15">
-        <v>831505</v>
+        <v>90076</v>
       </c>
       <c r="AG72" s="15">
-        <v>162673</v>
+        <v>282964</v>
       </c>
       <c r="AH72" s="15">
-        <v>90076</v>
+        <v>1392910</v>
       </c>
       <c r="AI72" s="15">
-        <v>282964</v>
+        <v>648810</v>
       </c>
       <c r="AJ72" s="15">
-        <v>1392910</v>
+        <v>488749</v>
       </c>
       <c r="AK72" s="15">
-        <v>648810</v>
+        <v>706863</v>
       </c>
       <c r="AL72" s="15">
-        <v>488749</v>
+        <v>420691</v>
       </c>
       <c r="AM72" s="15">
-        <v>706863</v>
+        <v>631888</v>
       </c>
       <c r="AN72" s="15">
-        <v>420691</v>
+        <v>1503167</v>
       </c>
       <c r="AO72" s="15">
-        <v>631888</v>
+        <v>1536633</v>
       </c>
       <c r="AP72" s="15">
-        <v>1503167</v>
+        <v>1269655</v>
       </c>
       <c r="AQ72" s="15">
-        <v>1536633</v>
+        <v>1472654</v>
       </c>
       <c r="AR72" s="15">
-        <v>1291547</v>
+        <v>1120042</v>
       </c>
       <c r="AS72" s="15">
-        <v>1472654</v>
+        <v>2030180</v>
       </c>
       <c r="AT72" s="15">
-        <v>1120042</v>
+        <v>4094671</v>
       </c>
       <c r="AU72" s="15">
-        <v>2030180</v>
+        <v>3446538</v>
       </c>
       <c r="AV72" s="15">
-        <v>4094671</v>
+        <v>2980224</v>
       </c>
       <c r="AW72" s="15">
-        <v>3446538</v>
+        <v>1467984</v>
       </c>
       <c r="AX72" s="15">
-        <v>2937141</v>
+        <v>2650419</v>
       </c>
       <c r="AY72" s="15">
-        <v>1467984</v>
+        <v>2479858</v>
       </c>
       <c r="AZ72" s="15">
-        <v>2607336</v>
+        <v>3055968</v>
       </c>
       <c r="BA72" s="15">
-        <v>2436775</v>
+        <v>2009377</v>
       </c>
       <c r="BB72" s="15">
-        <v>3055968</v>
+        <v>4728417</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>82</v>
       </c>
@@ -9790,7 +9790,7 @@
       <c r="BA73" s="9"/>
       <c r="BB73" s="9"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>56</v>
       </c>
@@ -9843,20 +9843,20 @@
       <c r="S74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X74" s="11" t="s">
-        <v>58</v>
+      <c r="T74" s="11">
+        <v>0</v>
+      </c>
+      <c r="U74" s="11">
+        <v>0</v>
+      </c>
+      <c r="V74" s="11">
+        <v>0</v>
+      </c>
+      <c r="W74" s="11">
+        <v>0</v>
+      </c>
+      <c r="X74" s="11">
+        <v>0</v>
       </c>
       <c r="Y74" s="11">
         <v>0</v>
@@ -9915,11 +9915,11 @@
       <c r="AQ74" s="11">
         <v>0</v>
       </c>
-      <c r="AR74" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS74" s="11">
-        <v>0</v>
+      <c r="AR74" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS74" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT74" s="11" t="s">
         <v>58</v>
@@ -9949,7 +9949,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
         <v>60</v>
       </c>
@@ -10002,113 +10002,113 @@
       <c r="S75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X75" s="13" t="s">
-        <v>58</v>
+      <c r="T75" s="13">
+        <v>27493</v>
+      </c>
+      <c r="U75" s="13">
+        <v>632487</v>
+      </c>
+      <c r="V75" s="13">
+        <v>647500</v>
+      </c>
+      <c r="W75" s="13">
+        <v>1135696</v>
+      </c>
+      <c r="X75" s="13">
+        <v>36095</v>
       </c>
       <c r="Y75" s="13">
-        <v>1135696</v>
+        <v>571030</v>
       </c>
       <c r="Z75" s="13">
-        <v>36095</v>
+        <v>2041260</v>
       </c>
       <c r="AA75" s="13">
-        <v>571030</v>
+        <v>456342</v>
       </c>
       <c r="AB75" s="13">
-        <v>2041260</v>
+        <v>2624036</v>
       </c>
       <c r="AC75" s="13">
-        <v>456342</v>
+        <v>36951</v>
       </c>
       <c r="AD75" s="13">
-        <v>2624036</v>
+        <v>1329072</v>
       </c>
       <c r="AE75" s="13">
-        <v>36951</v>
+        <v>0</v>
       </c>
       <c r="AF75" s="13">
-        <v>1329072</v>
+        <v>0</v>
       </c>
       <c r="AG75" s="13">
-        <v>0</v>
+        <v>2541984</v>
       </c>
       <c r="AH75" s="13">
-        <v>0</v>
+        <v>1415311</v>
       </c>
       <c r="AI75" s="13">
-        <v>2541984</v>
+        <v>859989</v>
       </c>
       <c r="AJ75" s="13">
-        <v>1415311</v>
+        <v>1570448</v>
       </c>
       <c r="AK75" s="13">
-        <v>859989</v>
+        <v>1528145</v>
       </c>
       <c r="AL75" s="13">
-        <v>1570448</v>
+        <v>1307795</v>
       </c>
       <c r="AM75" s="13">
-        <v>1528145</v>
+        <v>1184624</v>
       </c>
       <c r="AN75" s="13">
-        <v>1307795</v>
+        <v>2301739</v>
       </c>
       <c r="AO75" s="13">
-        <v>1184624</v>
+        <v>997037</v>
       </c>
       <c r="AP75" s="13">
-        <v>2301739</v>
+        <v>3134086</v>
       </c>
       <c r="AQ75" s="13">
-        <v>997037</v>
+        <v>4495072</v>
       </c>
       <c r="AR75" s="13">
-        <v>3180863</v>
+        <v>0</v>
       </c>
       <c r="AS75" s="13">
-        <v>4495072</v>
+        <v>0</v>
       </c>
       <c r="AT75" s="13">
-        <v>0</v>
+        <v>5293267</v>
       </c>
       <c r="AU75" s="13">
         <v>0</v>
       </c>
       <c r="AV75" s="13">
-        <v>5299857</v>
+        <v>0</v>
       </c>
       <c r="AW75" s="13">
-        <v>0</v>
+        <v>2290047</v>
       </c>
       <c r="AX75" s="13">
-        <v>466489</v>
+        <v>0</v>
       </c>
       <c r="AY75" s="13">
-        <v>2290047</v>
+        <v>0</v>
       </c>
       <c r="AZ75" s="13">
-        <v>466489</v>
+        <v>8298177</v>
       </c>
       <c r="BA75" s="13">
-        <v>466489</v>
+        <v>0</v>
       </c>
       <c r="BB75" s="13">
-        <v>8298177</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>62</v>
       </c>
@@ -10233,11 +10233,11 @@
       <c r="AQ76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS76" s="11" t="s">
-        <v>58</v>
+      <c r="AR76" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS76" s="11">
+        <v>0</v>
       </c>
       <c r="AT76" s="11">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
         <v>76</v>
       </c>
@@ -10319,112 +10319,112 @@
         <v>0</v>
       </c>
       <c r="T77" s="15">
-        <v>0</v>
+        <v>27493</v>
       </c>
       <c r="U77" s="15">
-        <v>0</v>
+        <v>632487</v>
       </c>
       <c r="V77" s="15">
-        <v>0</v>
+        <v>647500</v>
       </c>
       <c r="W77" s="15">
-        <v>0</v>
+        <v>1135696</v>
       </c>
       <c r="X77" s="15">
-        <v>0</v>
+        <v>36095</v>
       </c>
       <c r="Y77" s="15">
-        <v>1135696</v>
+        <v>571030</v>
       </c>
       <c r="Z77" s="15">
-        <v>36095</v>
+        <v>2041260</v>
       </c>
       <c r="AA77" s="15">
-        <v>571030</v>
+        <v>456342</v>
       </c>
       <c r="AB77" s="15">
-        <v>2041260</v>
+        <v>2624036</v>
       </c>
       <c r="AC77" s="15">
-        <v>456342</v>
+        <v>36951</v>
       </c>
       <c r="AD77" s="15">
-        <v>2624036</v>
+        <v>1329072</v>
       </c>
       <c r="AE77" s="15">
-        <v>36951</v>
+        <v>0</v>
       </c>
       <c r="AF77" s="15">
-        <v>1329072</v>
+        <v>0</v>
       </c>
       <c r="AG77" s="15">
-        <v>0</v>
+        <v>2541984</v>
       </c>
       <c r="AH77" s="15">
-        <v>0</v>
+        <v>1415311</v>
       </c>
       <c r="AI77" s="15">
-        <v>2541984</v>
+        <v>859989</v>
       </c>
       <c r="AJ77" s="15">
-        <v>1415311</v>
+        <v>1570448</v>
       </c>
       <c r="AK77" s="15">
-        <v>859989</v>
+        <v>1528145</v>
       </c>
       <c r="AL77" s="15">
-        <v>1570448</v>
+        <v>1307795</v>
       </c>
       <c r="AM77" s="15">
-        <v>1528145</v>
+        <v>1184624</v>
       </c>
       <c r="AN77" s="15">
-        <v>1307795</v>
+        <v>2301739</v>
       </c>
       <c r="AO77" s="15">
-        <v>1184624</v>
+        <v>997037</v>
       </c>
       <c r="AP77" s="15">
-        <v>2301739</v>
+        <v>3134086</v>
       </c>
       <c r="AQ77" s="15">
-        <v>997037</v>
+        <v>4495072</v>
       </c>
       <c r="AR77" s="15">
-        <v>3180863</v>
+        <v>0</v>
       </c>
       <c r="AS77" s="15">
-        <v>4495072</v>
+        <v>0</v>
       </c>
       <c r="AT77" s="15">
-        <v>0</v>
+        <v>5293267</v>
       </c>
       <c r="AU77" s="15">
         <v>0</v>
       </c>
       <c r="AV77" s="15">
-        <v>5299857</v>
+        <v>0</v>
       </c>
       <c r="AW77" s="15">
-        <v>0</v>
+        <v>2290047</v>
       </c>
       <c r="AX77" s="15">
-        <v>466489</v>
+        <v>0</v>
       </c>
       <c r="AY77" s="15">
-        <v>2290047</v>
+        <v>0</v>
       </c>
       <c r="AZ77" s="15">
-        <v>466489</v>
+        <v>8298177</v>
       </c>
       <c r="BA77" s="15">
-        <v>466489</v>
+        <v>0</v>
       </c>
       <c r="BB77" s="15">
-        <v>8298177</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>83</v>
       </c>
@@ -10481,7 +10481,7 @@
       <c r="BA78" s="9"/>
       <c r="BB78" s="9"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>56</v>
       </c>
@@ -10570,11 +10570,11 @@
       <c r="AE79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG79" s="11" t="s">
-        <v>58</v>
+      <c r="AF79" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="11">
+        <v>0</v>
       </c>
       <c r="AH79" s="11">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>59</v>
       </c>
@@ -10693,20 +10693,20 @@
       <c r="S80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X80" s="13" t="s">
-        <v>58</v>
+      <c r="T80" s="13">
+        <v>0</v>
+      </c>
+      <c r="U80" s="13">
+        <v>0</v>
+      </c>
+      <c r="V80" s="13">
+        <v>0</v>
+      </c>
+      <c r="W80" s="13">
+        <v>0</v>
+      </c>
+      <c r="X80" s="13">
+        <v>0</v>
       </c>
       <c r="Y80" s="13">
         <v>0</v>
@@ -10729,11 +10729,11 @@
       <c r="AE80" s="13">
         <v>0</v>
       </c>
-      <c r="AF80" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG80" s="13">
-        <v>0</v>
+      <c r="AF80" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH80" s="13" t="s">
         <v>58</v>
@@ -10799,7 +10799,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>61</v>
       </c>
@@ -10852,71 +10852,71 @@
       <c r="S81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X81" s="11" t="s">
-        <v>58</v>
+      <c r="T81" s="11">
+        <v>0</v>
+      </c>
+      <c r="U81" s="11">
+        <v>0</v>
+      </c>
+      <c r="V81" s="11">
+        <v>3735</v>
+      </c>
+      <c r="W81" s="11">
+        <v>0</v>
+      </c>
+      <c r="X81" s="11">
+        <v>912</v>
       </c>
       <c r="Y81" s="11">
         <v>0</v>
       </c>
       <c r="Z81" s="11">
-        <v>912</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="11">
         <v>0</v>
       </c>
       <c r="AB81" s="11">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="AC81" s="11">
         <v>0</v>
       </c>
       <c r="AD81" s="11">
-        <v>946</v>
+        <v>3398</v>
       </c>
       <c r="AE81" s="11">
         <v>0</v>
       </c>
       <c r="AF81" s="11">
-        <v>3398</v>
+        <v>0</v>
       </c>
       <c r="AG81" s="11">
         <v>0</v>
       </c>
       <c r="AH81" s="11">
-        <v>0</v>
+        <v>4405</v>
       </c>
       <c r="AI81" s="11">
         <v>0</v>
       </c>
       <c r="AJ81" s="11">
-        <v>4405</v>
+        <v>962</v>
       </c>
       <c r="AK81" s="11">
-        <v>0</v>
+        <v>1811</v>
       </c>
       <c r="AL81" s="11">
-        <v>962</v>
+        <v>4556</v>
       </c>
       <c r="AM81" s="11">
-        <v>1811</v>
+        <v>4491</v>
       </c>
       <c r="AN81" s="11">
-        <v>4556</v>
+        <v>0</v>
       </c>
       <c r="AO81" s="11">
-        <v>4491</v>
+        <v>0</v>
       </c>
       <c r="AP81" s="11">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="AR81" s="11">
-        <v>25575</v>
+        <v>0</v>
       </c>
       <c r="AS81" s="11">
         <v>0</v>
@@ -10934,13 +10934,13 @@
         <v>0</v>
       </c>
       <c r="AU81" s="11">
-        <v>0</v>
+        <v>1929</v>
       </c>
       <c r="AV81" s="11">
         <v>0</v>
       </c>
       <c r="AW81" s="11">
-        <v>1929</v>
+        <v>0</v>
       </c>
       <c r="AX81" s="11">
         <v>0</v>
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>69</v>
       </c>
@@ -11083,11 +11083,11 @@
       <c r="AQ82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS82" s="13" t="s">
-        <v>58</v>
+      <c r="AR82" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS82" s="13">
+        <v>0</v>
       </c>
       <c r="AT82" s="13">
         <v>0</v>
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="16" t="s">
         <v>70</v>
       </c>
@@ -11170,71 +11170,71 @@
       <c r="S83" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="T83" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="U83" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="V83" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="W83" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X83" s="17" t="s">
-        <v>58</v>
+      <c r="T83" s="17">
+        <v>0</v>
+      </c>
+      <c r="U83" s="17">
+        <v>0</v>
+      </c>
+      <c r="V83" s="17">
+        <v>3735</v>
+      </c>
+      <c r="W83" s="17">
+        <v>0</v>
+      </c>
+      <c r="X83" s="17">
+        <v>912</v>
       </c>
       <c r="Y83" s="17">
         <v>0</v>
       </c>
       <c r="Z83" s="17">
-        <v>912</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="17">
         <v>0</v>
       </c>
       <c r="AB83" s="17">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="AC83" s="17">
         <v>0</v>
       </c>
       <c r="AD83" s="17">
-        <v>946</v>
+        <v>3398</v>
       </c>
       <c r="AE83" s="17">
         <v>0</v>
       </c>
       <c r="AF83" s="17">
-        <v>3398</v>
+        <v>0</v>
       </c>
       <c r="AG83" s="17">
         <v>0</v>
       </c>
       <c r="AH83" s="17">
-        <v>0</v>
+        <v>4405</v>
       </c>
       <c r="AI83" s="17">
         <v>0</v>
       </c>
       <c r="AJ83" s="17">
-        <v>4405</v>
+        <v>962</v>
       </c>
       <c r="AK83" s="17">
-        <v>0</v>
+        <v>1811</v>
       </c>
       <c r="AL83" s="17">
-        <v>962</v>
+        <v>4556</v>
       </c>
       <c r="AM83" s="17">
-        <v>1811</v>
+        <v>4491</v>
       </c>
       <c r="AN83" s="17">
-        <v>4556</v>
+        <v>0</v>
       </c>
       <c r="AO83" s="17">
-        <v>4491</v>
+        <v>0</v>
       </c>
       <c r="AP83" s="17">
         <v>0</v>
@@ -11243,7 +11243,7 @@
         <v>0</v>
       </c>
       <c r="AR83" s="17">
-        <v>25575</v>
+        <v>0</v>
       </c>
       <c r="AS83" s="17">
         <v>0</v>
@@ -11252,13 +11252,13 @@
         <v>0</v>
       </c>
       <c r="AU83" s="17">
-        <v>0</v>
+        <v>1929</v>
       </c>
       <c r="AV83" s="17">
         <v>0</v>
       </c>
       <c r="AW83" s="17">
-        <v>1929</v>
+        <v>0</v>
       </c>
       <c r="AX83" s="17">
         <v>0</v>
@@ -11276,7 +11276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="18" t="s">
         <v>84</v>
       </c>
@@ -11333,7 +11333,7 @@
       <c r="BA84" s="19"/>
       <c r="BB84" s="19"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="16" t="s">
         <v>78</v>
       </c>
@@ -11386,20 +11386,20 @@
       <c r="S85" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="T85" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="U85" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="V85" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="W85" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X85" s="17" t="s">
-        <v>58</v>
+      <c r="T85" s="17">
+        <v>0</v>
+      </c>
+      <c r="U85" s="17">
+        <v>0</v>
+      </c>
+      <c r="V85" s="17">
+        <v>0</v>
+      </c>
+      <c r="W85" s="17">
+        <v>0</v>
+      </c>
+      <c r="X85" s="17">
+        <v>0</v>
       </c>
       <c r="Y85" s="17">
         <v>0</v>
@@ -11492,7 +11492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>85</v>
       </c>
@@ -11549,7 +11549,7 @@
       <c r="BA86" s="9"/>
       <c r="BB86" s="9"/>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>86</v>
       </c>
@@ -11602,20 +11602,20 @@
       <c r="S87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X87" s="11" t="s">
-        <v>58</v>
+      <c r="T87" s="11">
+        <v>0</v>
+      </c>
+      <c r="U87" s="11">
+        <v>0</v>
+      </c>
+      <c r="V87" s="11">
+        <v>0</v>
+      </c>
+      <c r="W87" s="11">
+        <v>0</v>
+      </c>
+      <c r="X87" s="11">
+        <v>0</v>
       </c>
       <c r="Y87" s="11">
         <v>0</v>
@@ -11708,7 +11708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="14" t="s">
         <v>71</v>
       </c>
@@ -11760,112 +11760,112 @@
         <v>0</v>
       </c>
       <c r="T88" s="15">
-        <v>0</v>
+        <v>134093</v>
       </c>
       <c r="U88" s="15">
-        <v>0</v>
+        <v>915357</v>
       </c>
       <c r="V88" s="15">
-        <v>0</v>
+        <v>960696</v>
       </c>
       <c r="W88" s="15">
-        <v>0</v>
+        <v>1329885</v>
       </c>
       <c r="X88" s="15">
-        <v>0</v>
+        <v>508377</v>
       </c>
       <c r="Y88" s="15">
-        <v>1329885</v>
+        <v>2692620</v>
       </c>
       <c r="Z88" s="15">
-        <v>508377</v>
+        <v>3190962</v>
       </c>
       <c r="AA88" s="15">
-        <v>2692620</v>
+        <v>932739</v>
       </c>
       <c r="AB88" s="15">
-        <v>3190962</v>
+        <v>2761554</v>
       </c>
       <c r="AC88" s="15">
-        <v>932739</v>
+        <v>394221</v>
       </c>
       <c r="AD88" s="15">
-        <v>2761554</v>
+        <v>2163975</v>
       </c>
       <c r="AE88" s="15">
-        <v>394221</v>
+        <v>162673</v>
       </c>
       <c r="AF88" s="15">
-        <v>2163975</v>
+        <v>90076</v>
       </c>
       <c r="AG88" s="15">
-        <v>162673</v>
+        <v>2824948</v>
       </c>
       <c r="AH88" s="15">
-        <v>90076</v>
+        <v>2812626</v>
       </c>
       <c r="AI88" s="15">
-        <v>2824948</v>
+        <v>1508799</v>
       </c>
       <c r="AJ88" s="15">
-        <v>2812626</v>
+        <v>2060159</v>
       </c>
       <c r="AK88" s="15">
-        <v>1508799</v>
+        <v>2236819</v>
       </c>
       <c r="AL88" s="15">
-        <v>2060159</v>
+        <v>1733042</v>
       </c>
       <c r="AM88" s="15">
-        <v>2236819</v>
+        <v>1821003</v>
       </c>
       <c r="AN88" s="15">
-        <v>1733042</v>
+        <v>3804906</v>
       </c>
       <c r="AO88" s="15">
-        <v>1821003</v>
+        <v>2533670</v>
       </c>
       <c r="AP88" s="15">
-        <v>3804906</v>
+        <v>4403741</v>
       </c>
       <c r="AQ88" s="15">
-        <v>2533670</v>
+        <v>5967726</v>
       </c>
       <c r="AR88" s="15">
-        <v>4497985</v>
+        <v>1120042</v>
       </c>
       <c r="AS88" s="15">
-        <v>5967726</v>
+        <v>2030180</v>
       </c>
       <c r="AT88" s="15">
-        <v>1120042</v>
+        <v>9387938</v>
       </c>
       <c r="AU88" s="15">
-        <v>2030180</v>
+        <v>3448467</v>
       </c>
       <c r="AV88" s="15">
-        <v>9394528</v>
+        <v>2980224</v>
       </c>
       <c r="AW88" s="15">
-        <v>3448467</v>
+        <v>3758031</v>
       </c>
       <c r="AX88" s="15">
-        <v>3403630</v>
+        <v>2650419</v>
       </c>
       <c r="AY88" s="15">
-        <v>3758031</v>
+        <v>2479858</v>
       </c>
       <c r="AZ88" s="15">
-        <v>3073825</v>
+        <v>11354145</v>
       </c>
       <c r="BA88" s="15">
-        <v>2903264</v>
+        <v>2009377</v>
       </c>
       <c r="BB88" s="15">
-        <v>11354145</v>
+        <v>4728417</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -11920,7 +11920,7 @@
       <c r="BA89" s="1"/>
       <c r="BB89" s="1"/>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -11975,7 +11975,7 @@
       <c r="BA90" s="1"/>
       <c r="BB90" s="1"/>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -12030,7 +12030,7 @@
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
     </row>
-    <row r="92" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
         <v>87</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -12242,7 +12242,7 @@
       <c r="BA93" s="1"/>
       <c r="BB93" s="1"/>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
         <v>88</v>
       </c>
@@ -12299,7 +12299,7 @@
       <c r="BA94" s="9"/>
       <c r="BB94" s="9"/>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>56</v>
       </c>
@@ -12370,14 +12370,14 @@
       <c r="Y95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z95" s="11" t="s">
-        <v>58</v>
+      <c r="Z95" s="11">
+        <v>404464000</v>
       </c>
       <c r="AA95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB95" s="11">
-        <v>404464000</v>
+      <c r="AB95" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AC95" s="11" t="s">
         <v>58</v>
@@ -12458,7 +12458,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>59</v>
       </c>
@@ -12520,71 +12520,71 @@
       <c r="V96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W96" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X96" s="13" t="s">
-        <v>58</v>
+      <c r="W96" s="13">
+        <v>86709302</v>
+      </c>
+      <c r="X96" s="13">
+        <v>152190909</v>
       </c>
       <c r="Y96" s="13">
-        <v>86709302</v>
+        <v>197065851</v>
       </c>
       <c r="Z96" s="13">
-        <v>152190909</v>
+        <v>255861573</v>
       </c>
       <c r="AA96" s="13">
-        <v>197065851</v>
+        <v>257229120</v>
       </c>
       <c r="AB96" s="13">
-        <v>255861573</v>
+        <v>269183333</v>
       </c>
       <c r="AC96" s="13">
-        <v>257229120</v>
+        <v>289070922</v>
       </c>
       <c r="AD96" s="13">
-        <v>269183333</v>
-      </c>
-      <c r="AE96" s="13">
-        <v>289070922</v>
-      </c>
-      <c r="AF96" s="13">
         <v>305392157</v>
       </c>
-      <c r="AG96" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH96" s="13" t="s">
-        <v>58</v>
+      <c r="AE96" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF96" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG96" s="13">
+        <v>319880785</v>
+      </c>
+      <c r="AH96" s="13">
+        <v>290662000</v>
       </c>
       <c r="AI96" s="13">
-        <v>319880785</v>
+        <v>304913767</v>
       </c>
       <c r="AJ96" s="13">
-        <v>290662000</v>
+        <v>294786885</v>
       </c>
       <c r="AK96" s="13">
-        <v>304913767</v>
+        <v>399497537</v>
       </c>
       <c r="AL96" s="13">
-        <v>294786885</v>
+        <v>323972574</v>
       </c>
       <c r="AM96" s="13">
-        <v>399497537</v>
+        <v>338631098</v>
       </c>
       <c r="AN96" s="13">
-        <v>323972574</v>
+        <v>337454545</v>
       </c>
       <c r="AO96" s="13">
-        <v>338631098</v>
-      </c>
-      <c r="AP96" s="13">
-        <v>337454545</v>
-      </c>
-      <c r="AQ96" s="13">
         <v>332966667</v>
       </c>
-      <c r="AR96" s="13">
-        <v>0</v>
+      <c r="AP96" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ96" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR96" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS96" s="13" t="s">
         <v>58</v>
@@ -12592,32 +12592,32 @@
       <c r="AT96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU96" s="13" t="s">
-        <v>58</v>
+      <c r="AU96" s="13">
+        <v>302877271</v>
       </c>
       <c r="AV96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW96" s="13">
-        <v>302877271</v>
-      </c>
-      <c r="AX96" s="13">
-        <v>0</v>
+      <c r="AW96" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX96" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ96" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA96" s="13">
-        <v>0</v>
+      <c r="AZ96" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA96" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB96" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>60</v>
       </c>
@@ -12670,113 +12670,113 @@
       <c r="S97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X97" s="11" t="s">
-        <v>58</v>
+      <c r="T97" s="11">
+        <v>257905556</v>
+      </c>
+      <c r="U97" s="11">
+        <v>262591173</v>
+      </c>
+      <c r="V97" s="11">
+        <v>263488576</v>
+      </c>
+      <c r="W97" s="11">
+        <v>327076667</v>
+      </c>
+      <c r="X97" s="11">
+        <v>471766071</v>
       </c>
       <c r="Y97" s="11">
-        <v>327076667</v>
+        <v>515791786</v>
       </c>
       <c r="Z97" s="11">
-        <v>471766071</v>
+        <v>556475000</v>
       </c>
       <c r="AA97" s="11">
-        <v>515791786</v>
-      </c>
-      <c r="AB97" s="11">
-        <v>556475000</v>
-      </c>
-      <c r="AC97" s="11">
         <v>530000000</v>
       </c>
-      <c r="AD97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE97" s="11" t="s">
-        <v>58</v>
+      <c r="AB97" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC97" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD97" s="11">
+        <v>612012069</v>
+      </c>
+      <c r="AE97" s="11">
+        <v>616416667</v>
       </c>
       <c r="AF97" s="11">
-        <v>612012069</v>
-      </c>
-      <c r="AG97" s="11">
-        <v>616416667</v>
+        <v>588448276</v>
+      </c>
+      <c r="AG97" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH97" s="11">
-        <v>588448276</v>
-      </c>
-      <c r="AI97" s="11" t="s">
-        <v>58</v>
+        <v>583869176</v>
+      </c>
+      <c r="AI97" s="11">
+        <v>600761798</v>
       </c>
       <c r="AJ97" s="11">
-        <v>583869176</v>
+        <v>625142308</v>
       </c>
       <c r="AK97" s="11">
-        <v>600761798</v>
+        <v>642225000</v>
       </c>
       <c r="AL97" s="11">
-        <v>625142308</v>
+        <v>667820000</v>
       </c>
       <c r="AM97" s="11">
-        <v>642225000</v>
+        <v>750417391</v>
       </c>
       <c r="AN97" s="11">
-        <v>667820000</v>
+        <v>755143175</v>
       </c>
       <c r="AO97" s="11">
-        <v>750417391</v>
+        <v>828822346</v>
       </c>
       <c r="AP97" s="11">
-        <v>755143175</v>
+        <v>883147622</v>
       </c>
       <c r="AQ97" s="11">
-        <v>828822346</v>
+        <v>888361111</v>
       </c>
       <c r="AR97" s="11">
-        <v>883147622</v>
+        <v>1031620621</v>
       </c>
       <c r="AS97" s="11">
-        <v>888361111</v>
+        <v>945966057</v>
       </c>
       <c r="AT97" s="11">
-        <v>1031620621</v>
+        <v>920768083</v>
       </c>
       <c r="AU97" s="11">
-        <v>945966057</v>
+        <v>842090136</v>
       </c>
       <c r="AV97" s="11">
-        <v>920768083</v>
+        <v>823768418</v>
       </c>
       <c r="AW97" s="11">
-        <v>842090136</v>
+        <v>866703881</v>
       </c>
       <c r="AX97" s="11">
-        <v>823768418</v>
+        <v>795895152</v>
       </c>
       <c r="AY97" s="11">
-        <v>866703881</v>
+        <v>798137464</v>
       </c>
       <c r="AZ97" s="11">
-        <v>795895152</v>
+        <v>920175970</v>
       </c>
       <c r="BA97" s="11">
-        <v>798137464</v>
+        <v>989045730</v>
       </c>
       <c r="BB97" s="11">
-        <v>920175970</v>
+        <v>1082300164</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>61</v>
       </c>
@@ -12835,60 +12835,60 @@
       <c r="U98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V98" s="13" t="s">
-        <v>58</v>
+      <c r="V98" s="13">
+        <v>29953810</v>
       </c>
       <c r="W98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z98" s="13">
+      <c r="X98" s="13">
         <v>34444569</v>
       </c>
+      <c r="Y98" s="13">
+        <v>28581712</v>
+      </c>
+      <c r="Z98" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AA98" s="13">
-        <v>28581712</v>
+        <v>45096663</v>
       </c>
       <c r="AB98" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AC98" s="13">
-        <v>45096663</v>
-      </c>
-      <c r="AD98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE98" s="13">
         <v>72799304</v>
       </c>
-      <c r="AF98" s="13">
+      <c r="AD98" s="13">
         <v>55536977</v>
       </c>
-      <c r="AG98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH98" s="13" t="s">
-        <v>58</v>
+      <c r="AE98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG98" s="13">
+        <v>58515712</v>
+      </c>
+      <c r="AH98" s="13">
+        <v>95483984</v>
       </c>
       <c r="AI98" s="13">
-        <v>58515712</v>
+        <v>75883110</v>
       </c>
       <c r="AJ98" s="13">
-        <v>95483984</v>
+        <v>109345405</v>
       </c>
       <c r="AK98" s="13">
-        <v>75883110</v>
-      </c>
-      <c r="AL98" s="13">
-        <v>109345405</v>
-      </c>
-      <c r="AM98" s="13">
         <v>76440416</v>
       </c>
+      <c r="AL98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM98" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AN98" s="13" t="s">
         <v>58</v>
       </c>
@@ -12901,8 +12901,8 @@
       <c r="AQ98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR98" s="13">
-        <v>2007704</v>
+      <c r="AR98" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS98" s="13" t="s">
         <v>58</v>
@@ -12928,14 +12928,14 @@
       <c r="AZ98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA98" s="13" t="s">
-        <v>58</v>
+      <c r="BA98" s="13">
+        <v>97912396</v>
       </c>
       <c r="BB98" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>63</v>
       </c>
@@ -13030,71 +13030,71 @@
       <c r="AG99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ99" s="11">
+      <c r="AH99" s="11">
         <v>513000000</v>
       </c>
+      <c r="AI99" s="11">
+        <v>593000000</v>
+      </c>
+      <c r="AJ99" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AK99" s="11">
-        <v>593000000</v>
+        <v>670400000</v>
       </c>
       <c r="AL99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM99" s="11">
-        <v>670400000</v>
-      </c>
-      <c r="AN99" s="11" t="s">
-        <v>58</v>
+      <c r="AM99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN99" s="11">
+        <v>677770000</v>
       </c>
       <c r="AO99" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AP99" s="11">
-        <v>677770000</v>
-      </c>
-      <c r="AQ99" s="11" t="s">
-        <v>58</v>
+        <v>708520000</v>
+      </c>
+      <c r="AQ99" s="11">
+        <v>593360000</v>
       </c>
       <c r="AR99" s="11">
-        <v>708520000</v>
+        <v>596353333</v>
       </c>
       <c r="AS99" s="11">
-        <v>593360000</v>
+        <v>652475789</v>
       </c>
       <c r="AT99" s="11">
-        <v>596353333</v>
+        <v>653400000</v>
       </c>
       <c r="AU99" s="11">
-        <v>652475789</v>
+        <v>710000000</v>
       </c>
       <c r="AV99" s="11">
-        <v>653400000</v>
-      </c>
-      <c r="AW99" s="11">
-        <v>710000000</v>
+        <v>703213333</v>
+      </c>
+      <c r="AW99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX99" s="11">
-        <v>703213333</v>
+        <v>722400000</v>
       </c>
       <c r="AY99" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AZ99" s="11">
-        <v>722400000</v>
+        <v>684265000</v>
       </c>
       <c r="BA99" s="11">
-        <v>0</v>
+        <v>830000000</v>
       </c>
       <c r="BB99" s="11">
-        <v>684265000</v>
+        <v>829308333</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>64</v>
       </c>
@@ -13231,29 +13231,29 @@
       <c r="AU100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV100" s="13" t="s">
-        <v>58</v>
+      <c r="AV100" s="13">
+        <v>785820046</v>
       </c>
       <c r="AW100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX100" s="13">
-        <v>785820046</v>
+      <c r="AX100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ100" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA100" s="13">
-        <v>0</v>
+      <c r="AZ100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB100" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
         <v>90</v>
       </c>
@@ -13310,7 +13310,7 @@
       <c r="BA101" s="9"/>
       <c r="BB101" s="9"/>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
         <v>60</v>
       </c>
@@ -13363,113 +13363,113 @@
       <c r="S102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T102" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U102" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V102" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W102" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X102" s="11" t="s">
-        <v>58</v>
+      <c r="T102" s="11">
+        <v>292478723</v>
+      </c>
+      <c r="U102" s="11">
+        <v>306883552</v>
+      </c>
+      <c r="V102" s="11">
+        <v>323750000</v>
+      </c>
+      <c r="W102" s="11">
+        <v>391349414</v>
+      </c>
+      <c r="X102" s="11">
+        <v>368316327</v>
       </c>
       <c r="Y102" s="11">
-        <v>391349414</v>
+        <v>570459540</v>
       </c>
       <c r="Z102" s="11">
-        <v>368316327</v>
+        <v>557112445</v>
       </c>
       <c r="AA102" s="11">
-        <v>570459540</v>
+        <v>666192701</v>
       </c>
       <c r="AB102" s="11">
-        <v>557112445</v>
+        <v>656009000</v>
       </c>
       <c r="AC102" s="11">
-        <v>666192701</v>
+        <v>710596154</v>
       </c>
       <c r="AD102" s="11">
-        <v>656009000</v>
-      </c>
-      <c r="AE102" s="11">
-        <v>710596154</v>
-      </c>
-      <c r="AF102" s="11">
         <v>664203898</v>
       </c>
-      <c r="AG102" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH102" s="11" t="s">
-        <v>58</v>
+      <c r="AE102" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF102" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG102" s="11">
+        <v>594199158</v>
+      </c>
+      <c r="AH102" s="11">
+        <v>600981316</v>
       </c>
       <c r="AI102" s="11">
-        <v>594199158</v>
+        <v>645153038</v>
       </c>
       <c r="AJ102" s="11">
-        <v>600981316</v>
+        <v>674301417</v>
       </c>
       <c r="AK102" s="11">
-        <v>645153038</v>
+        <v>694927240</v>
       </c>
       <c r="AL102" s="11">
-        <v>674301417</v>
+        <v>757702781</v>
       </c>
       <c r="AM102" s="11">
-        <v>694927240</v>
+        <v>725428047</v>
       </c>
       <c r="AN102" s="11">
-        <v>757702781</v>
+        <v>783437372</v>
       </c>
       <c r="AO102" s="11">
-        <v>725428047</v>
+        <v>831557131</v>
       </c>
       <c r="AP102" s="11">
-        <v>783437372</v>
+        <v>855372817</v>
       </c>
       <c r="AQ102" s="11">
-        <v>831557131</v>
-      </c>
-      <c r="AR102" s="11">
-        <v>858978297</v>
-      </c>
-      <c r="AS102" s="11">
         <v>855389534</v>
       </c>
-      <c r="AT102" s="11" t="s">
-        <v>58</v>
+      <c r="AR102" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS102" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT102" s="11">
+        <v>845299744</v>
       </c>
       <c r="AU102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV102" s="11">
-        <v>846352124</v>
-      </c>
-      <c r="AW102" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX102" s="11">
-        <v>-5654355</v>
-      </c>
-      <c r="AY102" s="11">
+      <c r="AV102" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW102" s="11">
         <v>819337030</v>
       </c>
+      <c r="AX102" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY102" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AZ102" s="11">
-        <v>781388610</v>
-      </c>
-      <c r="BA102" s="11">
-        <v>781388610</v>
-      </c>
-      <c r="BB102" s="11">
         <v>811954697</v>
       </c>
+      <c r="BA102" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB102" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
         <v>91</v>
       </c>
@@ -13526,7 +13526,7 @@
       <c r="BA103" s="9"/>
       <c r="BB103" s="9"/>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>56</v>
       </c>
@@ -13615,11 +13615,11 @@
       <c r="AE104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF104" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG104" s="11" t="s">
-        <v>58</v>
+      <c r="AF104" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="11">
+        <v>0</v>
       </c>
       <c r="AH104" s="11">
         <v>0</v>
@@ -13685,7 +13685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
         <v>59</v>
       </c>
@@ -13738,20 +13738,20 @@
       <c r="S105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T105" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U105" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V105" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W105" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X105" s="13" t="s">
-        <v>58</v>
+      <c r="T105" s="13">
+        <v>0</v>
+      </c>
+      <c r="U105" s="13">
+        <v>0</v>
+      </c>
+      <c r="V105" s="13">
+        <v>0</v>
+      </c>
+      <c r="W105" s="13">
+        <v>0</v>
+      </c>
+      <c r="X105" s="13">
+        <v>0</v>
       </c>
       <c r="Y105" s="13">
         <v>0</v>
@@ -13774,11 +13774,11 @@
       <c r="AE105" s="13">
         <v>0</v>
       </c>
-      <c r="AF105" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG105" s="13">
-        <v>0</v>
+      <c r="AF105" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG105" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH105" s="13" t="s">
         <v>58</v>
@@ -13844,7 +13844,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
         <v>61</v>
       </c>
@@ -13897,71 +13897,71 @@
       <c r="S106" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T106" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U106" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V106" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W106" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X106" s="11" t="s">
-        <v>58</v>
+      <c r="T106" s="11">
+        <v>0</v>
+      </c>
+      <c r="U106" s="11">
+        <v>0</v>
+      </c>
+      <c r="V106" s="11">
+        <v>1924266</v>
+      </c>
+      <c r="W106" s="11">
+        <v>0</v>
+      </c>
+      <c r="X106" s="11">
+        <v>815013</v>
       </c>
       <c r="Y106" s="11">
         <v>0</v>
       </c>
       <c r="Z106" s="11">
-        <v>815013</v>
+        <v>0</v>
       </c>
       <c r="AA106" s="11">
         <v>0</v>
       </c>
       <c r="AB106" s="11">
-        <v>0</v>
+        <v>796967</v>
       </c>
       <c r="AC106" s="11">
         <v>0</v>
       </c>
       <c r="AD106" s="11">
-        <v>796967</v>
+        <v>1894091</v>
       </c>
       <c r="AE106" s="11">
         <v>0</v>
       </c>
       <c r="AF106" s="11">
-        <v>1894091</v>
+        <v>0</v>
       </c>
       <c r="AG106" s="11">
         <v>0</v>
       </c>
       <c r="AH106" s="11">
-        <v>0</v>
+        <v>1478188</v>
       </c>
       <c r="AI106" s="11">
         <v>0</v>
       </c>
       <c r="AJ106" s="11">
-        <v>1478188</v>
+        <v>779579</v>
       </c>
       <c r="AK106" s="11">
-        <v>0</v>
+        <v>825433</v>
       </c>
       <c r="AL106" s="11">
-        <v>779579</v>
+        <v>1450032</v>
       </c>
       <c r="AM106" s="11">
-        <v>825433</v>
+        <v>1699849</v>
       </c>
       <c r="AN106" s="11">
-        <v>1450032</v>
+        <v>0</v>
       </c>
       <c r="AO106" s="11">
-        <v>1699849</v>
+        <v>0</v>
       </c>
       <c r="AP106" s="11">
         <v>0</v>
@@ -13970,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="AR106" s="11">
-        <v>980006</v>
+        <v>0</v>
       </c>
       <c r="AS106" s="11">
         <v>0</v>
@@ -13979,13 +13979,13 @@
         <v>0</v>
       </c>
       <c r="AU106" s="11">
-        <v>0</v>
+        <v>2686630</v>
       </c>
       <c r="AV106" s="11">
         <v>0</v>
       </c>
       <c r="AW106" s="11">
-        <v>2686630</v>
+        <v>0</v>
       </c>
       <c r="AX106" s="11">
         <v>0</v>
@@ -14003,7 +14003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
         <v>69</v>
       </c>
@@ -14128,11 +14128,11 @@
       <c r="AQ107" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR107" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS107" s="13" t="s">
-        <v>58</v>
+      <c r="AR107" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS107" s="13">
+        <v>0</v>
       </c>
       <c r="AT107" s="13">
         <v>0</v>
